--- a/01_基本設計書/06_SC-M_マスタ系/SC-M15_コードマスタ.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/SC-M15_コードマスタ.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0877DD-17F0-4139-A1E5-1778193F81DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353DF47E-8B85-4101-A907-BD56E9F386BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'１．機能概要'!$A$1:$BG$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'２．レイアウト'!$A$1:$DH$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'３．項目一覧'!$A$1:$Q$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'３．項目一覧'!$A$1:$Q$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'５．メッセージ仕様'!$A$1:$AZ$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'６．補足事項'!$A$1:$AZ$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AW$35</definedName>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="302">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1164,13 +1164,6 @@
     <t>コードマスタ.コード</t>
   </si>
   <si>
-    <t>コードマスタ全件を表示する。</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>コード区分</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1231,48 +1224,6 @@
     <rPh sb="1" eb="3">
       <t>ニンイ</t>
     </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>存在チェックが異常の場合、メッセージを表示する。</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>存在チェックが正常の場合、下記の条件より再検索して、検索結果を表示する。</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>&gt;＝</t>
     <phoneticPr fontId="17"/>
   </si>
   <si>
@@ -1339,10 +1290,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>INSE-003</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>コード区分</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1367,10 +1314,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>INSE-004</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>項目１</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1384,10 +1327,6 @@
   </si>
   <si>
     <t>コードマスタ.項目１</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>INSE-005</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1407,10 +1346,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>INSE-006</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>項目３</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1420,10 +1355,6 @@
   </si>
   <si>
     <t>コードマスタ.項目３</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>INSE-007</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1439,10 +1370,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>INSE-008</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>項目５</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1455,10 +1382,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>INSE-009</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>備考</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1468,10 +1391,6 @@
   </si>
   <si>
     <t>コードマスタ.備考</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>RSLT-DTL1-002</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1488,10 +1407,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>RSLT-DTL1-003</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1516,10 +1431,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>RSLT-DTL1-004</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>コード名称</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1532,19 +1443,11 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>RSLT-DTL1-005</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>コード区分</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>コードマスタ.コード区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>RSLT-DTL1-006</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1560,10 +1463,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>RSLT-DTL1-007</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>項目２</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1573,10 +1472,6 @@
   </si>
   <si>
     <t>コードマスタ.項目２</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>RSLT-DTL1-008</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1592,10 +1487,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>RSLT-DTL1-009</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>項目４</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1608,10 +1499,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>RSLT-DTL1-010</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>項目５</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1621,10 +1508,6 @@
   </si>
   <si>
     <t>コードマスタ.項目５</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>RSLT-DTL1-011</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1825,6 +1708,146 @@
   </si>
   <si>
     <t>変更したデータが保存されていない場合</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RSLT-DTL1-002</t>
+  </si>
+  <si>
+    <t>RSLT-DTL1-003</t>
+  </si>
+  <si>
+    <t>RSLT-DTL1-004</t>
+  </si>
+  <si>
+    <t>RSLT-DTL1-005</t>
+  </si>
+  <si>
+    <t>RSLT-DTL1-006</t>
+  </si>
+  <si>
+    <t>RSLT-DTL1-007</t>
+  </si>
+  <si>
+    <t>RSLT-DTL1-008</t>
+  </si>
+  <si>
+    <t>RSLT-DTL1-009</t>
+  </si>
+  <si>
+    <t>RSLT-DTL1-010</t>
+  </si>
+  <si>
+    <t>RSLT-DTL1-011</t>
+  </si>
+  <si>
+    <t>RSLT-DTL1-012</t>
+  </si>
+  <si>
+    <t>コード名称（英語）</t>
+    <rPh sb="6" eb="8">
+      <t>エイゴ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Code name (English)</t>
+  </si>
+  <si>
+    <t>Code name (English)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コードマスタ.コード名称（英語）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>表示順序</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Order of display</t>
+  </si>
+  <si>
+    <t>Order of display</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>数値</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RSLT-DTL1-013</t>
+  </si>
+  <si>
+    <t>値チェック</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コードマスタ.表示順序</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>INSE-003</t>
+  </si>
+  <si>
+    <t>INSE-004</t>
+  </si>
+  <si>
+    <t>INSE-005</t>
+  </si>
+  <si>
+    <t>INSE-006</t>
+  </si>
+  <si>
+    <t>INSE-007</t>
+  </si>
+  <si>
+    <t>INSE-008</t>
+  </si>
+  <si>
+    <t>INSE-009</t>
+  </si>
+  <si>
+    <t>INSE-010</t>
+  </si>
+  <si>
+    <t>INSE-011</t>
+  </si>
+  <si>
+    <t>表示順序（昇順）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>検索条件のコード区分が未選択される場合、全件を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>検索条件のコード区分が選択される場合、下記の条件よりデータを表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2760,6 +2783,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2786,91 +2894,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2935,14 +2958,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2961,12 +2990,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3679,10 +3702,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F39759-71E9-4514-8F53-2E7993E024FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B705D4-992F-459F-B089-28184DF77EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4434,1770 +4457,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="59"/>
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="147"/>
-      <c r="X1" s="147"/>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="147"/>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="147"/>
-      <c r="AJ1" s="147"/>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="147"/>
-      <c r="AM1" s="147"/>
-      <c r="AN1" s="147"/>
-      <c r="AO1" s="147"/>
-      <c r="AP1" s="147"/>
-      <c r="AQ1" s="147"/>
-      <c r="AR1" s="147"/>
-      <c r="AS1" s="147"/>
-      <c r="AT1" s="147"/>
-      <c r="AU1" s="147"/>
-      <c r="AV1" s="147"/>
-      <c r="AW1" s="147"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="178"/>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="178"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="178"/>
+      <c r="AJ1" s="178"/>
+      <c r="AK1" s="178"/>
+      <c r="AL1" s="178"/>
+      <c r="AM1" s="178"/>
+      <c r="AN1" s="178"/>
+      <c r="AO1" s="178"/>
+      <c r="AP1" s="178"/>
+      <c r="AQ1" s="178"/>
+      <c r="AR1" s="178"/>
+      <c r="AS1" s="178"/>
+      <c r="AT1" s="178"/>
+      <c r="AU1" s="178"/>
+      <c r="AV1" s="178"/>
+      <c r="AW1" s="178"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="59"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
-      <c r="AC2" s="148"/>
-      <c r="AD2" s="148"/>
-      <c r="AE2" s="148"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="148"/>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="148"/>
-      <c r="AN2" s="148"/>
-      <c r="AO2" s="148"/>
-      <c r="AP2" s="148"/>
-      <c r="AQ2" s="148"/>
-      <c r="AR2" s="148"/>
-      <c r="AS2" s="148"/>
-      <c r="AT2" s="148"/>
-      <c r="AU2" s="148"/>
-      <c r="AV2" s="148"/>
-      <c r="AW2" s="148"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="179"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="179"/>
+      <c r="U2" s="179"/>
+      <c r="V2" s="179"/>
+      <c r="W2" s="179"/>
+      <c r="X2" s="179"/>
+      <c r="Y2" s="179"/>
+      <c r="Z2" s="179"/>
+      <c r="AA2" s="179"/>
+      <c r="AB2" s="179"/>
+      <c r="AC2" s="179"/>
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="179"/>
+      <c r="AG2" s="179"/>
+      <c r="AH2" s="179"/>
+      <c r="AI2" s="179"/>
+      <c r="AJ2" s="179"/>
+      <c r="AK2" s="179"/>
+      <c r="AL2" s="179"/>
+      <c r="AM2" s="179"/>
+      <c r="AN2" s="179"/>
+      <c r="AO2" s="179"/>
+      <c r="AP2" s="179"/>
+      <c r="AQ2" s="179"/>
+      <c r="AR2" s="179"/>
+      <c r="AS2" s="179"/>
+      <c r="AT2" s="179"/>
+      <c r="AU2" s="179"/>
+      <c r="AV2" s="179"/>
+      <c r="AW2" s="179"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149" t="s">
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="150" t="s">
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="151"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="150" t="s">
+      <c r="K3" s="182"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="152"/>
-      <c r="S3" s="149" t="s">
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149" t="s">
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
+      <c r="V3" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="149"/>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="149"/>
-      <c r="AG3" s="149"/>
-      <c r="AH3" s="149"/>
-      <c r="AI3" s="149"/>
-      <c r="AJ3" s="149"/>
-      <c r="AK3" s="149"/>
-      <c r="AL3" s="149"/>
-      <c r="AM3" s="149"/>
-      <c r="AN3" s="149" t="s">
+      <c r="W3" s="180"/>
+      <c r="X3" s="180"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="180"/>
+      <c r="AB3" s="180"/>
+      <c r="AC3" s="180"/>
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="180"/>
+      <c r="AH3" s="180"/>
+      <c r="AI3" s="180"/>
+      <c r="AJ3" s="180"/>
+      <c r="AK3" s="180"/>
+      <c r="AL3" s="180"/>
+      <c r="AM3" s="180"/>
+      <c r="AN3" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="149"/>
-      <c r="AP3" s="149"/>
-      <c r="AQ3" s="149"/>
-      <c r="AR3" s="149"/>
-      <c r="AS3" s="149" t="s">
+      <c r="AO3" s="180"/>
+      <c r="AP3" s="180"/>
+      <c r="AQ3" s="180"/>
+      <c r="AR3" s="180"/>
+      <c r="AS3" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="149"/>
-      <c r="AU3" s="149"/>
-      <c r="AV3" s="149"/>
-      <c r="AW3" s="149"/>
+      <c r="AT3" s="180"/>
+      <c r="AU3" s="180"/>
+      <c r="AV3" s="180"/>
+      <c r="AW3" s="180"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="155"/>
-      <c r="S4" s="149"/>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
-      <c r="V4" s="149"/>
-      <c r="W4" s="149"/>
-      <c r="X4" s="149"/>
-      <c r="Y4" s="149"/>
-      <c r="Z4" s="149"/>
-      <c r="AA4" s="149"/>
-      <c r="AB4" s="149"/>
-      <c r="AC4" s="149"/>
-      <c r="AD4" s="149"/>
-      <c r="AE4" s="149"/>
-      <c r="AF4" s="149"/>
-      <c r="AG4" s="149"/>
-      <c r="AH4" s="149"/>
-      <c r="AI4" s="149"/>
-      <c r="AJ4" s="149"/>
-      <c r="AK4" s="149"/>
-      <c r="AL4" s="149"/>
-      <c r="AM4" s="149"/>
-      <c r="AN4" s="149"/>
-      <c r="AO4" s="149"/>
-      <c r="AP4" s="149"/>
-      <c r="AQ4" s="149"/>
-      <c r="AR4" s="149"/>
-      <c r="AS4" s="149"/>
-      <c r="AT4" s="149"/>
-      <c r="AU4" s="149"/>
-      <c r="AV4" s="149"/>
-      <c r="AW4" s="149"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="185"/>
+      <c r="R4" s="186"/>
+      <c r="S4" s="180"/>
+      <c r="T4" s="180"/>
+      <c r="U4" s="180"/>
+      <c r="V4" s="180"/>
+      <c r="W4" s="180"/>
+      <c r="X4" s="180"/>
+      <c r="Y4" s="180"/>
+      <c r="Z4" s="180"/>
+      <c r="AA4" s="180"/>
+      <c r="AB4" s="180"/>
+      <c r="AC4" s="180"/>
+      <c r="AD4" s="180"/>
+      <c r="AE4" s="180"/>
+      <c r="AF4" s="180"/>
+      <c r="AG4" s="180"/>
+      <c r="AH4" s="180"/>
+      <c r="AI4" s="180"/>
+      <c r="AJ4" s="180"/>
+      <c r="AK4" s="180"/>
+      <c r="AL4" s="180"/>
+      <c r="AM4" s="180"/>
+      <c r="AN4" s="180"/>
+      <c r="AO4" s="180"/>
+      <c r="AP4" s="180"/>
+      <c r="AQ4" s="180"/>
+      <c r="AR4" s="180"/>
+      <c r="AS4" s="180"/>
+      <c r="AT4" s="180"/>
+      <c r="AU4" s="180"/>
+      <c r="AV4" s="180"/>
+      <c r="AW4" s="180"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="61"/>
-      <c r="B5" s="157">
+      <c r="B5" s="172">
         <v>1</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="158">
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="153">
         <v>43704</v>
       </c>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="159" t="s">
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="160"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="159" t="s">
+      <c r="K5" s="155"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="161"/>
-      <c r="S5" s="156" t="s">
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="156"/>
-      <c r="U5" s="156"/>
-      <c r="V5" s="165" t="s">
+      <c r="T5" s="160"/>
+      <c r="U5" s="160"/>
+      <c r="V5" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="165"/>
-      <c r="X5" s="165"/>
-      <c r="Y5" s="165"/>
-      <c r="Z5" s="165"/>
-      <c r="AA5" s="165"/>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="165"/>
-      <c r="AI5" s="165"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="165"/>
-      <c r="AM5" s="165"/>
-      <c r="AN5" s="156" t="s">
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="171"/>
+      <c r="AC5" s="171"/>
+      <c r="AD5" s="171"/>
+      <c r="AE5" s="171"/>
+      <c r="AF5" s="171"/>
+      <c r="AG5" s="171"/>
+      <c r="AH5" s="171"/>
+      <c r="AI5" s="171"/>
+      <c r="AJ5" s="171"/>
+      <c r="AK5" s="171"/>
+      <c r="AL5" s="171"/>
+      <c r="AM5" s="171"/>
+      <c r="AN5" s="160" t="s">
         <v>141</v>
       </c>
-      <c r="AO5" s="156"/>
-      <c r="AP5" s="156"/>
-      <c r="AQ5" s="156"/>
-      <c r="AR5" s="156"/>
-      <c r="AS5" s="156"/>
-      <c r="AT5" s="156"/>
-      <c r="AU5" s="156"/>
-      <c r="AV5" s="156"/>
-      <c r="AW5" s="156"/>
+      <c r="AO5" s="160"/>
+      <c r="AP5" s="160"/>
+      <c r="AQ5" s="160"/>
+      <c r="AR5" s="160"/>
+      <c r="AS5" s="160"/>
+      <c r="AT5" s="160"/>
+      <c r="AU5" s="160"/>
+      <c r="AV5" s="160"/>
+      <c r="AW5" s="160"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="162"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="164"/>
-      <c r="S6" s="156"/>
-      <c r="T6" s="156"/>
-      <c r="U6" s="156"/>
-      <c r="V6" s="165"/>
-      <c r="W6" s="165"/>
-      <c r="X6" s="165"/>
-      <c r="Y6" s="165"/>
-      <c r="Z6" s="165"/>
-      <c r="AA6" s="165"/>
-      <c r="AB6" s="165"/>
-      <c r="AC6" s="165"/>
-      <c r="AD6" s="165"/>
-      <c r="AE6" s="165"/>
-      <c r="AF6" s="165"/>
-      <c r="AG6" s="165"/>
-      <c r="AH6" s="165"/>
-      <c r="AI6" s="165"/>
-      <c r="AJ6" s="165"/>
-      <c r="AK6" s="165"/>
-      <c r="AL6" s="165"/>
-      <c r="AM6" s="165"/>
-      <c r="AN6" s="156"/>
-      <c r="AO6" s="156"/>
-      <c r="AP6" s="156"/>
-      <c r="AQ6" s="156"/>
-      <c r="AR6" s="156"/>
-      <c r="AS6" s="156"/>
-      <c r="AT6" s="156"/>
-      <c r="AU6" s="156"/>
-      <c r="AV6" s="156"/>
-      <c r="AW6" s="156"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="177"/>
+      <c r="S6" s="160"/>
+      <c r="T6" s="160"/>
+      <c r="U6" s="160"/>
+      <c r="V6" s="171"/>
+      <c r="W6" s="171"/>
+      <c r="X6" s="171"/>
+      <c r="Y6" s="171"/>
+      <c r="Z6" s="171"/>
+      <c r="AA6" s="171"/>
+      <c r="AB6" s="171"/>
+      <c r="AC6" s="171"/>
+      <c r="AD6" s="171"/>
+      <c r="AE6" s="171"/>
+      <c r="AF6" s="171"/>
+      <c r="AG6" s="171"/>
+      <c r="AH6" s="171"/>
+      <c r="AI6" s="171"/>
+      <c r="AJ6" s="171"/>
+      <c r="AK6" s="171"/>
+      <c r="AL6" s="171"/>
+      <c r="AM6" s="171"/>
+      <c r="AN6" s="160"/>
+      <c r="AO6" s="160"/>
+      <c r="AP6" s="160"/>
+      <c r="AQ6" s="160"/>
+      <c r="AR6" s="160"/>
+      <c r="AS6" s="160"/>
+      <c r="AT6" s="160"/>
+      <c r="AU6" s="160"/>
+      <c r="AV6" s="160"/>
+      <c r="AW6" s="160"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="160"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="164"/>
-      <c r="S7" s="156"/>
-      <c r="T7" s="156"/>
-      <c r="U7" s="156"/>
-      <c r="V7" s="165"/>
-      <c r="W7" s="165"/>
-      <c r="X7" s="165"/>
-      <c r="Y7" s="165"/>
-      <c r="Z7" s="165"/>
-      <c r="AA7" s="165"/>
-      <c r="AB7" s="165"/>
-      <c r="AC7" s="165"/>
-      <c r="AD7" s="165"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="165"/>
-      <c r="AG7" s="165"/>
-      <c r="AH7" s="165"/>
-      <c r="AI7" s="165"/>
-      <c r="AJ7" s="165"/>
-      <c r="AK7" s="165"/>
-      <c r="AL7" s="165"/>
-      <c r="AM7" s="165"/>
-      <c r="AN7" s="156"/>
-      <c r="AO7" s="156"/>
-      <c r="AP7" s="156"/>
-      <c r="AQ7" s="156"/>
-      <c r="AR7" s="156"/>
-      <c r="AS7" s="156"/>
-      <c r="AT7" s="156"/>
-      <c r="AU7" s="156"/>
-      <c r="AV7" s="156"/>
-      <c r="AW7" s="156"/>
+      <c r="B7" s="172"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="176"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="176"/>
+      <c r="Q7" s="176"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="160"/>
+      <c r="T7" s="160"/>
+      <c r="U7" s="160"/>
+      <c r="V7" s="171"/>
+      <c r="W7" s="171"/>
+      <c r="X7" s="171"/>
+      <c r="Y7" s="171"/>
+      <c r="Z7" s="171"/>
+      <c r="AA7" s="171"/>
+      <c r="AB7" s="171"/>
+      <c r="AC7" s="171"/>
+      <c r="AD7" s="171"/>
+      <c r="AE7" s="171"/>
+      <c r="AF7" s="171"/>
+      <c r="AG7" s="171"/>
+      <c r="AH7" s="171"/>
+      <c r="AI7" s="171"/>
+      <c r="AJ7" s="171"/>
+      <c r="AK7" s="171"/>
+      <c r="AL7" s="171"/>
+      <c r="AM7" s="171"/>
+      <c r="AN7" s="160"/>
+      <c r="AO7" s="160"/>
+      <c r="AP7" s="160"/>
+      <c r="AQ7" s="160"/>
+      <c r="AR7" s="160"/>
+      <c r="AS7" s="160"/>
+      <c r="AT7" s="160"/>
+      <c r="AU7" s="160"/>
+      <c r="AV7" s="160"/>
+      <c r="AW7" s="160"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="61"/>
-      <c r="B8" s="157"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="164"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="156"/>
-      <c r="V8" s="165"/>
-      <c r="W8" s="165"/>
-      <c r="X8" s="165"/>
-      <c r="Y8" s="165"/>
-      <c r="Z8" s="165"/>
-      <c r="AA8" s="165"/>
-      <c r="AB8" s="165"/>
-      <c r="AC8" s="165"/>
-      <c r="AD8" s="165"/>
-      <c r="AE8" s="165"/>
-      <c r="AF8" s="165"/>
-      <c r="AG8" s="165"/>
-      <c r="AH8" s="165"/>
-      <c r="AI8" s="165"/>
-      <c r="AJ8" s="165"/>
-      <c r="AK8" s="165"/>
-      <c r="AL8" s="165"/>
-      <c r="AM8" s="165"/>
-      <c r="AN8" s="156"/>
-      <c r="AO8" s="156"/>
-      <c r="AP8" s="156"/>
-      <c r="AQ8" s="156"/>
-      <c r="AR8" s="156"/>
-      <c r="AS8" s="156"/>
-      <c r="AT8" s="156"/>
-      <c r="AU8" s="156"/>
-      <c r="AV8" s="156"/>
-      <c r="AW8" s="156"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="175"/>
+      <c r="N8" s="176"/>
+      <c r="O8" s="176"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="177"/>
+      <c r="S8" s="160"/>
+      <c r="T8" s="160"/>
+      <c r="U8" s="160"/>
+      <c r="V8" s="171"/>
+      <c r="W8" s="171"/>
+      <c r="X8" s="171"/>
+      <c r="Y8" s="171"/>
+      <c r="Z8" s="171"/>
+      <c r="AA8" s="171"/>
+      <c r="AB8" s="171"/>
+      <c r="AC8" s="171"/>
+      <c r="AD8" s="171"/>
+      <c r="AE8" s="171"/>
+      <c r="AF8" s="171"/>
+      <c r="AG8" s="171"/>
+      <c r="AH8" s="171"/>
+      <c r="AI8" s="171"/>
+      <c r="AJ8" s="171"/>
+      <c r="AK8" s="171"/>
+      <c r="AL8" s="171"/>
+      <c r="AM8" s="171"/>
+      <c r="AN8" s="160"/>
+      <c r="AO8" s="160"/>
+      <c r="AP8" s="160"/>
+      <c r="AQ8" s="160"/>
+      <c r="AR8" s="160"/>
+      <c r="AS8" s="160"/>
+      <c r="AT8" s="160"/>
+      <c r="AU8" s="160"/>
+      <c r="AV8" s="160"/>
+      <c r="AW8" s="160"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="61"/>
-      <c r="B9" s="157"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="160"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="163"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="156"/>
-      <c r="T9" s="156"/>
-      <c r="U9" s="156"/>
-      <c r="V9" s="165"/>
-      <c r="W9" s="165"/>
-      <c r="X9" s="165"/>
-      <c r="Y9" s="165"/>
-      <c r="Z9" s="165"/>
-      <c r="AA9" s="165"/>
-      <c r="AB9" s="165"/>
-      <c r="AC9" s="165"/>
-      <c r="AD9" s="165"/>
-      <c r="AE9" s="165"/>
-      <c r="AF9" s="165"/>
-      <c r="AG9" s="165"/>
-      <c r="AH9" s="165"/>
-      <c r="AI9" s="165"/>
-      <c r="AJ9" s="165"/>
-      <c r="AK9" s="165"/>
-      <c r="AL9" s="165"/>
-      <c r="AM9" s="165"/>
-      <c r="AN9" s="156"/>
-      <c r="AO9" s="156"/>
-      <c r="AP9" s="156"/>
-      <c r="AQ9" s="156"/>
-      <c r="AR9" s="156"/>
-      <c r="AS9" s="156"/>
-      <c r="AT9" s="156"/>
-      <c r="AU9" s="156"/>
-      <c r="AV9" s="156"/>
-      <c r="AW9" s="156"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="176"/>
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="160"/>
+      <c r="T9" s="160"/>
+      <c r="U9" s="160"/>
+      <c r="V9" s="171"/>
+      <c r="W9" s="171"/>
+      <c r="X9" s="171"/>
+      <c r="Y9" s="171"/>
+      <c r="Z9" s="171"/>
+      <c r="AA9" s="171"/>
+      <c r="AB9" s="171"/>
+      <c r="AC9" s="171"/>
+      <c r="AD9" s="171"/>
+      <c r="AE9" s="171"/>
+      <c r="AF9" s="171"/>
+      <c r="AG9" s="171"/>
+      <c r="AH9" s="171"/>
+      <c r="AI9" s="171"/>
+      <c r="AJ9" s="171"/>
+      <c r="AK9" s="171"/>
+      <c r="AL9" s="171"/>
+      <c r="AM9" s="171"/>
+      <c r="AN9" s="160"/>
+      <c r="AO9" s="160"/>
+      <c r="AP9" s="160"/>
+      <c r="AQ9" s="160"/>
+      <c r="AR9" s="160"/>
+      <c r="AS9" s="160"/>
+      <c r="AT9" s="160"/>
+      <c r="AU9" s="160"/>
+      <c r="AV9" s="160"/>
+      <c r="AW9" s="160"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="61"/>
-      <c r="B10" s="157"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="159"/>
-      <c r="K10" s="160"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="156"/>
-      <c r="T10" s="156"/>
-      <c r="U10" s="156"/>
-      <c r="V10" s="165"/>
-      <c r="W10" s="165"/>
-      <c r="X10" s="165"/>
-      <c r="Y10" s="165"/>
-      <c r="Z10" s="165"/>
-      <c r="AA10" s="165"/>
-      <c r="AB10" s="165"/>
-      <c r="AC10" s="165"/>
-      <c r="AD10" s="165"/>
-      <c r="AE10" s="165"/>
-      <c r="AF10" s="165"/>
-      <c r="AG10" s="165"/>
-      <c r="AH10" s="165"/>
-      <c r="AI10" s="165"/>
-      <c r="AJ10" s="165"/>
-      <c r="AK10" s="165"/>
-      <c r="AL10" s="165"/>
-      <c r="AM10" s="165"/>
-      <c r="AN10" s="156"/>
-      <c r="AO10" s="156"/>
-      <c r="AP10" s="156"/>
-      <c r="AQ10" s="156"/>
-      <c r="AR10" s="156"/>
-      <c r="AS10" s="156"/>
-      <c r="AT10" s="156"/>
-      <c r="AU10" s="156"/>
-      <c r="AV10" s="156"/>
-      <c r="AW10" s="156"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="176"/>
+      <c r="O10" s="176"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="177"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="160"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="171"/>
+      <c r="W10" s="171"/>
+      <c r="X10" s="171"/>
+      <c r="Y10" s="171"/>
+      <c r="Z10" s="171"/>
+      <c r="AA10" s="171"/>
+      <c r="AB10" s="171"/>
+      <c r="AC10" s="171"/>
+      <c r="AD10" s="171"/>
+      <c r="AE10" s="171"/>
+      <c r="AF10" s="171"/>
+      <c r="AG10" s="171"/>
+      <c r="AH10" s="171"/>
+      <c r="AI10" s="171"/>
+      <c r="AJ10" s="171"/>
+      <c r="AK10" s="171"/>
+      <c r="AL10" s="171"/>
+      <c r="AM10" s="171"/>
+      <c r="AN10" s="160"/>
+      <c r="AO10" s="160"/>
+      <c r="AP10" s="160"/>
+      <c r="AQ10" s="160"/>
+      <c r="AR10" s="160"/>
+      <c r="AS10" s="160"/>
+      <c r="AT10" s="160"/>
+      <c r="AU10" s="160"/>
+      <c r="AV10" s="160"/>
+      <c r="AW10" s="160"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="61"/>
-      <c r="B11" s="157"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="169"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="171"/>
-      <c r="S11" s="156"/>
-      <c r="T11" s="156"/>
-      <c r="U11" s="156"/>
-      <c r="V11" s="172"/>
-      <c r="W11" s="178"/>
-      <c r="X11" s="178"/>
-      <c r="Y11" s="178"/>
-      <c r="Z11" s="178"/>
-      <c r="AA11" s="178"/>
-      <c r="AB11" s="178"/>
-      <c r="AC11" s="178"/>
-      <c r="AD11" s="178"/>
-      <c r="AE11" s="178"/>
-      <c r="AF11" s="178"/>
-      <c r="AG11" s="178"/>
-      <c r="AH11" s="178"/>
-      <c r="AI11" s="178"/>
-      <c r="AJ11" s="178"/>
-      <c r="AK11" s="178"/>
-      <c r="AL11" s="178"/>
-      <c r="AM11" s="179"/>
-      <c r="AN11" s="156"/>
-      <c r="AO11" s="156"/>
-      <c r="AP11" s="156"/>
-      <c r="AQ11" s="156"/>
-      <c r="AR11" s="156"/>
-      <c r="AS11" s="156"/>
-      <c r="AT11" s="156"/>
-      <c r="AU11" s="156"/>
-      <c r="AV11" s="156"/>
-      <c r="AW11" s="156"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="165"/>
+      <c r="P11" s="165"/>
+      <c r="Q11" s="165"/>
+      <c r="R11" s="166"/>
+      <c r="S11" s="160"/>
+      <c r="T11" s="160"/>
+      <c r="U11" s="160"/>
+      <c r="V11" s="161"/>
+      <c r="W11" s="173"/>
+      <c r="X11" s="173"/>
+      <c r="Y11" s="173"/>
+      <c r="Z11" s="173"/>
+      <c r="AA11" s="173"/>
+      <c r="AB11" s="173"/>
+      <c r="AC11" s="173"/>
+      <c r="AD11" s="173"/>
+      <c r="AE11" s="173"/>
+      <c r="AF11" s="173"/>
+      <c r="AG11" s="173"/>
+      <c r="AH11" s="173"/>
+      <c r="AI11" s="173"/>
+      <c r="AJ11" s="173"/>
+      <c r="AK11" s="173"/>
+      <c r="AL11" s="173"/>
+      <c r="AM11" s="174"/>
+      <c r="AN11" s="160"/>
+      <c r="AO11" s="160"/>
+      <c r="AP11" s="160"/>
+      <c r="AQ11" s="160"/>
+      <c r="AR11" s="160"/>
+      <c r="AS11" s="160"/>
+      <c r="AT11" s="160"/>
+      <c r="AU11" s="160"/>
+      <c r="AV11" s="160"/>
+      <c r="AW11" s="160"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="61"/>
-      <c r="B12" s="166"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="169"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="170"/>
-      <c r="R12" s="171"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="156"/>
-      <c r="U12" s="156"/>
-      <c r="V12" s="172"/>
-      <c r="W12" s="173"/>
-      <c r="X12" s="173"/>
-      <c r="Y12" s="173"/>
-      <c r="Z12" s="173"/>
-      <c r="AA12" s="173"/>
-      <c r="AB12" s="173"/>
-      <c r="AC12" s="173"/>
-      <c r="AD12" s="173"/>
-      <c r="AE12" s="173"/>
-      <c r="AF12" s="173"/>
-      <c r="AG12" s="173"/>
-      <c r="AH12" s="173"/>
-      <c r="AI12" s="173"/>
-      <c r="AJ12" s="173"/>
-      <c r="AK12" s="173"/>
-      <c r="AL12" s="173"/>
-      <c r="AM12" s="174"/>
-      <c r="AN12" s="175"/>
-      <c r="AO12" s="176"/>
-      <c r="AP12" s="176"/>
-      <c r="AQ12" s="176"/>
-      <c r="AR12" s="177"/>
-      <c r="AS12" s="175"/>
-      <c r="AT12" s="176"/>
-      <c r="AU12" s="176"/>
-      <c r="AV12" s="176"/>
-      <c r="AW12" s="177"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="167"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="165"/>
+      <c r="Q12" s="165"/>
+      <c r="R12" s="166"/>
+      <c r="S12" s="160"/>
+      <c r="T12" s="160"/>
+      <c r="U12" s="160"/>
+      <c r="V12" s="161"/>
+      <c r="W12" s="162"/>
+      <c r="X12" s="162"/>
+      <c r="Y12" s="162"/>
+      <c r="Z12" s="162"/>
+      <c r="AA12" s="162"/>
+      <c r="AB12" s="162"/>
+      <c r="AC12" s="162"/>
+      <c r="AD12" s="162"/>
+      <c r="AE12" s="162"/>
+      <c r="AF12" s="162"/>
+      <c r="AG12" s="162"/>
+      <c r="AH12" s="162"/>
+      <c r="AI12" s="162"/>
+      <c r="AJ12" s="162"/>
+      <c r="AK12" s="162"/>
+      <c r="AL12" s="162"/>
+      <c r="AM12" s="163"/>
+      <c r="AN12" s="147"/>
+      <c r="AO12" s="148"/>
+      <c r="AP12" s="148"/>
+      <c r="AQ12" s="148"/>
+      <c r="AR12" s="149"/>
+      <c r="AS12" s="147"/>
+      <c r="AT12" s="148"/>
+      <c r="AU12" s="148"/>
+      <c r="AV12" s="148"/>
+      <c r="AW12" s="149"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="61"/>
-      <c r="B13" s="166"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="170"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="170"/>
-      <c r="R13" s="171"/>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="156"/>
-      <c r="V13" s="172"/>
-      <c r="W13" s="173"/>
-      <c r="X13" s="173"/>
-      <c r="Y13" s="173"/>
-      <c r="Z13" s="173"/>
-      <c r="AA13" s="173"/>
-      <c r="AB13" s="173"/>
-      <c r="AC13" s="173"/>
-      <c r="AD13" s="173"/>
-      <c r="AE13" s="173"/>
-      <c r="AF13" s="173"/>
-      <c r="AG13" s="173"/>
-      <c r="AH13" s="173"/>
-      <c r="AI13" s="173"/>
-      <c r="AJ13" s="173"/>
-      <c r="AK13" s="173"/>
-      <c r="AL13" s="173"/>
-      <c r="AM13" s="174"/>
-      <c r="AN13" s="175"/>
-      <c r="AO13" s="176"/>
-      <c r="AP13" s="176"/>
-      <c r="AQ13" s="176"/>
-      <c r="AR13" s="177"/>
-      <c r="AS13" s="175"/>
-      <c r="AT13" s="176"/>
-      <c r="AU13" s="176"/>
-      <c r="AV13" s="176"/>
-      <c r="AW13" s="177"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="165"/>
+      <c r="O13" s="165"/>
+      <c r="P13" s="165"/>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="166"/>
+      <c r="S13" s="160"/>
+      <c r="T13" s="160"/>
+      <c r="U13" s="160"/>
+      <c r="V13" s="161"/>
+      <c r="W13" s="162"/>
+      <c r="X13" s="162"/>
+      <c r="Y13" s="162"/>
+      <c r="Z13" s="162"/>
+      <c r="AA13" s="162"/>
+      <c r="AB13" s="162"/>
+      <c r="AC13" s="162"/>
+      <c r="AD13" s="162"/>
+      <c r="AE13" s="162"/>
+      <c r="AF13" s="162"/>
+      <c r="AG13" s="162"/>
+      <c r="AH13" s="162"/>
+      <c r="AI13" s="162"/>
+      <c r="AJ13" s="162"/>
+      <c r="AK13" s="162"/>
+      <c r="AL13" s="162"/>
+      <c r="AM13" s="163"/>
+      <c r="AN13" s="147"/>
+      <c r="AO13" s="148"/>
+      <c r="AP13" s="148"/>
+      <c r="AQ13" s="148"/>
+      <c r="AR13" s="149"/>
+      <c r="AS13" s="147"/>
+      <c r="AT13" s="148"/>
+      <c r="AU13" s="148"/>
+      <c r="AV13" s="148"/>
+      <c r="AW13" s="149"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="170"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="170"/>
-      <c r="Q14" s="170"/>
-      <c r="R14" s="171"/>
-      <c r="S14" s="156"/>
-      <c r="T14" s="156"/>
-      <c r="U14" s="156"/>
-      <c r="V14" s="181"/>
-      <c r="W14" s="165"/>
-      <c r="X14" s="165"/>
-      <c r="Y14" s="165"/>
-      <c r="Z14" s="165"/>
-      <c r="AA14" s="165"/>
-      <c r="AB14" s="165"/>
-      <c r="AC14" s="165"/>
-      <c r="AD14" s="165"/>
-      <c r="AE14" s="165"/>
-      <c r="AF14" s="165"/>
-      <c r="AG14" s="165"/>
-      <c r="AH14" s="165"/>
-      <c r="AI14" s="165"/>
-      <c r="AJ14" s="165"/>
-      <c r="AK14" s="165"/>
-      <c r="AL14" s="165"/>
-      <c r="AM14" s="165"/>
-      <c r="AN14" s="156"/>
-      <c r="AO14" s="156"/>
-      <c r="AP14" s="156"/>
-      <c r="AQ14" s="156"/>
-      <c r="AR14" s="156"/>
-      <c r="AS14" s="175"/>
-      <c r="AT14" s="176"/>
-      <c r="AU14" s="176"/>
-      <c r="AV14" s="176"/>
-      <c r="AW14" s="177"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="165"/>
+      <c r="P14" s="165"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="166"/>
+      <c r="S14" s="160"/>
+      <c r="T14" s="160"/>
+      <c r="U14" s="160"/>
+      <c r="V14" s="170"/>
+      <c r="W14" s="171"/>
+      <c r="X14" s="171"/>
+      <c r="Y14" s="171"/>
+      <c r="Z14" s="171"/>
+      <c r="AA14" s="171"/>
+      <c r="AB14" s="171"/>
+      <c r="AC14" s="171"/>
+      <c r="AD14" s="171"/>
+      <c r="AE14" s="171"/>
+      <c r="AF14" s="171"/>
+      <c r="AG14" s="171"/>
+      <c r="AH14" s="171"/>
+      <c r="AI14" s="171"/>
+      <c r="AJ14" s="171"/>
+      <c r="AK14" s="171"/>
+      <c r="AL14" s="171"/>
+      <c r="AM14" s="171"/>
+      <c r="AN14" s="160"/>
+      <c r="AO14" s="160"/>
+      <c r="AP14" s="160"/>
+      <c r="AQ14" s="160"/>
+      <c r="AR14" s="160"/>
+      <c r="AS14" s="147"/>
+      <c r="AT14" s="148"/>
+      <c r="AU14" s="148"/>
+      <c r="AV14" s="148"/>
+      <c r="AW14" s="149"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="169"/>
-      <c r="N15" s="170"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="170"/>
-      <c r="R15" s="171"/>
-      <c r="S15" s="156"/>
-      <c r="T15" s="156"/>
-      <c r="U15" s="156"/>
-      <c r="V15" s="172"/>
-      <c r="W15" s="173"/>
-      <c r="X15" s="173"/>
-      <c r="Y15" s="173"/>
-      <c r="Z15" s="173"/>
-      <c r="AA15" s="173"/>
-      <c r="AB15" s="173"/>
-      <c r="AC15" s="173"/>
-      <c r="AD15" s="173"/>
-      <c r="AE15" s="173"/>
-      <c r="AF15" s="173"/>
-      <c r="AG15" s="173"/>
-      <c r="AH15" s="173"/>
-      <c r="AI15" s="173"/>
-      <c r="AJ15" s="173"/>
-      <c r="AK15" s="173"/>
-      <c r="AL15" s="173"/>
-      <c r="AM15" s="174"/>
-      <c r="AN15" s="175"/>
-      <c r="AO15" s="176"/>
-      <c r="AP15" s="176"/>
-      <c r="AQ15" s="176"/>
-      <c r="AR15" s="177"/>
-      <c r="AS15" s="175"/>
-      <c r="AT15" s="176"/>
-      <c r="AU15" s="176"/>
-      <c r="AV15" s="176"/>
-      <c r="AW15" s="177"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="167"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="165"/>
+      <c r="Q15" s="165"/>
+      <c r="R15" s="166"/>
+      <c r="S15" s="160"/>
+      <c r="T15" s="160"/>
+      <c r="U15" s="160"/>
+      <c r="V15" s="161"/>
+      <c r="W15" s="162"/>
+      <c r="X15" s="162"/>
+      <c r="Y15" s="162"/>
+      <c r="Z15" s="162"/>
+      <c r="AA15" s="162"/>
+      <c r="AB15" s="162"/>
+      <c r="AC15" s="162"/>
+      <c r="AD15" s="162"/>
+      <c r="AE15" s="162"/>
+      <c r="AF15" s="162"/>
+      <c r="AG15" s="162"/>
+      <c r="AH15" s="162"/>
+      <c r="AI15" s="162"/>
+      <c r="AJ15" s="162"/>
+      <c r="AK15" s="162"/>
+      <c r="AL15" s="162"/>
+      <c r="AM15" s="163"/>
+      <c r="AN15" s="147"/>
+      <c r="AO15" s="148"/>
+      <c r="AP15" s="148"/>
+      <c r="AQ15" s="148"/>
+      <c r="AR15" s="149"/>
+      <c r="AS15" s="147"/>
+      <c r="AT15" s="148"/>
+      <c r="AU15" s="148"/>
+      <c r="AV15" s="148"/>
+      <c r="AW15" s="149"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="61"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="169"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="170"/>
-      <c r="R16" s="171"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="156"/>
-      <c r="U16" s="156"/>
-      <c r="V16" s="172"/>
-      <c r="W16" s="173"/>
-      <c r="X16" s="173"/>
-      <c r="Y16" s="173"/>
-      <c r="Z16" s="173"/>
-      <c r="AA16" s="173"/>
-      <c r="AB16" s="173"/>
-      <c r="AC16" s="173"/>
-      <c r="AD16" s="173"/>
-      <c r="AE16" s="173"/>
-      <c r="AF16" s="173"/>
-      <c r="AG16" s="173"/>
-      <c r="AH16" s="173"/>
-      <c r="AI16" s="173"/>
-      <c r="AJ16" s="173"/>
-      <c r="AK16" s="173"/>
-      <c r="AL16" s="173"/>
-      <c r="AM16" s="174"/>
-      <c r="AN16" s="175"/>
-      <c r="AO16" s="176"/>
-      <c r="AP16" s="176"/>
-      <c r="AQ16" s="176"/>
-      <c r="AR16" s="177"/>
-      <c r="AS16" s="175"/>
-      <c r="AT16" s="176"/>
-      <c r="AU16" s="176"/>
-      <c r="AV16" s="176"/>
-      <c r="AW16" s="177"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="167"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="165"/>
+      <c r="P16" s="165"/>
+      <c r="Q16" s="165"/>
+      <c r="R16" s="166"/>
+      <c r="S16" s="160"/>
+      <c r="T16" s="160"/>
+      <c r="U16" s="160"/>
+      <c r="V16" s="161"/>
+      <c r="W16" s="162"/>
+      <c r="X16" s="162"/>
+      <c r="Y16" s="162"/>
+      <c r="Z16" s="162"/>
+      <c r="AA16" s="162"/>
+      <c r="AB16" s="162"/>
+      <c r="AC16" s="162"/>
+      <c r="AD16" s="162"/>
+      <c r="AE16" s="162"/>
+      <c r="AF16" s="162"/>
+      <c r="AG16" s="162"/>
+      <c r="AH16" s="162"/>
+      <c r="AI16" s="162"/>
+      <c r="AJ16" s="162"/>
+      <c r="AK16" s="162"/>
+      <c r="AL16" s="162"/>
+      <c r="AM16" s="163"/>
+      <c r="AN16" s="147"/>
+      <c r="AO16" s="148"/>
+      <c r="AP16" s="148"/>
+      <c r="AQ16" s="148"/>
+      <c r="AR16" s="149"/>
+      <c r="AS16" s="147"/>
+      <c r="AT16" s="148"/>
+      <c r="AU16" s="148"/>
+      <c r="AV16" s="148"/>
+      <c r="AW16" s="149"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="61"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="169"/>
-      <c r="N17" s="170"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="170"/>
-      <c r="Q17" s="170"/>
-      <c r="R17" s="182"/>
-      <c r="S17" s="183"/>
-      <c r="T17" s="183"/>
-      <c r="U17" s="183"/>
-      <c r="V17" s="172"/>
-      <c r="W17" s="173"/>
-      <c r="X17" s="173"/>
-      <c r="Y17" s="173"/>
-      <c r="Z17" s="173"/>
-      <c r="AA17" s="173"/>
-      <c r="AB17" s="173"/>
-      <c r="AC17" s="173"/>
-      <c r="AD17" s="173"/>
-      <c r="AE17" s="173"/>
-      <c r="AF17" s="173"/>
-      <c r="AG17" s="173"/>
-      <c r="AH17" s="173"/>
-      <c r="AI17" s="173"/>
-      <c r="AJ17" s="173"/>
-      <c r="AK17" s="173"/>
-      <c r="AL17" s="173"/>
-      <c r="AM17" s="174"/>
-      <c r="AN17" s="175"/>
-      <c r="AO17" s="176"/>
-      <c r="AP17" s="176"/>
-      <c r="AQ17" s="176"/>
-      <c r="AR17" s="177"/>
-      <c r="AS17" s="175"/>
-      <c r="AT17" s="176"/>
-      <c r="AU17" s="176"/>
-      <c r="AV17" s="176"/>
-      <c r="AW17" s="177"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="167"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="165"/>
+      <c r="P17" s="165"/>
+      <c r="Q17" s="165"/>
+      <c r="R17" s="168"/>
+      <c r="S17" s="169"/>
+      <c r="T17" s="169"/>
+      <c r="U17" s="169"/>
+      <c r="V17" s="161"/>
+      <c r="W17" s="162"/>
+      <c r="X17" s="162"/>
+      <c r="Y17" s="162"/>
+      <c r="Z17" s="162"/>
+      <c r="AA17" s="162"/>
+      <c r="AB17" s="162"/>
+      <c r="AC17" s="162"/>
+      <c r="AD17" s="162"/>
+      <c r="AE17" s="162"/>
+      <c r="AF17" s="162"/>
+      <c r="AG17" s="162"/>
+      <c r="AH17" s="162"/>
+      <c r="AI17" s="162"/>
+      <c r="AJ17" s="162"/>
+      <c r="AK17" s="162"/>
+      <c r="AL17" s="162"/>
+      <c r="AM17" s="163"/>
+      <c r="AN17" s="147"/>
+      <c r="AO17" s="148"/>
+      <c r="AP17" s="148"/>
+      <c r="AQ17" s="148"/>
+      <c r="AR17" s="149"/>
+      <c r="AS17" s="147"/>
+      <c r="AT17" s="148"/>
+      <c r="AU17" s="148"/>
+      <c r="AV17" s="148"/>
+      <c r="AW17" s="149"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="61"/>
-      <c r="B18" s="166"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="170"/>
-      <c r="Q18" s="170"/>
-      <c r="R18" s="171"/>
-      <c r="S18" s="156"/>
-      <c r="T18" s="156"/>
-      <c r="U18" s="156"/>
-      <c r="V18" s="172"/>
-      <c r="W18" s="173"/>
-      <c r="X18" s="173"/>
-      <c r="Y18" s="173"/>
-      <c r="Z18" s="173"/>
-      <c r="AA18" s="173"/>
-      <c r="AB18" s="173"/>
-      <c r="AC18" s="173"/>
-      <c r="AD18" s="173"/>
-      <c r="AE18" s="173"/>
-      <c r="AF18" s="173"/>
-      <c r="AG18" s="173"/>
-      <c r="AH18" s="173"/>
-      <c r="AI18" s="173"/>
-      <c r="AJ18" s="173"/>
-      <c r="AK18" s="173"/>
-      <c r="AL18" s="173"/>
-      <c r="AM18" s="174"/>
-      <c r="AN18" s="175"/>
-      <c r="AO18" s="176"/>
-      <c r="AP18" s="176"/>
-      <c r="AQ18" s="176"/>
-      <c r="AR18" s="177"/>
-      <c r="AS18" s="175"/>
-      <c r="AT18" s="176"/>
-      <c r="AU18" s="176"/>
-      <c r="AV18" s="176"/>
-      <c r="AW18" s="177"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="165"/>
+      <c r="Q18" s="165"/>
+      <c r="R18" s="166"/>
+      <c r="S18" s="160"/>
+      <c r="T18" s="160"/>
+      <c r="U18" s="160"/>
+      <c r="V18" s="161"/>
+      <c r="W18" s="162"/>
+      <c r="X18" s="162"/>
+      <c r="Y18" s="162"/>
+      <c r="Z18" s="162"/>
+      <c r="AA18" s="162"/>
+      <c r="AB18" s="162"/>
+      <c r="AC18" s="162"/>
+      <c r="AD18" s="162"/>
+      <c r="AE18" s="162"/>
+      <c r="AF18" s="162"/>
+      <c r="AG18" s="162"/>
+      <c r="AH18" s="162"/>
+      <c r="AI18" s="162"/>
+      <c r="AJ18" s="162"/>
+      <c r="AK18" s="162"/>
+      <c r="AL18" s="162"/>
+      <c r="AM18" s="163"/>
+      <c r="AN18" s="147"/>
+      <c r="AO18" s="148"/>
+      <c r="AP18" s="148"/>
+      <c r="AQ18" s="148"/>
+      <c r="AR18" s="149"/>
+      <c r="AS18" s="147"/>
+      <c r="AT18" s="148"/>
+      <c r="AU18" s="148"/>
+      <c r="AV18" s="148"/>
+      <c r="AW18" s="149"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="168"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="169"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
-      <c r="P19" s="170"/>
-      <c r="Q19" s="170"/>
-      <c r="R19" s="171"/>
-      <c r="S19" s="156"/>
-      <c r="T19" s="156"/>
-      <c r="U19" s="156"/>
-      <c r="V19" s="172"/>
-      <c r="W19" s="173"/>
-      <c r="X19" s="173"/>
-      <c r="Y19" s="173"/>
-      <c r="Z19" s="173"/>
-      <c r="AA19" s="173"/>
-      <c r="AB19" s="173"/>
-      <c r="AC19" s="173"/>
-      <c r="AD19" s="173"/>
-      <c r="AE19" s="173"/>
-      <c r="AF19" s="173"/>
-      <c r="AG19" s="173"/>
-      <c r="AH19" s="173"/>
-      <c r="AI19" s="173"/>
-      <c r="AJ19" s="173"/>
-      <c r="AK19" s="173"/>
-      <c r="AL19" s="173"/>
-      <c r="AM19" s="174"/>
-      <c r="AN19" s="156"/>
-      <c r="AO19" s="156"/>
-      <c r="AP19" s="156"/>
-      <c r="AQ19" s="156"/>
-      <c r="AR19" s="156"/>
-      <c r="AS19" s="175"/>
-      <c r="AT19" s="176"/>
-      <c r="AU19" s="176"/>
-      <c r="AV19" s="176"/>
-      <c r="AW19" s="177"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="167"/>
+      <c r="N19" s="165"/>
+      <c r="O19" s="165"/>
+      <c r="P19" s="165"/>
+      <c r="Q19" s="165"/>
+      <c r="R19" s="166"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="160"/>
+      <c r="U19" s="160"/>
+      <c r="V19" s="161"/>
+      <c r="W19" s="162"/>
+      <c r="X19" s="162"/>
+      <c r="Y19" s="162"/>
+      <c r="Z19" s="162"/>
+      <c r="AA19" s="162"/>
+      <c r="AB19" s="162"/>
+      <c r="AC19" s="162"/>
+      <c r="AD19" s="162"/>
+      <c r="AE19" s="162"/>
+      <c r="AF19" s="162"/>
+      <c r="AG19" s="162"/>
+      <c r="AH19" s="162"/>
+      <c r="AI19" s="162"/>
+      <c r="AJ19" s="162"/>
+      <c r="AK19" s="162"/>
+      <c r="AL19" s="162"/>
+      <c r="AM19" s="163"/>
+      <c r="AN19" s="160"/>
+      <c r="AO19" s="160"/>
+      <c r="AP19" s="160"/>
+      <c r="AQ19" s="160"/>
+      <c r="AR19" s="160"/>
+      <c r="AS19" s="147"/>
+      <c r="AT19" s="148"/>
+      <c r="AU19" s="148"/>
+      <c r="AV19" s="148"/>
+      <c r="AW19" s="149"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="61"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="169"/>
-      <c r="N20" s="170"/>
-      <c r="O20" s="170"/>
-      <c r="P20" s="170"/>
-      <c r="Q20" s="170"/>
-      <c r="R20" s="171"/>
-      <c r="S20" s="175"/>
-      <c r="T20" s="176"/>
-      <c r="U20" s="177"/>
-      <c r="V20" s="172"/>
-      <c r="W20" s="173"/>
-      <c r="X20" s="173"/>
-      <c r="Y20" s="173"/>
-      <c r="Z20" s="173"/>
-      <c r="AA20" s="173"/>
-      <c r="AB20" s="173"/>
-      <c r="AC20" s="173"/>
-      <c r="AD20" s="173"/>
-      <c r="AE20" s="173"/>
-      <c r="AF20" s="173"/>
-      <c r="AG20" s="173"/>
-      <c r="AH20" s="173"/>
-      <c r="AI20" s="173"/>
-      <c r="AJ20" s="173"/>
-      <c r="AK20" s="173"/>
-      <c r="AL20" s="173"/>
-      <c r="AM20" s="174"/>
-      <c r="AN20" s="175"/>
-      <c r="AO20" s="176"/>
-      <c r="AP20" s="176"/>
-      <c r="AQ20" s="176"/>
-      <c r="AR20" s="177"/>
-      <c r="AS20" s="175"/>
-      <c r="AT20" s="176"/>
-      <c r="AU20" s="176"/>
-      <c r="AV20" s="176"/>
-      <c r="AW20" s="177"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="156"/>
+      <c r="M20" s="167"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="165"/>
+      <c r="Q20" s="165"/>
+      <c r="R20" s="166"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="148"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="161"/>
+      <c r="W20" s="162"/>
+      <c r="X20" s="162"/>
+      <c r="Y20" s="162"/>
+      <c r="Z20" s="162"/>
+      <c r="AA20" s="162"/>
+      <c r="AB20" s="162"/>
+      <c r="AC20" s="162"/>
+      <c r="AD20" s="162"/>
+      <c r="AE20" s="162"/>
+      <c r="AF20" s="162"/>
+      <c r="AG20" s="162"/>
+      <c r="AH20" s="162"/>
+      <c r="AI20" s="162"/>
+      <c r="AJ20" s="162"/>
+      <c r="AK20" s="162"/>
+      <c r="AL20" s="162"/>
+      <c r="AM20" s="163"/>
+      <c r="AN20" s="147"/>
+      <c r="AO20" s="148"/>
+      <c r="AP20" s="148"/>
+      <c r="AQ20" s="148"/>
+      <c r="AR20" s="149"/>
+      <c r="AS20" s="147"/>
+      <c r="AT20" s="148"/>
+      <c r="AU20" s="148"/>
+      <c r="AV20" s="148"/>
+      <c r="AW20" s="149"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="61"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="160"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="169"/>
-      <c r="N21" s="170"/>
-      <c r="O21" s="170"/>
-      <c r="P21" s="170"/>
-      <c r="Q21" s="170"/>
-      <c r="R21" s="171"/>
-      <c r="S21" s="156"/>
-      <c r="T21" s="156"/>
-      <c r="U21" s="156"/>
-      <c r="V21" s="172"/>
-      <c r="W21" s="173"/>
-      <c r="X21" s="173"/>
-      <c r="Y21" s="173"/>
-      <c r="Z21" s="173"/>
-      <c r="AA21" s="173"/>
-      <c r="AB21" s="173"/>
-      <c r="AC21" s="173"/>
-      <c r="AD21" s="173"/>
-      <c r="AE21" s="173"/>
-      <c r="AF21" s="173"/>
-      <c r="AG21" s="173"/>
-      <c r="AH21" s="173"/>
-      <c r="AI21" s="173"/>
-      <c r="AJ21" s="173"/>
-      <c r="AK21" s="173"/>
-      <c r="AL21" s="173"/>
-      <c r="AM21" s="174"/>
-      <c r="AN21" s="175"/>
-      <c r="AO21" s="176"/>
-      <c r="AP21" s="176"/>
-      <c r="AQ21" s="176"/>
-      <c r="AR21" s="177"/>
-      <c r="AS21" s="175"/>
-      <c r="AT21" s="176"/>
-      <c r="AU21" s="176"/>
-      <c r="AV21" s="176"/>
-      <c r="AW21" s="177"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="167"/>
+      <c r="N21" s="165"/>
+      <c r="O21" s="165"/>
+      <c r="P21" s="165"/>
+      <c r="Q21" s="165"/>
+      <c r="R21" s="166"/>
+      <c r="S21" s="160"/>
+      <c r="T21" s="160"/>
+      <c r="U21" s="160"/>
+      <c r="V21" s="161"/>
+      <c r="W21" s="162"/>
+      <c r="X21" s="162"/>
+      <c r="Y21" s="162"/>
+      <c r="Z21" s="162"/>
+      <c r="AA21" s="162"/>
+      <c r="AB21" s="162"/>
+      <c r="AC21" s="162"/>
+      <c r="AD21" s="162"/>
+      <c r="AE21" s="162"/>
+      <c r="AF21" s="162"/>
+      <c r="AG21" s="162"/>
+      <c r="AH21" s="162"/>
+      <c r="AI21" s="162"/>
+      <c r="AJ21" s="162"/>
+      <c r="AK21" s="162"/>
+      <c r="AL21" s="162"/>
+      <c r="AM21" s="163"/>
+      <c r="AN21" s="147"/>
+      <c r="AO21" s="148"/>
+      <c r="AP21" s="148"/>
+      <c r="AQ21" s="148"/>
+      <c r="AR21" s="149"/>
+      <c r="AS21" s="147"/>
+      <c r="AT21" s="148"/>
+      <c r="AU21" s="148"/>
+      <c r="AV21" s="148"/>
+      <c r="AW21" s="149"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
-      <c r="B22" s="166"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="160"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="169"/>
-      <c r="N22" s="170"/>
-      <c r="O22" s="170"/>
-      <c r="P22" s="170"/>
-      <c r="Q22" s="170"/>
-      <c r="R22" s="171"/>
-      <c r="S22" s="156"/>
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="172"/>
-      <c r="W22" s="173"/>
-      <c r="X22" s="173"/>
-      <c r="Y22" s="173"/>
-      <c r="Z22" s="173"/>
-      <c r="AA22" s="173"/>
-      <c r="AB22" s="173"/>
-      <c r="AC22" s="173"/>
-      <c r="AD22" s="173"/>
-      <c r="AE22" s="173"/>
-      <c r="AF22" s="173"/>
-      <c r="AG22" s="173"/>
-      <c r="AH22" s="173"/>
-      <c r="AI22" s="173"/>
-      <c r="AJ22" s="173"/>
-      <c r="AK22" s="173"/>
-      <c r="AL22" s="173"/>
-      <c r="AM22" s="174"/>
-      <c r="AN22" s="175"/>
-      <c r="AO22" s="176"/>
-      <c r="AP22" s="176"/>
-      <c r="AQ22" s="176"/>
-      <c r="AR22" s="177"/>
-      <c r="AS22" s="175"/>
-      <c r="AT22" s="176"/>
-      <c r="AU22" s="176"/>
-      <c r="AV22" s="176"/>
-      <c r="AW22" s="177"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="165"/>
+      <c r="O22" s="165"/>
+      <c r="P22" s="165"/>
+      <c r="Q22" s="165"/>
+      <c r="R22" s="166"/>
+      <c r="S22" s="160"/>
+      <c r="T22" s="160"/>
+      <c r="U22" s="160"/>
+      <c r="V22" s="161"/>
+      <c r="W22" s="162"/>
+      <c r="X22" s="162"/>
+      <c r="Y22" s="162"/>
+      <c r="Z22" s="162"/>
+      <c r="AA22" s="162"/>
+      <c r="AB22" s="162"/>
+      <c r="AC22" s="162"/>
+      <c r="AD22" s="162"/>
+      <c r="AE22" s="162"/>
+      <c r="AF22" s="162"/>
+      <c r="AG22" s="162"/>
+      <c r="AH22" s="162"/>
+      <c r="AI22" s="162"/>
+      <c r="AJ22" s="162"/>
+      <c r="AK22" s="162"/>
+      <c r="AL22" s="162"/>
+      <c r="AM22" s="163"/>
+      <c r="AN22" s="147"/>
+      <c r="AO22" s="148"/>
+      <c r="AP22" s="148"/>
+      <c r="AQ22" s="148"/>
+      <c r="AR22" s="149"/>
+      <c r="AS22" s="147"/>
+      <c r="AT22" s="148"/>
+      <c r="AU22" s="148"/>
+      <c r="AV22" s="148"/>
+      <c r="AW22" s="149"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="59"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="169"/>
-      <c r="N23" s="170"/>
-      <c r="O23" s="170"/>
-      <c r="P23" s="170"/>
-      <c r="Q23" s="170"/>
-      <c r="R23" s="171"/>
-      <c r="S23" s="156"/>
-      <c r="T23" s="156"/>
-      <c r="U23" s="156"/>
-      <c r="V23" s="172"/>
-      <c r="W23" s="173"/>
-      <c r="X23" s="173"/>
-      <c r="Y23" s="173"/>
-      <c r="Z23" s="173"/>
-      <c r="AA23" s="173"/>
-      <c r="AB23" s="173"/>
-      <c r="AC23" s="173"/>
-      <c r="AD23" s="173"/>
-      <c r="AE23" s="173"/>
-      <c r="AF23" s="173"/>
-      <c r="AG23" s="173"/>
-      <c r="AH23" s="173"/>
-      <c r="AI23" s="173"/>
-      <c r="AJ23" s="173"/>
-      <c r="AK23" s="173"/>
-      <c r="AL23" s="173"/>
-      <c r="AM23" s="174"/>
-      <c r="AN23" s="175"/>
-      <c r="AO23" s="176"/>
-      <c r="AP23" s="176"/>
-      <c r="AQ23" s="176"/>
-      <c r="AR23" s="177"/>
-      <c r="AS23" s="175"/>
-      <c r="AT23" s="176"/>
-      <c r="AU23" s="176"/>
-      <c r="AV23" s="176"/>
-      <c r="AW23" s="177"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="165"/>
+      <c r="P23" s="165"/>
+      <c r="Q23" s="165"/>
+      <c r="R23" s="166"/>
+      <c r="S23" s="160"/>
+      <c r="T23" s="160"/>
+      <c r="U23" s="160"/>
+      <c r="V23" s="161"/>
+      <c r="W23" s="162"/>
+      <c r="X23" s="162"/>
+      <c r="Y23" s="162"/>
+      <c r="Z23" s="162"/>
+      <c r="AA23" s="162"/>
+      <c r="AB23" s="162"/>
+      <c r="AC23" s="162"/>
+      <c r="AD23" s="162"/>
+      <c r="AE23" s="162"/>
+      <c r="AF23" s="162"/>
+      <c r="AG23" s="162"/>
+      <c r="AH23" s="162"/>
+      <c r="AI23" s="162"/>
+      <c r="AJ23" s="162"/>
+      <c r="AK23" s="162"/>
+      <c r="AL23" s="162"/>
+      <c r="AM23" s="163"/>
+      <c r="AN23" s="147"/>
+      <c r="AO23" s="148"/>
+      <c r="AP23" s="148"/>
+      <c r="AQ23" s="148"/>
+      <c r="AR23" s="149"/>
+      <c r="AS23" s="147"/>
+      <c r="AT23" s="148"/>
+      <c r="AU23" s="148"/>
+      <c r="AV23" s="148"/>
+      <c r="AW23" s="149"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="59"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="159"/>
-      <c r="K24" s="160"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="169"/>
-      <c r="N24" s="170"/>
-      <c r="O24" s="170"/>
-      <c r="P24" s="170"/>
-      <c r="Q24" s="170"/>
-      <c r="R24" s="171"/>
-      <c r="S24" s="156"/>
-      <c r="T24" s="156"/>
-      <c r="U24" s="156"/>
-      <c r="V24" s="172"/>
-      <c r="W24" s="173"/>
-      <c r="X24" s="173"/>
-      <c r="Y24" s="173"/>
-      <c r="Z24" s="173"/>
-      <c r="AA24" s="173"/>
-      <c r="AB24" s="173"/>
-      <c r="AC24" s="173"/>
-      <c r="AD24" s="173"/>
-      <c r="AE24" s="173"/>
-      <c r="AF24" s="173"/>
-      <c r="AG24" s="173"/>
-      <c r="AH24" s="173"/>
-      <c r="AI24" s="173"/>
-      <c r="AJ24" s="173"/>
-      <c r="AK24" s="173"/>
-      <c r="AL24" s="173"/>
-      <c r="AM24" s="174"/>
-      <c r="AN24" s="175"/>
-      <c r="AO24" s="176"/>
-      <c r="AP24" s="176"/>
-      <c r="AQ24" s="176"/>
-      <c r="AR24" s="177"/>
-      <c r="AS24" s="175"/>
-      <c r="AT24" s="176"/>
-      <c r="AU24" s="176"/>
-      <c r="AV24" s="176"/>
-      <c r="AW24" s="177"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="167"/>
+      <c r="N24" s="165"/>
+      <c r="O24" s="165"/>
+      <c r="P24" s="165"/>
+      <c r="Q24" s="165"/>
+      <c r="R24" s="166"/>
+      <c r="S24" s="160"/>
+      <c r="T24" s="160"/>
+      <c r="U24" s="160"/>
+      <c r="V24" s="161"/>
+      <c r="W24" s="162"/>
+      <c r="X24" s="162"/>
+      <c r="Y24" s="162"/>
+      <c r="Z24" s="162"/>
+      <c r="AA24" s="162"/>
+      <c r="AB24" s="162"/>
+      <c r="AC24" s="162"/>
+      <c r="AD24" s="162"/>
+      <c r="AE24" s="162"/>
+      <c r="AF24" s="162"/>
+      <c r="AG24" s="162"/>
+      <c r="AH24" s="162"/>
+      <c r="AI24" s="162"/>
+      <c r="AJ24" s="162"/>
+      <c r="AK24" s="162"/>
+      <c r="AL24" s="162"/>
+      <c r="AM24" s="163"/>
+      <c r="AN24" s="147"/>
+      <c r="AO24" s="148"/>
+      <c r="AP24" s="148"/>
+      <c r="AQ24" s="148"/>
+      <c r="AR24" s="149"/>
+      <c r="AS24" s="147"/>
+      <c r="AT24" s="148"/>
+      <c r="AU24" s="148"/>
+      <c r="AV24" s="148"/>
+      <c r="AW24" s="149"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="59"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="159"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="170"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="170"/>
-      <c r="Q25" s="170"/>
-      <c r="R25" s="171"/>
-      <c r="S25" s="156"/>
-      <c r="T25" s="156"/>
-      <c r="U25" s="156"/>
-      <c r="V25" s="172"/>
-      <c r="W25" s="173"/>
-      <c r="X25" s="173"/>
-      <c r="Y25" s="173"/>
-      <c r="Z25" s="173"/>
-      <c r="AA25" s="173"/>
-      <c r="AB25" s="173"/>
-      <c r="AC25" s="173"/>
-      <c r="AD25" s="173"/>
-      <c r="AE25" s="173"/>
-      <c r="AF25" s="173"/>
-      <c r="AG25" s="173"/>
-      <c r="AH25" s="173"/>
-      <c r="AI25" s="173"/>
-      <c r="AJ25" s="173"/>
-      <c r="AK25" s="173"/>
-      <c r="AL25" s="173"/>
-      <c r="AM25" s="174"/>
-      <c r="AN25" s="175"/>
-      <c r="AO25" s="176"/>
-      <c r="AP25" s="176"/>
-      <c r="AQ25" s="176"/>
-      <c r="AR25" s="177"/>
-      <c r="AS25" s="175"/>
-      <c r="AT25" s="176"/>
-      <c r="AU25" s="176"/>
-      <c r="AV25" s="176"/>
-      <c r="AW25" s="177"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="154"/>
+      <c r="K25" s="155"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="165"/>
+      <c r="P25" s="165"/>
+      <c r="Q25" s="165"/>
+      <c r="R25" s="166"/>
+      <c r="S25" s="160"/>
+      <c r="T25" s="160"/>
+      <c r="U25" s="160"/>
+      <c r="V25" s="161"/>
+      <c r="W25" s="162"/>
+      <c r="X25" s="162"/>
+      <c r="Y25" s="162"/>
+      <c r="Z25" s="162"/>
+      <c r="AA25" s="162"/>
+      <c r="AB25" s="162"/>
+      <c r="AC25" s="162"/>
+      <c r="AD25" s="162"/>
+      <c r="AE25" s="162"/>
+      <c r="AF25" s="162"/>
+      <c r="AG25" s="162"/>
+      <c r="AH25" s="162"/>
+      <c r="AI25" s="162"/>
+      <c r="AJ25" s="162"/>
+      <c r="AK25" s="162"/>
+      <c r="AL25" s="162"/>
+      <c r="AM25" s="163"/>
+      <c r="AN25" s="147"/>
+      <c r="AO25" s="148"/>
+      <c r="AP25" s="148"/>
+      <c r="AQ25" s="148"/>
+      <c r="AR25" s="149"/>
+      <c r="AS25" s="147"/>
+      <c r="AT25" s="148"/>
+      <c r="AU25" s="148"/>
+      <c r="AV25" s="148"/>
+      <c r="AW25" s="149"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="59"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="180"/>
-      <c r="N26" s="170"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="170"/>
-      <c r="Q26" s="170"/>
-      <c r="R26" s="171"/>
-      <c r="S26" s="156"/>
-      <c r="T26" s="156"/>
-      <c r="U26" s="156"/>
-      <c r="V26" s="172"/>
-      <c r="W26" s="173"/>
-      <c r="X26" s="173"/>
-      <c r="Y26" s="173"/>
-      <c r="Z26" s="173"/>
-      <c r="AA26" s="173"/>
-      <c r="AB26" s="173"/>
-      <c r="AC26" s="173"/>
-      <c r="AD26" s="173"/>
-      <c r="AE26" s="173"/>
-      <c r="AF26" s="173"/>
-      <c r="AG26" s="173"/>
-      <c r="AH26" s="173"/>
-      <c r="AI26" s="173"/>
-      <c r="AJ26" s="173"/>
-      <c r="AK26" s="173"/>
-      <c r="AL26" s="173"/>
-      <c r="AM26" s="174"/>
-      <c r="AN26" s="175"/>
-      <c r="AO26" s="176"/>
-      <c r="AP26" s="176"/>
-      <c r="AQ26" s="176"/>
-      <c r="AR26" s="177"/>
-      <c r="AS26" s="175"/>
-      <c r="AT26" s="176"/>
-      <c r="AU26" s="176"/>
-      <c r="AV26" s="176"/>
-      <c r="AW26" s="177"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="165"/>
+      <c r="R26" s="166"/>
+      <c r="S26" s="160"/>
+      <c r="T26" s="160"/>
+      <c r="U26" s="160"/>
+      <c r="V26" s="161"/>
+      <c r="W26" s="162"/>
+      <c r="X26" s="162"/>
+      <c r="Y26" s="162"/>
+      <c r="Z26" s="162"/>
+      <c r="AA26" s="162"/>
+      <c r="AB26" s="162"/>
+      <c r="AC26" s="162"/>
+      <c r="AD26" s="162"/>
+      <c r="AE26" s="162"/>
+      <c r="AF26" s="162"/>
+      <c r="AG26" s="162"/>
+      <c r="AH26" s="162"/>
+      <c r="AI26" s="162"/>
+      <c r="AJ26" s="162"/>
+      <c r="AK26" s="162"/>
+      <c r="AL26" s="162"/>
+      <c r="AM26" s="163"/>
+      <c r="AN26" s="147"/>
+      <c r="AO26" s="148"/>
+      <c r="AP26" s="148"/>
+      <c r="AQ26" s="148"/>
+      <c r="AR26" s="149"/>
+      <c r="AS26" s="147"/>
+      <c r="AT26" s="148"/>
+      <c r="AU26" s="148"/>
+      <c r="AV26" s="148"/>
+      <c r="AW26" s="149"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="59"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="170"/>
-      <c r="Q27" s="170"/>
-      <c r="R27" s="171"/>
-      <c r="S27" s="156"/>
-      <c r="T27" s="156"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="172"/>
-      <c r="W27" s="173"/>
-      <c r="X27" s="173"/>
-      <c r="Y27" s="173"/>
-      <c r="Z27" s="173"/>
-      <c r="AA27" s="173"/>
-      <c r="AB27" s="173"/>
-      <c r="AC27" s="173"/>
-      <c r="AD27" s="173"/>
-      <c r="AE27" s="173"/>
-      <c r="AF27" s="173"/>
-      <c r="AG27" s="173"/>
-      <c r="AH27" s="173"/>
-      <c r="AI27" s="173"/>
-      <c r="AJ27" s="173"/>
-      <c r="AK27" s="173"/>
-      <c r="AL27" s="173"/>
-      <c r="AM27" s="174"/>
-      <c r="AN27" s="175"/>
-      <c r="AO27" s="176"/>
-      <c r="AP27" s="176"/>
-      <c r="AQ27" s="176"/>
-      <c r="AR27" s="177"/>
-      <c r="AS27" s="175"/>
-      <c r="AT27" s="176"/>
-      <c r="AU27" s="176"/>
-      <c r="AV27" s="176"/>
-      <c r="AW27" s="177"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="164"/>
+      <c r="N27" s="165"/>
+      <c r="O27" s="165"/>
+      <c r="P27" s="165"/>
+      <c r="Q27" s="165"/>
+      <c r="R27" s="166"/>
+      <c r="S27" s="160"/>
+      <c r="T27" s="160"/>
+      <c r="U27" s="160"/>
+      <c r="V27" s="161"/>
+      <c r="W27" s="162"/>
+      <c r="X27" s="162"/>
+      <c r="Y27" s="162"/>
+      <c r="Z27" s="162"/>
+      <c r="AA27" s="162"/>
+      <c r="AB27" s="162"/>
+      <c r="AC27" s="162"/>
+      <c r="AD27" s="162"/>
+      <c r="AE27" s="162"/>
+      <c r="AF27" s="162"/>
+      <c r="AG27" s="162"/>
+      <c r="AH27" s="162"/>
+      <c r="AI27" s="162"/>
+      <c r="AJ27" s="162"/>
+      <c r="AK27" s="162"/>
+      <c r="AL27" s="162"/>
+      <c r="AM27" s="163"/>
+      <c r="AN27" s="147"/>
+      <c r="AO27" s="148"/>
+      <c r="AP27" s="148"/>
+      <c r="AQ27" s="148"/>
+      <c r="AR27" s="149"/>
+      <c r="AS27" s="147"/>
+      <c r="AT27" s="148"/>
+      <c r="AU27" s="148"/>
+      <c r="AV27" s="148"/>
+      <c r="AW27" s="149"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="59"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="160"/>
-      <c r="L28" s="161"/>
-      <c r="M28" s="169"/>
-      <c r="N28" s="170"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="170"/>
-      <c r="Q28" s="170"/>
-      <c r="R28" s="171"/>
-      <c r="S28" s="156"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="172"/>
-      <c r="W28" s="173"/>
-      <c r="X28" s="173"/>
-      <c r="Y28" s="173"/>
-      <c r="Z28" s="173"/>
-      <c r="AA28" s="173"/>
-      <c r="AB28" s="173"/>
-      <c r="AC28" s="173"/>
-      <c r="AD28" s="173"/>
-      <c r="AE28" s="173"/>
-      <c r="AF28" s="173"/>
-      <c r="AG28" s="173"/>
-      <c r="AH28" s="173"/>
-      <c r="AI28" s="173"/>
-      <c r="AJ28" s="173"/>
-      <c r="AK28" s="173"/>
-      <c r="AL28" s="173"/>
-      <c r="AM28" s="174"/>
-      <c r="AN28" s="175"/>
-      <c r="AO28" s="176"/>
-      <c r="AP28" s="176"/>
-      <c r="AQ28" s="176"/>
-      <c r="AR28" s="177"/>
-      <c r="AS28" s="175"/>
-      <c r="AT28" s="176"/>
-      <c r="AU28" s="176"/>
-      <c r="AV28" s="176"/>
-      <c r="AW28" s="177"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="165"/>
+      <c r="O28" s="165"/>
+      <c r="P28" s="165"/>
+      <c r="Q28" s="165"/>
+      <c r="R28" s="166"/>
+      <c r="S28" s="160"/>
+      <c r="T28" s="160"/>
+      <c r="U28" s="160"/>
+      <c r="V28" s="161"/>
+      <c r="W28" s="162"/>
+      <c r="X28" s="162"/>
+      <c r="Y28" s="162"/>
+      <c r="Z28" s="162"/>
+      <c r="AA28" s="162"/>
+      <c r="AB28" s="162"/>
+      <c r="AC28" s="162"/>
+      <c r="AD28" s="162"/>
+      <c r="AE28" s="162"/>
+      <c r="AF28" s="162"/>
+      <c r="AG28" s="162"/>
+      <c r="AH28" s="162"/>
+      <c r="AI28" s="162"/>
+      <c r="AJ28" s="162"/>
+      <c r="AK28" s="162"/>
+      <c r="AL28" s="162"/>
+      <c r="AM28" s="163"/>
+      <c r="AN28" s="147"/>
+      <c r="AO28" s="148"/>
+      <c r="AP28" s="148"/>
+      <c r="AQ28" s="148"/>
+      <c r="AR28" s="149"/>
+      <c r="AS28" s="147"/>
+      <c r="AT28" s="148"/>
+      <c r="AU28" s="148"/>
+      <c r="AV28" s="148"/>
+      <c r="AW28" s="149"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="59"/>
-      <c r="B29" s="166"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="160"/>
-      <c r="L29" s="161"/>
-      <c r="M29" s="169"/>
-      <c r="N29" s="170"/>
-      <c r="O29" s="170"/>
-      <c r="P29" s="170"/>
-      <c r="Q29" s="170"/>
-      <c r="R29" s="171"/>
-      <c r="S29" s="156"/>
-      <c r="T29" s="156"/>
-      <c r="U29" s="156"/>
-      <c r="V29" s="172"/>
-      <c r="W29" s="173"/>
-      <c r="X29" s="173"/>
-      <c r="Y29" s="173"/>
-      <c r="Z29" s="173"/>
-      <c r="AA29" s="173"/>
-      <c r="AB29" s="173"/>
-      <c r="AC29" s="173"/>
-      <c r="AD29" s="173"/>
-      <c r="AE29" s="173"/>
-      <c r="AF29" s="173"/>
-      <c r="AG29" s="173"/>
-      <c r="AH29" s="173"/>
-      <c r="AI29" s="173"/>
-      <c r="AJ29" s="173"/>
-      <c r="AK29" s="173"/>
-      <c r="AL29" s="173"/>
-      <c r="AM29" s="174"/>
-      <c r="AN29" s="175"/>
-      <c r="AO29" s="176"/>
-      <c r="AP29" s="176"/>
-      <c r="AQ29" s="176"/>
-      <c r="AR29" s="177"/>
-      <c r="AS29" s="175"/>
-      <c r="AT29" s="176"/>
-      <c r="AU29" s="176"/>
-      <c r="AV29" s="176"/>
-      <c r="AW29" s="177"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="167"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="165"/>
+      <c r="Q29" s="165"/>
+      <c r="R29" s="166"/>
+      <c r="S29" s="160"/>
+      <c r="T29" s="160"/>
+      <c r="U29" s="160"/>
+      <c r="V29" s="161"/>
+      <c r="W29" s="162"/>
+      <c r="X29" s="162"/>
+      <c r="Y29" s="162"/>
+      <c r="Z29" s="162"/>
+      <c r="AA29" s="162"/>
+      <c r="AB29" s="162"/>
+      <c r="AC29" s="162"/>
+      <c r="AD29" s="162"/>
+      <c r="AE29" s="162"/>
+      <c r="AF29" s="162"/>
+      <c r="AG29" s="162"/>
+      <c r="AH29" s="162"/>
+      <c r="AI29" s="162"/>
+      <c r="AJ29" s="162"/>
+      <c r="AK29" s="162"/>
+      <c r="AL29" s="162"/>
+      <c r="AM29" s="163"/>
+      <c r="AN29" s="147"/>
+      <c r="AO29" s="148"/>
+      <c r="AP29" s="148"/>
+      <c r="AQ29" s="148"/>
+      <c r="AR29" s="149"/>
+      <c r="AS29" s="147"/>
+      <c r="AT29" s="148"/>
+      <c r="AU29" s="148"/>
+      <c r="AV29" s="148"/>
+      <c r="AW29" s="149"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="59"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="160"/>
-      <c r="L30" s="161"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="170"/>
-      <c r="O30" s="170"/>
-      <c r="P30" s="170"/>
-      <c r="Q30" s="170"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="156"/>
-      <c r="T30" s="156"/>
-      <c r="U30" s="156"/>
-      <c r="V30" s="172"/>
-      <c r="W30" s="173"/>
-      <c r="X30" s="173"/>
-      <c r="Y30" s="173"/>
-      <c r="Z30" s="173"/>
-      <c r="AA30" s="173"/>
-      <c r="AB30" s="173"/>
-      <c r="AC30" s="173"/>
-      <c r="AD30" s="173"/>
-      <c r="AE30" s="173"/>
-      <c r="AF30" s="173"/>
-      <c r="AG30" s="173"/>
-      <c r="AH30" s="173"/>
-      <c r="AI30" s="173"/>
-      <c r="AJ30" s="173"/>
-      <c r="AK30" s="173"/>
-      <c r="AL30" s="173"/>
-      <c r="AM30" s="174"/>
-      <c r="AN30" s="175"/>
-      <c r="AO30" s="176"/>
-      <c r="AP30" s="176"/>
-      <c r="AQ30" s="176"/>
-      <c r="AR30" s="177"/>
-      <c r="AS30" s="175"/>
-      <c r="AT30" s="176"/>
-      <c r="AU30" s="176"/>
-      <c r="AV30" s="176"/>
-      <c r="AW30" s="177"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="156"/>
+      <c r="M30" s="164"/>
+      <c r="N30" s="165"/>
+      <c r="O30" s="165"/>
+      <c r="P30" s="165"/>
+      <c r="Q30" s="165"/>
+      <c r="R30" s="166"/>
+      <c r="S30" s="160"/>
+      <c r="T30" s="160"/>
+      <c r="U30" s="160"/>
+      <c r="V30" s="161"/>
+      <c r="W30" s="162"/>
+      <c r="X30" s="162"/>
+      <c r="Y30" s="162"/>
+      <c r="Z30" s="162"/>
+      <c r="AA30" s="162"/>
+      <c r="AB30" s="162"/>
+      <c r="AC30" s="162"/>
+      <c r="AD30" s="162"/>
+      <c r="AE30" s="162"/>
+      <c r="AF30" s="162"/>
+      <c r="AG30" s="162"/>
+      <c r="AH30" s="162"/>
+      <c r="AI30" s="162"/>
+      <c r="AJ30" s="162"/>
+      <c r="AK30" s="162"/>
+      <c r="AL30" s="162"/>
+      <c r="AM30" s="163"/>
+      <c r="AN30" s="147"/>
+      <c r="AO30" s="148"/>
+      <c r="AP30" s="148"/>
+      <c r="AQ30" s="148"/>
+      <c r="AR30" s="149"/>
+      <c r="AS30" s="147"/>
+      <c r="AT30" s="148"/>
+      <c r="AU30" s="148"/>
+      <c r="AV30" s="148"/>
+      <c r="AW30" s="149"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="59"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="159"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="161"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="170"/>
-      <c r="O31" s="170"/>
-      <c r="P31" s="170"/>
-      <c r="Q31" s="170"/>
-      <c r="R31" s="171"/>
-      <c r="S31" s="156"/>
-      <c r="T31" s="156"/>
-      <c r="U31" s="156"/>
-      <c r="V31" s="172"/>
-      <c r="W31" s="173"/>
-      <c r="X31" s="173"/>
-      <c r="Y31" s="173"/>
-      <c r="Z31" s="173"/>
-      <c r="AA31" s="173"/>
-      <c r="AB31" s="173"/>
-      <c r="AC31" s="173"/>
-      <c r="AD31" s="173"/>
-      <c r="AE31" s="173"/>
-      <c r="AF31" s="173"/>
-      <c r="AG31" s="173"/>
-      <c r="AH31" s="173"/>
-      <c r="AI31" s="173"/>
-      <c r="AJ31" s="173"/>
-      <c r="AK31" s="173"/>
-      <c r="AL31" s="173"/>
-      <c r="AM31" s="174"/>
-      <c r="AN31" s="175"/>
-      <c r="AO31" s="176"/>
-      <c r="AP31" s="176"/>
-      <c r="AQ31" s="176"/>
-      <c r="AR31" s="177"/>
-      <c r="AS31" s="175"/>
-      <c r="AT31" s="176"/>
-      <c r="AU31" s="176"/>
-      <c r="AV31" s="176"/>
-      <c r="AW31" s="177"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="164"/>
+      <c r="N31" s="165"/>
+      <c r="O31" s="165"/>
+      <c r="P31" s="165"/>
+      <c r="Q31" s="165"/>
+      <c r="R31" s="166"/>
+      <c r="S31" s="160"/>
+      <c r="T31" s="160"/>
+      <c r="U31" s="160"/>
+      <c r="V31" s="161"/>
+      <c r="W31" s="162"/>
+      <c r="X31" s="162"/>
+      <c r="Y31" s="162"/>
+      <c r="Z31" s="162"/>
+      <c r="AA31" s="162"/>
+      <c r="AB31" s="162"/>
+      <c r="AC31" s="162"/>
+      <c r="AD31" s="162"/>
+      <c r="AE31" s="162"/>
+      <c r="AF31" s="162"/>
+      <c r="AG31" s="162"/>
+      <c r="AH31" s="162"/>
+      <c r="AI31" s="162"/>
+      <c r="AJ31" s="162"/>
+      <c r="AK31" s="162"/>
+      <c r="AL31" s="162"/>
+      <c r="AM31" s="163"/>
+      <c r="AN31" s="147"/>
+      <c r="AO31" s="148"/>
+      <c r="AP31" s="148"/>
+      <c r="AQ31" s="148"/>
+      <c r="AR31" s="149"/>
+      <c r="AS31" s="147"/>
+      <c r="AT31" s="148"/>
+      <c r="AU31" s="148"/>
+      <c r="AV31" s="148"/>
+      <c r="AW31" s="149"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="59"/>
-      <c r="B32" s="166"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="159"/>
-      <c r="K32" s="160"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="170"/>
-      <c r="O32" s="170"/>
-      <c r="P32" s="170"/>
-      <c r="Q32" s="170"/>
-      <c r="R32" s="171"/>
-      <c r="S32" s="156"/>
-      <c r="T32" s="156"/>
-      <c r="U32" s="156"/>
-      <c r="V32" s="172"/>
-      <c r="W32" s="173"/>
-      <c r="X32" s="173"/>
-      <c r="Y32" s="173"/>
-      <c r="Z32" s="173"/>
-      <c r="AA32" s="173"/>
-      <c r="AB32" s="173"/>
-      <c r="AC32" s="173"/>
-      <c r="AD32" s="173"/>
-      <c r="AE32" s="173"/>
-      <c r="AF32" s="173"/>
-      <c r="AG32" s="173"/>
-      <c r="AH32" s="173"/>
-      <c r="AI32" s="173"/>
-      <c r="AJ32" s="173"/>
-      <c r="AK32" s="173"/>
-      <c r="AL32" s="173"/>
-      <c r="AM32" s="174"/>
-      <c r="AN32" s="175"/>
-      <c r="AO32" s="176"/>
-      <c r="AP32" s="176"/>
-      <c r="AQ32" s="176"/>
-      <c r="AR32" s="177"/>
-      <c r="AS32" s="175"/>
-      <c r="AT32" s="176"/>
-      <c r="AU32" s="176"/>
-      <c r="AV32" s="176"/>
-      <c r="AW32" s="177"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="154"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="164"/>
+      <c r="N32" s="165"/>
+      <c r="O32" s="165"/>
+      <c r="P32" s="165"/>
+      <c r="Q32" s="165"/>
+      <c r="R32" s="166"/>
+      <c r="S32" s="160"/>
+      <c r="T32" s="160"/>
+      <c r="U32" s="160"/>
+      <c r="V32" s="161"/>
+      <c r="W32" s="162"/>
+      <c r="X32" s="162"/>
+      <c r="Y32" s="162"/>
+      <c r="Z32" s="162"/>
+      <c r="AA32" s="162"/>
+      <c r="AB32" s="162"/>
+      <c r="AC32" s="162"/>
+      <c r="AD32" s="162"/>
+      <c r="AE32" s="162"/>
+      <c r="AF32" s="162"/>
+      <c r="AG32" s="162"/>
+      <c r="AH32" s="162"/>
+      <c r="AI32" s="162"/>
+      <c r="AJ32" s="162"/>
+      <c r="AK32" s="162"/>
+      <c r="AL32" s="162"/>
+      <c r="AM32" s="163"/>
+      <c r="AN32" s="147"/>
+      <c r="AO32" s="148"/>
+      <c r="AP32" s="148"/>
+      <c r="AQ32" s="148"/>
+      <c r="AR32" s="149"/>
+      <c r="AS32" s="147"/>
+      <c r="AT32" s="148"/>
+      <c r="AU32" s="148"/>
+      <c r="AV32" s="148"/>
+      <c r="AW32" s="149"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="166"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="159"/>
-      <c r="K33" s="160"/>
-      <c r="L33" s="161"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="170"/>
-      <c r="O33" s="170"/>
-      <c r="P33" s="170"/>
-      <c r="Q33" s="170"/>
-      <c r="R33" s="171"/>
-      <c r="S33" s="156"/>
-      <c r="T33" s="156"/>
-      <c r="U33" s="156"/>
-      <c r="V33" s="172"/>
-      <c r="W33" s="173"/>
-      <c r="X33" s="173"/>
-      <c r="Y33" s="173"/>
-      <c r="Z33" s="173"/>
-      <c r="AA33" s="173"/>
-      <c r="AB33" s="173"/>
-      <c r="AC33" s="173"/>
-      <c r="AD33" s="173"/>
-      <c r="AE33" s="173"/>
-      <c r="AF33" s="173"/>
-      <c r="AG33" s="173"/>
-      <c r="AH33" s="173"/>
-      <c r="AI33" s="173"/>
-      <c r="AJ33" s="173"/>
-      <c r="AK33" s="173"/>
-      <c r="AL33" s="173"/>
-      <c r="AM33" s="174"/>
-      <c r="AN33" s="175"/>
-      <c r="AO33" s="176"/>
-      <c r="AP33" s="176"/>
-      <c r="AQ33" s="176"/>
-      <c r="AR33" s="177"/>
-      <c r="AS33" s="175"/>
-      <c r="AT33" s="176"/>
-      <c r="AU33" s="176"/>
-      <c r="AV33" s="176"/>
-      <c r="AW33" s="177"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="154"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="165"/>
+      <c r="O33" s="165"/>
+      <c r="P33" s="165"/>
+      <c r="Q33" s="165"/>
+      <c r="R33" s="166"/>
+      <c r="S33" s="160"/>
+      <c r="T33" s="160"/>
+      <c r="U33" s="160"/>
+      <c r="V33" s="161"/>
+      <c r="W33" s="162"/>
+      <c r="X33" s="162"/>
+      <c r="Y33" s="162"/>
+      <c r="Z33" s="162"/>
+      <c r="AA33" s="162"/>
+      <c r="AB33" s="162"/>
+      <c r="AC33" s="162"/>
+      <c r="AD33" s="162"/>
+      <c r="AE33" s="162"/>
+      <c r="AF33" s="162"/>
+      <c r="AG33" s="162"/>
+      <c r="AH33" s="162"/>
+      <c r="AI33" s="162"/>
+      <c r="AJ33" s="162"/>
+      <c r="AK33" s="162"/>
+      <c r="AL33" s="162"/>
+      <c r="AM33" s="163"/>
+      <c r="AN33" s="147"/>
+      <c r="AO33" s="148"/>
+      <c r="AP33" s="148"/>
+      <c r="AQ33" s="148"/>
+      <c r="AR33" s="149"/>
+      <c r="AS33" s="147"/>
+      <c r="AT33" s="148"/>
+      <c r="AU33" s="148"/>
+      <c r="AV33" s="148"/>
+      <c r="AW33" s="149"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="166"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="159"/>
-      <c r="K34" s="160"/>
-      <c r="L34" s="161"/>
-      <c r="M34" s="184"/>
-      <c r="N34" s="185"/>
-      <c r="O34" s="185"/>
-      <c r="P34" s="185"/>
-      <c r="Q34" s="185"/>
-      <c r="R34" s="186"/>
-      <c r="S34" s="156"/>
-      <c r="T34" s="156"/>
-      <c r="U34" s="156"/>
-      <c r="V34" s="172"/>
-      <c r="W34" s="173"/>
-      <c r="X34" s="173"/>
-      <c r="Y34" s="173"/>
-      <c r="Z34" s="173"/>
-      <c r="AA34" s="173"/>
-      <c r="AB34" s="173"/>
-      <c r="AC34" s="173"/>
-      <c r="AD34" s="173"/>
-      <c r="AE34" s="173"/>
-      <c r="AF34" s="173"/>
-      <c r="AG34" s="173"/>
-      <c r="AH34" s="173"/>
-      <c r="AI34" s="173"/>
-      <c r="AJ34" s="173"/>
-      <c r="AK34" s="173"/>
-      <c r="AL34" s="173"/>
-      <c r="AM34" s="174"/>
-      <c r="AN34" s="175"/>
-      <c r="AO34" s="176"/>
-      <c r="AP34" s="176"/>
-      <c r="AQ34" s="176"/>
-      <c r="AR34" s="177"/>
-      <c r="AS34" s="175"/>
-      <c r="AT34" s="176"/>
-      <c r="AU34" s="176"/>
-      <c r="AV34" s="176"/>
-      <c r="AW34" s="177"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="156"/>
+      <c r="M34" s="157"/>
+      <c r="N34" s="158"/>
+      <c r="O34" s="158"/>
+      <c r="P34" s="158"/>
+      <c r="Q34" s="158"/>
+      <c r="R34" s="159"/>
+      <c r="S34" s="160"/>
+      <c r="T34" s="160"/>
+      <c r="U34" s="160"/>
+      <c r="V34" s="161"/>
+      <c r="W34" s="162"/>
+      <c r="X34" s="162"/>
+      <c r="Y34" s="162"/>
+      <c r="Z34" s="162"/>
+      <c r="AA34" s="162"/>
+      <c r="AB34" s="162"/>
+      <c r="AC34" s="162"/>
+      <c r="AD34" s="162"/>
+      <c r="AE34" s="162"/>
+      <c r="AF34" s="162"/>
+      <c r="AG34" s="162"/>
+      <c r="AH34" s="162"/>
+      <c r="AI34" s="162"/>
+      <c r="AJ34" s="162"/>
+      <c r="AK34" s="162"/>
+      <c r="AL34" s="162"/>
+      <c r="AM34" s="163"/>
+      <c r="AN34" s="147"/>
+      <c r="AO34" s="148"/>
+      <c r="AP34" s="148"/>
+      <c r="AQ34" s="148"/>
+      <c r="AR34" s="149"/>
+      <c r="AS34" s="147"/>
+      <c r="AT34" s="148"/>
+      <c r="AU34" s="148"/>
+      <c r="AV34" s="148"/>
+      <c r="AW34" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -6214,239 +6470,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6578,7 +6601,7 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="39"/>
       <c r="R2" s="100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S2" s="101"/>
       <c r="T2" s="101"/>
@@ -8929,7 +8952,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
@@ -9052,37 +9075,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="149" t="s">
+      <c r="D6" s="180" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="149" t="s">
+      <c r="E6" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="149" t="s">
+      <c r="F6" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="149" t="s">
+      <c r="G6" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="149" t="s">
+      <c r="H6" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="208" t="s">
+      <c r="I6" s="210" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="208" t="s">
+      <c r="J6" s="210" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="149" t="s">
+      <c r="K6" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="149" t="s">
+      <c r="L6" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="149" t="s">
+      <c r="M6" s="180" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="71" t="s">
@@ -9090,24 +9113,24 @@
       </c>
       <c r="O6" s="71"/>
       <c r="P6" s="71"/>
-      <c r="Q6" s="208" t="s">
+      <c r="Q6" s="210" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="208"/>
-      <c r="J7" s="208"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="149"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="210"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
       <c r="N7" s="43" t="s">
         <v>79</v>
       </c>
@@ -9117,7 +9140,7 @@
       <c r="P7" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="Q7" s="208"/>
+      <c r="Q7" s="210"/>
     </row>
     <row r="8" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -9176,13 +9199,13 @@
         <v>61</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>35</v>
@@ -9222,13 +9245,13 @@
         <v>62</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>35</v>
@@ -9268,13 +9291,13 @@
         <v>63</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>35</v>
@@ -9311,7 +9334,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>51</v>
@@ -9358,7 +9381,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>42</v>
@@ -9411,37 +9434,37 @@
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="149" t="s">
+      <c r="C16" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="149" t="s">
+      <c r="D16" s="180" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="149" t="s">
+      <c r="E16" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="149" t="s">
+      <c r="F16" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="149" t="s">
+      <c r="G16" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="149" t="s">
+      <c r="H16" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="209" t="s">
+      <c r="I16" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="208" t="s">
+      <c r="J16" s="210" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="149" t="s">
+      <c r="K16" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="149" t="s">
+      <c r="L16" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="149" t="s">
+      <c r="M16" s="180" t="s">
         <v>33</v>
       </c>
       <c r="N16" s="71" t="s">
@@ -9449,24 +9472,24 @@
       </c>
       <c r="O16" s="71"/>
       <c r="P16" s="71"/>
-      <c r="Q16" s="209" t="s">
+      <c r="Q16" s="208" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="149"/>
-      <c r="L17" s="149"/>
-      <c r="M17" s="149"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="210"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
       <c r="N17" s="43" t="s">
         <v>79</v>
       </c>
@@ -9476,7 +9499,7 @@
       <c r="P17" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="Q17" s="210"/>
+      <c r="Q17" s="209"/>
     </row>
     <row r="18" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
@@ -9485,13 +9508,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>114</v>
@@ -9517,7 +9540,7 @@
         <v>35</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q18" s="87" t="s">
         <v>82</v>
@@ -9536,37 +9559,37 @@
     <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="63"/>
-      <c r="C21" s="149" t="s">
+      <c r="C21" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="149" t="s">
+      <c r="D21" s="180" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="149" t="s">
+      <c r="E21" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="149" t="s">
+      <c r="F21" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="149" t="s">
+      <c r="G21" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="149" t="s">
+      <c r="H21" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="208" t="s">
+      <c r="I21" s="210" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="208" t="s">
+      <c r="J21" s="210" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="149" t="s">
+      <c r="K21" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="149" t="s">
+      <c r="L21" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="149" t="s">
+      <c r="M21" s="180" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="71" t="s">
@@ -9574,24 +9597,24 @@
       </c>
       <c r="O21" s="71"/>
       <c r="P21" s="71"/>
-      <c r="Q21" s="208" t="s">
+      <c r="Q21" s="210" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="63"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="208"/>
-      <c r="K22" s="149"/>
-      <c r="L22" s="149"/>
-      <c r="M22" s="149"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="210"/>
+      <c r="J22" s="210"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
       <c r="N22" s="43" t="s">
         <v>79</v>
       </c>
@@ -9601,7 +9624,7 @@
       <c r="P22" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="Q22" s="208"/>
+      <c r="Q22" s="210"/>
     </row>
     <row r="23" spans="1:18" s="50" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="56"/>
@@ -9678,43 +9701,43 @@
         <v>2</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="123"/>
@@ -9726,31 +9749,31 @@
         <v>3</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -9758,101 +9781,101 @@
         <v>35</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="63"/>
       <c r="C27" s="7">
         <v>4</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="I27" s="7">
-        <v>50</v>
+        <v>212</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>258</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="63"/>
       <c r="C28" s="7">
         <v>5</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="I28" s="7">
+        <v>50</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M28" s="7"/>
+        <v>209</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>237</v>
+      </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q28" s="7"/>
+        <v>217</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
@@ -9861,41 +9884,41 @@
         <v>6</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>156</v>
+        <v>281</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="I29" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" s="8" t="s">
         <v>142</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7" t="s">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="Q29" s="7"/>
     </row>
@@ -9906,13 +9929,13 @@
         <v>7</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>49</v>
@@ -9920,27 +9943,25 @@
       <c r="H30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="7">
-        <v>20</v>
-      </c>
+      <c r="I30" s="7"/>
       <c r="J30" s="7" t="s">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>142</v>
+        <v>34</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>288</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="Q30" s="7"/>
     </row>
@@ -9951,41 +9972,41 @@
         <v>8</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>245</v>
+        <v>155</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>49</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="I31" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>142</v>
       </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7"/>
     </row>
@@ -9996,13 +10017,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>49</v>
@@ -10014,13 +10035,13 @@
         <v>20</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>142</v>
@@ -10030,7 +10051,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7"/>
     </row>
@@ -10041,13 +10062,13 @@
         <v>10</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>49</v>
@@ -10056,26 +10077,26 @@
         <v>29</v>
       </c>
       <c r="I33" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>142</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="Q33" s="7"/>
     </row>
@@ -10086,31 +10107,31 @@
         <v>11</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="I34" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="M34" s="7" t="s">
         <v>142</v>
@@ -10120,258 +10141,258 @@
         <v>35</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="Q34" s="7"/>
-      <c r="R34" s="124"/>
     </row>
     <row r="35" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="63"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="110"/>
+      <c r="C35" s="7">
+        <v>12</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="7">
+        <v>20</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
-      <c r="B36" s="32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="63"/>
+      <c r="C36" s="7">
+        <v>13</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I36" s="7">
+        <v>50</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="124"/>
+    </row>
+    <row r="37" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="63"/>
-      <c r="C37" s="149" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="149" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="149" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="149" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="149" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="208" t="s">
-        <v>44</v>
-      </c>
-      <c r="J37" s="208" t="s">
-        <v>45</v>
-      </c>
-      <c r="K37" s="149" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="149" t="s">
-        <v>30</v>
-      </c>
-      <c r="M37" s="149" t="s">
-        <v>33</v>
-      </c>
-      <c r="N37" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="208" t="s">
-        <v>32</v>
-      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="110"/>
+      <c r="O37" s="110"/>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="110"/>
     </row>
     <row r="38" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="149"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="208"/>
-      <c r="J38" s="208"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
-      <c r="N38" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="O38" s="99" t="s">
-        <v>83</v>
-      </c>
-      <c r="P38" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q38" s="208"/>
-    </row>
-    <row r="39" spans="1:18" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="B38" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="63"/>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G39" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I39" s="7">
-        <v>20</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="N39" s="7"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q39" s="118" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="C39" s="180" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="180" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="180" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="180" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="180" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="180" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="210" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="210" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" s="180" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="180" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="180" t="s">
+        <v>33</v>
+      </c>
+      <c r="N39" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="210" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="15"/>
       <c r="B40" s="63"/>
-      <c r="C40" s="7">
-        <v>2</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G40" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I40" s="7">
-        <v>50</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q40" s="118" t="s">
-        <v>138</v>
-      </c>
+      <c r="C40" s="180"/>
+      <c r="D40" s="180"/>
+      <c r="E40" s="180"/>
+      <c r="F40" s="180"/>
+      <c r="G40" s="180"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="210"/>
+      <c r="J40" s="210"/>
+      <c r="K40" s="180"/>
+      <c r="L40" s="180"/>
+      <c r="M40" s="180"/>
+      <c r="N40" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="O40" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="P40" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q40" s="210"/>
     </row>
     <row r="41" spans="1:18" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
       <c r="B41" s="63"/>
       <c r="C41" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I41" s="7">
         <v>20</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="63"/>
       <c r="C42" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>192</v>
+        <v>119</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>194</v>
+        <v>152</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>115</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>116</v>
@@ -10380,170 +10401,172 @@
         <v>20</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>142</v>
+        <v>35</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q42" s="7"/>
-    </row>
-    <row r="43" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="O42" s="8"/>
+      <c r="P42" s="113" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q42" s="118" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A43" s="15"/>
       <c r="B43" s="63"/>
       <c r="C43" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>197</v>
+        <v>290</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>194</v>
+        <v>168</v>
+      </c>
+      <c r="G43" s="44" t="s">
+        <v>115</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="I43" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q43" s="7"/>
-    </row>
-    <row r="44" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q43" s="118" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A44" s="15"/>
       <c r="B44" s="63"/>
       <c r="C44" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>202</v>
+        <v>291</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>194</v>
+        <v>280</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>115</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="I44" s="7">
         <v>50</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
       <c r="P44" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q44" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="Q44" s="118"/>
     </row>
     <row r="45" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="15"/>
       <c r="B45" s="63"/>
       <c r="C45" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>206</v>
+        <v>292</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>194</v>
+        <v>284</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>115</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I45" s="7">
-        <v>20</v>
-      </c>
+      <c r="I45" s="7"/>
       <c r="J45" s="7" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>188</v>
+        <v>286</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
       <c r="P45" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q45" s="7"/>
+        <v>289</v>
+      </c>
+      <c r="Q45" s="118"/>
     </row>
     <row r="46" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="15"/>
       <c r="B46" s="63"/>
       <c r="C46" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>116</v>
@@ -10552,13 +10575,13 @@
         <v>20</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M46" s="7" t="s">
         <v>142</v>
@@ -10566,7 +10589,7 @@
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="P46" s="7" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="Q46" s="7"/>
     </row>
@@ -10574,61 +10597,265 @@
       <c r="A47" s="15"/>
       <c r="B47" s="63"/>
       <c r="C47" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>213</v>
+        <v>294</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I47" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
       <c r="P47" s="7" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="Q47" s="7"/>
-      <c r="R47" s="124"/>
     </row>
     <row r="48" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="15"/>
       <c r="B48" s="63"/>
-    </row>
-    <row r="49" spans="2:17" s="51" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B49" s="65"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="M49" s="52"/>
-      <c r="Q49" s="52"/>
+      <c r="C48" s="7">
+        <v>8</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I48" s="7">
+        <v>50</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q48" s="7"/>
+    </row>
+    <row r="49" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="15"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="7">
+        <v>9</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I49" s="7">
+        <v>20</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q49" s="7"/>
+    </row>
+    <row r="50" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="15"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="7">
+        <v>10</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I50" s="7">
+        <v>20</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q50" s="7"/>
+    </row>
+    <row r="51" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="15"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="7">
+        <v>11</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I51" s="7">
+        <v>50</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="124"/>
+    </row>
+    <row r="52" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="15"/>
+      <c r="B52" s="63"/>
+    </row>
+    <row r="53" spans="1:18" s="51" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B53" s="65"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="M53" s="52"/>
+      <c r="Q53" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="I21:I22"/>
@@ -10645,38 +10872,6 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10692,7 +10887,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ177"/>
+  <dimension ref="A1:AZ172"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -11194,7 +11389,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="23"/>
       <c r="L11" s="22" t="s">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
@@ -11246,7 +11441,9 @@
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="76"/>
-      <c r="L12" s="24"/>
+      <c r="L12" s="24" t="s">
+        <v>301</v>
+      </c>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -11342,7 +11539,7 @@
       <c r="G14" s="75"/>
       <c r="K14" s="76"/>
       <c r="M14" s="119" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N14" s="119"/>
       <c r="O14" s="119"/>
@@ -11382,7 +11579,7 @@
       <c r="G15" s="75"/>
       <c r="K15" s="76"/>
       <c r="M15" s="119" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N15" s="119"/>
       <c r="O15" s="119"/>
@@ -11398,17 +11595,17 @@
       <c r="Y15" s="119"/>
       <c r="Z15" s="119"/>
       <c r="AA15" s="119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB15" s="119" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AC15" s="119"/>
       <c r="AD15" s="119"/>
       <c r="AE15" s="119"/>
       <c r="AF15" s="119"/>
       <c r="AG15" s="119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AH15" s="119"/>
       <c r="AI15" s="119"/>
@@ -11424,488 +11621,651 @@
     <row r="16" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="76"/>
       <c r="G16" s="75"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="76"/>
-      <c r="M16" s="17" t="s">
-        <v>166</v>
-      </c>
+      <c r="L16" s="24"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="77"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="78"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="78"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="78"/>
+      <c r="AH16" s="78"/>
+      <c r="AI16" s="78"/>
+      <c r="AJ16" s="77"/>
+      <c r="AK16" s="77"/>
+      <c r="AL16" s="77"/>
+      <c r="AM16" s="78"/>
+      <c r="AN16" s="77"/>
+      <c r="AO16" s="77"/>
+      <c r="AP16" s="77"/>
+      <c r="AQ16" s="24"/>
+      <c r="AR16" s="24"/>
+      <c r="AS16" s="24"/>
+      <c r="AT16" s="24"/>
+      <c r="AU16" s="24"/>
       <c r="AV16" s="76"/>
     </row>
     <row r="17" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B17" s="75"/>
       <c r="C17" s="75"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="76"/>
       <c r="G17" s="75"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="76"/>
-      <c r="M17" s="17" t="s">
-        <v>167</v>
-      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="24"/>
+      <c r="AL17" s="24"/>
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="24"/>
+      <c r="AO17" s="24"/>
+      <c r="AP17" s="24"/>
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="24"/>
+      <c r="AS17" s="24"/>
+      <c r="AT17" s="24"/>
+      <c r="AU17" s="24"/>
       <c r="AV17" s="76"/>
     </row>
     <row r="18" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B18" s="75"/>
       <c r="C18" s="75"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="76"/>
       <c r="G18" s="75"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="76"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="24"/>
+      <c r="AO18" s="24"/>
+      <c r="AP18" s="24"/>
+      <c r="AQ18" s="24"/>
+      <c r="AR18" s="24"/>
+      <c r="AS18" s="24"/>
+      <c r="AT18" s="24"/>
+      <c r="AU18" s="24"/>
       <c r="AV18" s="76"/>
     </row>
     <row r="19" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="76"/>
       <c r="G19" s="75"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="76"/>
-      <c r="M19" s="119" t="s">
-        <v>121</v>
-      </c>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="119"/>
-      <c r="U19" s="119"/>
-      <c r="V19" s="119"/>
-      <c r="W19" s="119"/>
-      <c r="X19" s="119"/>
-      <c r="Y19" s="119"/>
-      <c r="Z19" s="119"/>
-      <c r="AA19" s="119"/>
-      <c r="AB19" s="119"/>
-      <c r="AC19" s="119"/>
-      <c r="AD19" s="119"/>
-      <c r="AE19" s="119"/>
-      <c r="AF19" s="119"/>
-      <c r="AG19" s="119"/>
-      <c r="AH19" s="119"/>
-      <c r="AI19" s="119"/>
-      <c r="AJ19" s="119"/>
-      <c r="AK19" s="119"/>
-      <c r="AL19" s="119"/>
-      <c r="AM19" s="119"/>
-      <c r="AN19" s="119"/>
-      <c r="AO19" s="119"/>
-      <c r="AP19" s="119"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="24"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="24"/>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="24"/>
+      <c r="AT19" s="24"/>
+      <c r="AU19" s="24"/>
       <c r="AV19" s="76"/>
     </row>
     <row r="20" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B20" s="75"/>
       <c r="C20" s="75"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="76"/>
       <c r="G20" s="75"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="76"/>
-      <c r="M20" s="119" t="s">
-        <v>169</v>
-      </c>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="119"/>
-      <c r="W20" s="119"/>
-      <c r="X20" s="119"/>
-      <c r="Y20" s="119"/>
-      <c r="Z20" s="119"/>
-      <c r="AA20" s="119"/>
-      <c r="AB20" s="119"/>
-      <c r="AC20" s="119"/>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="119"/>
-      <c r="AF20" s="119"/>
-      <c r="AG20" s="119"/>
-      <c r="AH20" s="119"/>
-      <c r="AI20" s="119"/>
-      <c r="AJ20" s="119"/>
-      <c r="AK20" s="119"/>
-      <c r="AL20" s="119"/>
-      <c r="AM20" s="119"/>
-      <c r="AN20" s="119"/>
-      <c r="AO20" s="119"/>
-      <c r="AP20" s="119"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24"/>
+      <c r="AH20" s="24"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="24"/>
+      <c r="AN20" s="24"/>
+      <c r="AO20" s="24"/>
+      <c r="AP20" s="24"/>
+      <c r="AQ20" s="24"/>
+      <c r="AR20" s="24"/>
+      <c r="AS20" s="24"/>
+      <c r="AT20" s="24"/>
+      <c r="AU20" s="24"/>
       <c r="AV20" s="76"/>
     </row>
     <row r="21" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="75"/>
-      <c r="K21" s="76"/>
-      <c r="M21" s="119" t="s">
-        <v>170</v>
-      </c>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="119"/>
-      <c r="T21" s="119"/>
-      <c r="U21" s="119"/>
-      <c r="V21" s="119"/>
-      <c r="W21" s="119"/>
-      <c r="X21" s="119"/>
-      <c r="Y21" s="119"/>
-      <c r="Z21" s="119"/>
-      <c r="AA21" s="119" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB21" s="119" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC21" s="119"/>
-      <c r="AD21" s="119"/>
-      <c r="AE21" s="119"/>
-      <c r="AF21" s="119"/>
-      <c r="AG21" s="119" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH21" s="119"/>
-      <c r="AI21" s="119"/>
-      <c r="AJ21" s="120"/>
-      <c r="AK21" s="120"/>
-      <c r="AL21" s="120"/>
-      <c r="AM21" s="119"/>
-      <c r="AN21" s="120"/>
-      <c r="AO21" s="120"/>
-      <c r="AP21" s="120"/>
-      <c r="AV21" s="76"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="26"/>
+      <c r="AN21" s="26"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="26"/>
+      <c r="AR21" s="26"/>
+      <c r="AS21" s="26"/>
+      <c r="AT21" s="26"/>
+      <c r="AU21" s="26"/>
+      <c r="AV21" s="27"/>
     </row>
     <row r="22" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="77"/>
-      <c r="AA22" s="77"/>
-      <c r="AB22" s="78"/>
-      <c r="AC22" s="78"/>
-      <c r="AD22" s="78"/>
-      <c r="AE22" s="78"/>
-      <c r="AF22" s="78"/>
-      <c r="AG22" s="78"/>
-      <c r="AH22" s="78"/>
-      <c r="AI22" s="78"/>
-      <c r="AJ22" s="77"/>
-      <c r="AK22" s="77"/>
-      <c r="AL22" s="77"/>
-      <c r="AM22" s="78"/>
-      <c r="AN22" s="77"/>
-      <c r="AO22" s="77"/>
-      <c r="AP22" s="77"/>
-      <c r="AQ22" s="24"/>
-      <c r="AR22" s="24"/>
-      <c r="AS22" s="24"/>
-      <c r="AT22" s="24"/>
-      <c r="AU22" s="24"/>
-      <c r="AV22" s="76"/>
+      <c r="B22" s="21">
+        <v>3</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="137"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="126"/>
+      <c r="U22" s="126"/>
+      <c r="V22" s="126"/>
+      <c r="W22" s="126"/>
+      <c r="X22" s="126"/>
+      <c r="Y22" s="126"/>
+      <c r="Z22" s="126"/>
+      <c r="AA22" s="126"/>
+      <c r="AB22" s="126"/>
+      <c r="AC22" s="126"/>
+      <c r="AD22" s="126"/>
+      <c r="AE22" s="126"/>
+      <c r="AF22" s="126"/>
+      <c r="AG22" s="126"/>
+      <c r="AH22" s="126"/>
+      <c r="AI22" s="126"/>
+      <c r="AJ22" s="126"/>
+      <c r="AK22" s="126"/>
+      <c r="AL22" s="126"/>
+      <c r="AM22" s="126"/>
+      <c r="AN22" s="126"/>
+      <c r="AO22" s="126"/>
+      <c r="AP22" s="126"/>
+      <c r="AQ22" s="126"/>
+      <c r="AR22" s="126"/>
+      <c r="AS22" s="126"/>
+      <c r="AT22" s="126"/>
+      <c r="AU22" s="126"/>
+      <c r="AV22" s="127"/>
+      <c r="AW22" s="128"/>
     </row>
     <row r="23" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="24"/>
-      <c r="AQ23" s="24"/>
-      <c r="AR23" s="24"/>
-      <c r="AS23" s="24"/>
-      <c r="AT23" s="24"/>
-      <c r="AU23" s="24"/>
-      <c r="AV23" s="76"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="137"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="126"/>
+      <c r="T23" s="126"/>
+      <c r="U23" s="126"/>
+      <c r="V23" s="126"/>
+      <c r="W23" s="126"/>
+      <c r="X23" s="126"/>
+      <c r="Y23" s="126"/>
+      <c r="Z23" s="126"/>
+      <c r="AA23" s="126"/>
+      <c r="AB23" s="126"/>
+      <c r="AC23" s="126"/>
+      <c r="AD23" s="126"/>
+      <c r="AE23" s="126"/>
+      <c r="AF23" s="126"/>
+      <c r="AG23" s="126"/>
+      <c r="AH23" s="126"/>
+      <c r="AI23" s="126"/>
+      <c r="AJ23" s="126"/>
+      <c r="AK23" s="126"/>
+      <c r="AL23" s="126"/>
+      <c r="AM23" s="126"/>
+      <c r="AN23" s="126"/>
+      <c r="AO23" s="126"/>
+      <c r="AP23" s="126"/>
+      <c r="AQ23" s="126"/>
+      <c r="AR23" s="126"/>
+      <c r="AS23" s="126"/>
+      <c r="AT23" s="126"/>
+      <c r="AU23" s="126"/>
+      <c r="AV23" s="127"/>
+      <c r="AW23" s="128"/>
     </row>
     <row r="24" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="24"/>
-      <c r="AH24" s="24"/>
-      <c r="AI24" s="24"/>
-      <c r="AJ24" s="24"/>
-      <c r="AK24" s="24"/>
-      <c r="AL24" s="24"/>
-      <c r="AM24" s="24"/>
-      <c r="AN24" s="24"/>
-      <c r="AO24" s="24"/>
-      <c r="AP24" s="24"/>
-      <c r="AQ24" s="24"/>
-      <c r="AR24" s="24"/>
-      <c r="AS24" s="24"/>
-      <c r="AT24" s="24"/>
-      <c r="AU24" s="24"/>
-      <c r="AV24" s="76"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="130"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="130"/>
+      <c r="O24" s="130"/>
+      <c r="P24" s="130"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="130"/>
+      <c r="S24" s="130"/>
+      <c r="T24" s="130"/>
+      <c r="U24" s="130"/>
+      <c r="V24" s="130"/>
+      <c r="W24" s="130"/>
+      <c r="X24" s="130"/>
+      <c r="Y24" s="130"/>
+      <c r="Z24" s="130"/>
+      <c r="AA24" s="130"/>
+      <c r="AB24" s="130"/>
+      <c r="AC24" s="130"/>
+      <c r="AD24" s="130"/>
+      <c r="AE24" s="130"/>
+      <c r="AF24" s="130"/>
+      <c r="AG24" s="130"/>
+      <c r="AH24" s="130"/>
+      <c r="AI24" s="130"/>
+      <c r="AJ24" s="130"/>
+      <c r="AK24" s="130"/>
+      <c r="AL24" s="130"/>
+      <c r="AM24" s="130"/>
+      <c r="AN24" s="130"/>
+      <c r="AO24" s="130"/>
+      <c r="AP24" s="130"/>
+      <c r="AQ24" s="130"/>
+      <c r="AR24" s="130"/>
+      <c r="AS24" s="130"/>
+      <c r="AT24" s="130"/>
+      <c r="AU24" s="130"/>
+      <c r="AV24" s="131"/>
+      <c r="AW24" s="128"/>
     </row>
     <row r="25" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="24"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="24"/>
-      <c r="AH25" s="24"/>
-      <c r="AI25" s="24"/>
-      <c r="AJ25" s="24"/>
-      <c r="AK25" s="24"/>
-      <c r="AL25" s="24"/>
-      <c r="AM25" s="24"/>
-      <c r="AN25" s="24"/>
-      <c r="AO25" s="24"/>
-      <c r="AP25" s="24"/>
-      <c r="AQ25" s="24"/>
-      <c r="AR25" s="24"/>
-      <c r="AS25" s="24"/>
-      <c r="AT25" s="24"/>
-      <c r="AU25" s="24"/>
-      <c r="AV25" s="76"/>
+      <c r="B25" s="21">
+        <v>4</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="126"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="126"/>
+      <c r="V25" s="126"/>
+      <c r="W25" s="126"/>
+      <c r="X25" s="126"/>
+      <c r="Y25" s="126"/>
+      <c r="Z25" s="126"/>
+      <c r="AA25" s="126"/>
+      <c r="AB25" s="126"/>
+      <c r="AC25" s="126"/>
+      <c r="AD25" s="126"/>
+      <c r="AE25" s="126"/>
+      <c r="AF25" s="126"/>
+      <c r="AG25" s="126"/>
+      <c r="AH25" s="126"/>
+      <c r="AI25" s="126"/>
+      <c r="AJ25" s="126"/>
+      <c r="AK25" s="126"/>
+      <c r="AL25" s="126"/>
+      <c r="AM25" s="126"/>
+      <c r="AN25" s="126"/>
+      <c r="AO25" s="126"/>
+      <c r="AP25" s="126"/>
+      <c r="AQ25" s="126"/>
+      <c r="AR25" s="126"/>
+      <c r="AS25" s="126"/>
+      <c r="AT25" s="126"/>
+      <c r="AU25" s="126"/>
+      <c r="AV25" s="127"/>
+      <c r="AW25" s="128"/>
     </row>
     <row r="26" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="26"/>
-      <c r="AN26" s="26"/>
-      <c r="AO26" s="26"/>
-      <c r="AP26" s="26"/>
-      <c r="AQ26" s="26"/>
-      <c r="AR26" s="26"/>
-      <c r="AS26" s="26"/>
-      <c r="AT26" s="26"/>
-      <c r="AU26" s="26"/>
-      <c r="AV26" s="27"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="75" t="s">
+        <v>245</v>
+      </c>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="126"/>
+      <c r="S26" s="126"/>
+      <c r="T26" s="126"/>
+      <c r="U26" s="126"/>
+      <c r="V26" s="126"/>
+      <c r="W26" s="126"/>
+      <c r="X26" s="126"/>
+      <c r="Y26" s="126"/>
+      <c r="Z26" s="126"/>
+      <c r="AA26" s="126"/>
+      <c r="AB26" s="126"/>
+      <c r="AC26" s="126"/>
+      <c r="AD26" s="126"/>
+      <c r="AE26" s="126"/>
+      <c r="AF26" s="126"/>
+      <c r="AG26" s="126"/>
+      <c r="AH26" s="126"/>
+      <c r="AI26" s="126"/>
+      <c r="AJ26" s="126"/>
+      <c r="AK26" s="126"/>
+      <c r="AL26" s="126"/>
+      <c r="AM26" s="126"/>
+      <c r="AN26" s="126"/>
+      <c r="AO26" s="126"/>
+      <c r="AP26" s="126"/>
+      <c r="AQ26" s="126"/>
+      <c r="AR26" s="126"/>
+      <c r="AS26" s="126"/>
+      <c r="AT26" s="126"/>
+      <c r="AU26" s="126"/>
+      <c r="AV26" s="127"/>
+      <c r="AW26" s="128"/>
     </row>
     <row r="27" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B27" s="21">
-        <v>3</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="M27" s="137"/>
-      <c r="N27" s="137"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="137"/>
-      <c r="Q27" s="137"/>
-      <c r="R27" s="137"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="126"/>
-      <c r="U27" s="126"/>
-      <c r="V27" s="126"/>
-      <c r="W27" s="126"/>
-      <c r="X27" s="126"/>
-      <c r="Y27" s="126"/>
-      <c r="Z27" s="126"/>
-      <c r="AA27" s="126"/>
-      <c r="AB27" s="126"/>
-      <c r="AC27" s="126"/>
-      <c r="AD27" s="126"/>
-      <c r="AE27" s="126"/>
-      <c r="AF27" s="126"/>
-      <c r="AG27" s="126"/>
-      <c r="AH27" s="126"/>
-      <c r="AI27" s="126"/>
-      <c r="AJ27" s="126"/>
-      <c r="AK27" s="126"/>
-      <c r="AL27" s="126"/>
-      <c r="AM27" s="126"/>
-      <c r="AN27" s="126"/>
-      <c r="AO27" s="126"/>
-      <c r="AP27" s="126"/>
-      <c r="AQ27" s="126"/>
-      <c r="AR27" s="126"/>
-      <c r="AS27" s="126"/>
-      <c r="AT27" s="126"/>
-      <c r="AU27" s="126"/>
-      <c r="AV27" s="127"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="130"/>
+      <c r="N27" s="130"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="130"/>
+      <c r="R27" s="130"/>
+      <c r="S27" s="130"/>
+      <c r="T27" s="130"/>
+      <c r="U27" s="130"/>
+      <c r="V27" s="130"/>
+      <c r="W27" s="130"/>
+      <c r="X27" s="130"/>
+      <c r="Y27" s="130"/>
+      <c r="Z27" s="130"/>
+      <c r="AA27" s="130"/>
+      <c r="AB27" s="130"/>
+      <c r="AC27" s="130"/>
+      <c r="AD27" s="130"/>
+      <c r="AE27" s="130"/>
+      <c r="AF27" s="130"/>
+      <c r="AG27" s="130"/>
+      <c r="AH27" s="130"/>
+      <c r="AI27" s="130"/>
+      <c r="AJ27" s="130"/>
+      <c r="AK27" s="130"/>
+      <c r="AL27" s="130"/>
+      <c r="AM27" s="130"/>
+      <c r="AN27" s="130"/>
+      <c r="AO27" s="130"/>
+      <c r="AP27" s="130"/>
+      <c r="AQ27" s="130"/>
+      <c r="AR27" s="130"/>
+      <c r="AS27" s="130"/>
+      <c r="AT27" s="130"/>
+      <c r="AU27" s="130"/>
+      <c r="AV27" s="131"/>
       <c r="AW27" s="128"/>
     </row>
     <row r="28" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="137"/>
-      <c r="Q28" s="137"/>
-      <c r="R28" s="137"/>
+      <c r="B28" s="21">
+        <v>5</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="126"/>
       <c r="S28" s="126"/>
       <c r="T28" s="126"/>
       <c r="U28" s="126"/>
@@ -11939,75 +12299,69 @@
       <c r="AW28" s="128"/>
     </row>
     <row r="29" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="130"/>
-      <c r="M29" s="130"/>
-      <c r="N29" s="130"/>
-      <c r="O29" s="130"/>
-      <c r="P29" s="130"/>
-      <c r="Q29" s="130"/>
-      <c r="R29" s="130"/>
-      <c r="S29" s="130"/>
-      <c r="T29" s="130"/>
-      <c r="U29" s="130"/>
-      <c r="V29" s="130"/>
-      <c r="W29" s="130"/>
-      <c r="X29" s="130"/>
-      <c r="Y29" s="130"/>
-      <c r="Z29" s="130"/>
-      <c r="AA29" s="130"/>
-      <c r="AB29" s="130"/>
-      <c r="AC29" s="130"/>
-      <c r="AD29" s="130"/>
-      <c r="AE29" s="130"/>
-      <c r="AF29" s="130"/>
-      <c r="AG29" s="130"/>
-      <c r="AH29" s="130"/>
-      <c r="AI29" s="130"/>
-      <c r="AJ29" s="130"/>
-      <c r="AK29" s="130"/>
-      <c r="AL29" s="130"/>
-      <c r="AM29" s="130"/>
-      <c r="AN29" s="130"/>
-      <c r="AO29" s="130"/>
-      <c r="AP29" s="130"/>
-      <c r="AQ29" s="130"/>
-      <c r="AR29" s="130"/>
-      <c r="AS29" s="130"/>
-      <c r="AT29" s="130"/>
-      <c r="AU29" s="130"/>
-      <c r="AV29" s="131"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="126"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="126"/>
+      <c r="S29" s="126"/>
+      <c r="T29" s="126"/>
+      <c r="U29" s="126"/>
+      <c r="V29" s="126"/>
+      <c r="W29" s="126"/>
+      <c r="X29" s="126"/>
+      <c r="Y29" s="126"/>
+      <c r="Z29" s="126"/>
+      <c r="AA29" s="126"/>
+      <c r="AB29" s="126"/>
+      <c r="AC29" s="126"/>
+      <c r="AD29" s="126"/>
+      <c r="AE29" s="126"/>
+      <c r="AF29" s="126"/>
+      <c r="AG29" s="126"/>
+      <c r="AH29" s="126"/>
+      <c r="AI29" s="126"/>
+      <c r="AJ29" s="126"/>
+      <c r="AK29" s="126"/>
+      <c r="AL29" s="126"/>
+      <c r="AM29" s="126"/>
+      <c r="AN29" s="126"/>
+      <c r="AO29" s="126"/>
+      <c r="AP29" s="126"/>
+      <c r="AQ29" s="126"/>
+      <c r="AR29" s="126"/>
+      <c r="AS29" s="126"/>
+      <c r="AT29" s="126"/>
+      <c r="AU29" s="126"/>
+      <c r="AV29" s="127"/>
       <c r="AW29" s="128"/>
     </row>
     <row r="30" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B30" s="21">
-        <v>4</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>260</v>
-      </c>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
       <c r="D30" s="126"/>
       <c r="E30" s="126"/>
       <c r="F30" s="127"/>
-      <c r="G30" s="21" t="s">
-        <v>260</v>
-      </c>
+      <c r="G30" s="125"/>
       <c r="H30" s="126"/>
       <c r="I30" s="126"/>
       <c r="J30" s="126"/>
       <c r="K30" s="127"/>
-      <c r="L30" s="22" t="s">
-        <v>269</v>
-      </c>
+      <c r="L30" s="126"/>
       <c r="M30" s="126"/>
       <c r="N30" s="126"/>
       <c r="O30" s="126"/>
@@ -12047,586 +12401,594 @@
       <c r="AW30" s="128"/>
     </row>
     <row r="31" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="126"/>
-      <c r="N31" s="126"/>
-      <c r="O31" s="126"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="126"/>
-      <c r="T31" s="126"/>
-      <c r="U31" s="126"/>
-      <c r="V31" s="126"/>
-      <c r="W31" s="126"/>
-      <c r="X31" s="126"/>
-      <c r="Y31" s="126"/>
-      <c r="Z31" s="126"/>
-      <c r="AA31" s="126"/>
-      <c r="AB31" s="126"/>
-      <c r="AC31" s="126"/>
-      <c r="AD31" s="126"/>
-      <c r="AE31" s="126"/>
-      <c r="AF31" s="126"/>
-      <c r="AG31" s="126"/>
-      <c r="AH31" s="126"/>
-      <c r="AI31" s="126"/>
-      <c r="AJ31" s="126"/>
-      <c r="AK31" s="126"/>
-      <c r="AL31" s="126"/>
-      <c r="AM31" s="126"/>
-      <c r="AN31" s="126"/>
-      <c r="AO31" s="126"/>
-      <c r="AP31" s="126"/>
-      <c r="AQ31" s="126"/>
-      <c r="AR31" s="126"/>
-      <c r="AS31" s="126"/>
-      <c r="AT31" s="126"/>
-      <c r="AU31" s="126"/>
-      <c r="AV31" s="127"/>
-      <c r="AW31" s="128"/>
+      <c r="B31" s="21">
+        <v>6</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="22"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="22"/>
+      <c r="AL31" s="22"/>
+      <c r="AM31" s="22"/>
+      <c r="AN31" s="22"/>
+      <c r="AO31" s="22"/>
+      <c r="AP31" s="22"/>
+      <c r="AQ31" s="22"/>
+      <c r="AR31" s="22"/>
+      <c r="AS31" s="22"/>
+      <c r="AT31" s="22"/>
+      <c r="AU31" s="22"/>
+      <c r="AV31" s="23"/>
     </row>
     <row r="32" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="129"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="130"/>
-      <c r="O32" s="130"/>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="130"/>
-      <c r="R32" s="130"/>
-      <c r="S32" s="130"/>
-      <c r="T32" s="130"/>
-      <c r="U32" s="130"/>
-      <c r="V32" s="130"/>
-      <c r="W32" s="130"/>
-      <c r="X32" s="130"/>
-      <c r="Y32" s="130"/>
-      <c r="Z32" s="130"/>
-      <c r="AA32" s="130"/>
-      <c r="AB32" s="130"/>
-      <c r="AC32" s="130"/>
-      <c r="AD32" s="130"/>
-      <c r="AE32" s="130"/>
-      <c r="AF32" s="130"/>
-      <c r="AG32" s="130"/>
-      <c r="AH32" s="130"/>
-      <c r="AI32" s="130"/>
-      <c r="AJ32" s="130"/>
-      <c r="AK32" s="130"/>
-      <c r="AL32" s="130"/>
-      <c r="AM32" s="130"/>
-      <c r="AN32" s="130"/>
-      <c r="AO32" s="130"/>
-      <c r="AP32" s="130"/>
-      <c r="AQ32" s="130"/>
-      <c r="AR32" s="130"/>
-      <c r="AS32" s="130"/>
-      <c r="AT32" s="130"/>
-      <c r="AU32" s="130"/>
-      <c r="AV32" s="131"/>
-      <c r="AW32" s="128"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="24"/>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="24"/>
+      <c r="AG32" s="24"/>
+      <c r="AH32" s="24"/>
+      <c r="AI32" s="24"/>
+      <c r="AJ32" s="24"/>
+      <c r="AK32" s="24"/>
+      <c r="AL32" s="24"/>
+      <c r="AM32" s="24"/>
+      <c r="AN32" s="24"/>
+      <c r="AO32" s="24"/>
+      <c r="AP32" s="24"/>
+      <c r="AQ32" s="24"/>
+      <c r="AR32" s="24"/>
+      <c r="AS32" s="24"/>
+      <c r="AT32" s="24"/>
+      <c r="AU32" s="24"/>
+      <c r="AV32" s="76"/>
     </row>
     <row r="33" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B33" s="21">
-        <v>5</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="127"/>
-      <c r="L33" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="M33" s="126"/>
-      <c r="N33" s="126"/>
-      <c r="O33" s="126"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="126"/>
-      <c r="S33" s="126"/>
-      <c r="T33" s="126"/>
-      <c r="U33" s="126"/>
-      <c r="V33" s="126"/>
-      <c r="W33" s="126"/>
-      <c r="X33" s="126"/>
-      <c r="Y33" s="126"/>
-      <c r="Z33" s="126"/>
-      <c r="AA33" s="126"/>
-      <c r="AB33" s="126"/>
-      <c r="AC33" s="126"/>
-      <c r="AD33" s="126"/>
-      <c r="AE33" s="126"/>
-      <c r="AF33" s="126"/>
-      <c r="AG33" s="126"/>
-      <c r="AH33" s="126"/>
-      <c r="AI33" s="126"/>
-      <c r="AJ33" s="126"/>
-      <c r="AK33" s="126"/>
-      <c r="AL33" s="126"/>
-      <c r="AM33" s="126"/>
-      <c r="AN33" s="126"/>
-      <c r="AO33" s="126"/>
-      <c r="AP33" s="126"/>
-      <c r="AQ33" s="126"/>
-      <c r="AR33" s="126"/>
-      <c r="AS33" s="126"/>
-      <c r="AT33" s="126"/>
-      <c r="AU33" s="126"/>
-      <c r="AV33" s="127"/>
-      <c r="AW33" s="128"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
+      <c r="AM33" s="26"/>
+      <c r="AN33" s="26"/>
+      <c r="AO33" s="26"/>
+      <c r="AP33" s="26"/>
+      <c r="AQ33" s="26"/>
+      <c r="AR33" s="26"/>
+      <c r="AS33" s="26"/>
+      <c r="AT33" s="26"/>
+      <c r="AU33" s="26"/>
+      <c r="AV33" s="27"/>
     </row>
     <row r="34" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B34" s="125"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="75" t="s">
-        <v>267</v>
-      </c>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="126"/>
-      <c r="K34" s="127"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="126"/>
-      <c r="N34" s="126"/>
-      <c r="O34" s="126"/>
-      <c r="P34" s="126"/>
-      <c r="Q34" s="126"/>
-      <c r="R34" s="126"/>
-      <c r="S34" s="126"/>
-      <c r="T34" s="126"/>
-      <c r="U34" s="126"/>
-      <c r="V34" s="126"/>
-      <c r="W34" s="126"/>
-      <c r="X34" s="126"/>
-      <c r="Y34" s="126"/>
-      <c r="Z34" s="126"/>
-      <c r="AA34" s="126"/>
-      <c r="AB34" s="126"/>
-      <c r="AC34" s="126"/>
-      <c r="AD34" s="126"/>
-      <c r="AE34" s="126"/>
-      <c r="AF34" s="126"/>
-      <c r="AG34" s="126"/>
-      <c r="AH34" s="126"/>
-      <c r="AI34" s="126"/>
-      <c r="AJ34" s="126"/>
-      <c r="AK34" s="126"/>
-      <c r="AL34" s="126"/>
-      <c r="AM34" s="126"/>
-      <c r="AN34" s="126"/>
-      <c r="AO34" s="126"/>
-      <c r="AP34" s="126"/>
-      <c r="AQ34" s="126"/>
-      <c r="AR34" s="126"/>
-      <c r="AS34" s="126"/>
-      <c r="AT34" s="126"/>
-      <c r="AU34" s="126"/>
-      <c r="AV34" s="127"/>
-      <c r="AW34" s="128"/>
+      <c r="B34" s="21">
+        <v>7</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="22"/>
+      <c r="AH34" s="22"/>
+      <c r="AI34" s="22"/>
+      <c r="AJ34" s="22"/>
+      <c r="AK34" s="22"/>
+      <c r="AL34" s="22"/>
+      <c r="AM34" s="22"/>
+      <c r="AN34" s="22"/>
+      <c r="AO34" s="22"/>
+      <c r="AP34" s="22"/>
+      <c r="AQ34" s="22"/>
+      <c r="AR34" s="22"/>
+      <c r="AS34" s="22"/>
+      <c r="AT34" s="22"/>
+      <c r="AU34" s="22"/>
+      <c r="AV34" s="23"/>
     </row>
     <row r="35" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B35" s="125"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="127"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-      <c r="O35" s="126"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="126"/>
-      <c r="S35" s="126"/>
-      <c r="T35" s="126"/>
-      <c r="U35" s="126"/>
-      <c r="V35" s="126"/>
-      <c r="W35" s="126"/>
-      <c r="X35" s="126"/>
-      <c r="Y35" s="126"/>
-      <c r="Z35" s="126"/>
-      <c r="AA35" s="126"/>
-      <c r="AB35" s="126"/>
-      <c r="AC35" s="126"/>
-      <c r="AD35" s="126"/>
-      <c r="AE35" s="126"/>
-      <c r="AF35" s="126"/>
-      <c r="AG35" s="126"/>
-      <c r="AH35" s="126"/>
-      <c r="AI35" s="126"/>
-      <c r="AJ35" s="126"/>
-      <c r="AK35" s="126"/>
-      <c r="AL35" s="126"/>
-      <c r="AM35" s="126"/>
-      <c r="AN35" s="126"/>
-      <c r="AO35" s="126"/>
-      <c r="AP35" s="126"/>
-      <c r="AQ35" s="126"/>
-      <c r="AR35" s="126"/>
-      <c r="AS35" s="126"/>
-      <c r="AT35" s="126"/>
-      <c r="AU35" s="126"/>
-      <c r="AV35" s="127"/>
-      <c r="AW35" s="128"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="24"/>
+      <c r="AB35" s="24"/>
+      <c r="AC35" s="24"/>
+      <c r="AD35" s="24"/>
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="24"/>
+      <c r="AG35" s="24"/>
+      <c r="AH35" s="24"/>
+      <c r="AI35" s="24"/>
+      <c r="AJ35" s="24"/>
+      <c r="AK35" s="24"/>
+      <c r="AL35" s="24"/>
+      <c r="AM35" s="24"/>
+      <c r="AN35" s="24"/>
+      <c r="AO35" s="24"/>
+      <c r="AP35" s="24"/>
+      <c r="AQ35" s="24"/>
+      <c r="AR35" s="24"/>
+      <c r="AS35" s="24"/>
+      <c r="AT35" s="24"/>
+      <c r="AU35" s="24"/>
+      <c r="AV35" s="76"/>
     </row>
     <row r="36" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B36" s="21">
-        <v>6</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="22"/>
-      <c r="AF36" s="22"/>
-      <c r="AG36" s="22"/>
-      <c r="AH36" s="22"/>
-      <c r="AI36" s="22"/>
-      <c r="AJ36" s="22"/>
-      <c r="AK36" s="22"/>
-      <c r="AL36" s="22"/>
-      <c r="AM36" s="22"/>
-      <c r="AN36" s="22"/>
-      <c r="AO36" s="22"/>
-      <c r="AP36" s="22"/>
-      <c r="AQ36" s="22"/>
-      <c r="AR36" s="22"/>
-      <c r="AS36" s="22"/>
-      <c r="AT36" s="22"/>
-      <c r="AU36" s="22"/>
-      <c r="AV36" s="23"/>
-    </row>
-    <row r="37" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="24"/>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="24"/>
-      <c r="AL37" s="24"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="24"/>
-      <c r="AQ37" s="24"/>
-      <c r="AR37" s="24"/>
-      <c r="AS37" s="24"/>
-      <c r="AT37" s="24"/>
-      <c r="AU37" s="24"/>
-      <c r="AV37" s="76"/>
-    </row>
-    <row r="38" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="26"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="26"/>
-      <c r="AD38" s="26"/>
-      <c r="AE38" s="26"/>
-      <c r="AF38" s="26"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="26"/>
-      <c r="AI38" s="26"/>
-      <c r="AJ38" s="26"/>
-      <c r="AK38" s="26"/>
-      <c r="AL38" s="26"/>
-      <c r="AM38" s="26"/>
-      <c r="AN38" s="26"/>
-      <c r="AO38" s="26"/>
-      <c r="AP38" s="26"/>
-      <c r="AQ38" s="26"/>
-      <c r="AR38" s="26"/>
-      <c r="AS38" s="26"/>
-      <c r="AT38" s="26"/>
-      <c r="AU38" s="26"/>
-      <c r="AV38" s="27"/>
-    </row>
-    <row r="39" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B39" s="21">
-        <v>7</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="22"/>
-      <c r="AB39" s="22"/>
-      <c r="AC39" s="22"/>
-      <c r="AD39" s="22"/>
-      <c r="AE39" s="22"/>
-      <c r="AF39" s="22"/>
-      <c r="AG39" s="22"/>
-      <c r="AH39" s="22"/>
-      <c r="AI39" s="22"/>
-      <c r="AJ39" s="22"/>
-      <c r="AK39" s="22"/>
-      <c r="AL39" s="22"/>
-      <c r="AM39" s="22"/>
-      <c r="AN39" s="22"/>
-      <c r="AO39" s="22"/>
-      <c r="AP39" s="22"/>
-      <c r="AQ39" s="22"/>
-      <c r="AR39" s="22"/>
-      <c r="AS39" s="22"/>
-      <c r="AT39" s="22"/>
-      <c r="AU39" s="22"/>
-      <c r="AV39" s="23"/>
-    </row>
-    <row r="40" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="24"/>
-      <c r="AE40" s="24"/>
-      <c r="AF40" s="24"/>
-      <c r="AG40" s="24"/>
-      <c r="AH40" s="24"/>
-      <c r="AI40" s="24"/>
-      <c r="AJ40" s="24"/>
-      <c r="AK40" s="24"/>
-      <c r="AL40" s="24"/>
-      <c r="AM40" s="24"/>
-      <c r="AN40" s="24"/>
-      <c r="AO40" s="24"/>
-      <c r="AP40" s="24"/>
-      <c r="AQ40" s="24"/>
-      <c r="AR40" s="24"/>
-      <c r="AS40" s="24"/>
-      <c r="AT40" s="24"/>
-      <c r="AU40" s="24"/>
-      <c r="AV40" s="76"/>
-    </row>
-    <row r="41" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="26"/>
-      <c r="AE41" s="26"/>
-      <c r="AF41" s="26"/>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="26"/>
-      <c r="AJ41" s="26"/>
-      <c r="AK41" s="26"/>
-      <c r="AL41" s="26"/>
-      <c r="AM41" s="26"/>
-      <c r="AN41" s="26"/>
-      <c r="AO41" s="26"/>
-      <c r="AP41" s="26"/>
-      <c r="AQ41" s="26"/>
-      <c r="AR41" s="26"/>
-      <c r="AS41" s="26"/>
-      <c r="AT41" s="26"/>
-      <c r="AU41" s="26"/>
-      <c r="AV41" s="27"/>
-    </row>
-    <row r="42" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="26"/>
+      <c r="AM36" s="26"/>
+      <c r="AN36" s="26"/>
+      <c r="AO36" s="26"/>
+      <c r="AP36" s="26"/>
+      <c r="AQ36" s="26"/>
+      <c r="AR36" s="26"/>
+      <c r="AS36" s="26"/>
+      <c r="AT36" s="26"/>
+      <c r="AU36" s="26"/>
+      <c r="AV36" s="27"/>
+    </row>
+    <row r="37" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
+      <c r="AA40" s="56"/>
+      <c r="AB40" s="56"/>
+      <c r="AC40" s="56"/>
+      <c r="AD40" s="56"/>
+      <c r="AE40" s="56"/>
+      <c r="AF40" s="56"/>
+      <c r="AG40" s="56"/>
+      <c r="AH40" s="56"/>
+      <c r="AI40" s="56"/>
+      <c r="AJ40" s="56"/>
+      <c r="AK40" s="56"/>
+      <c r="AL40" s="56"/>
+      <c r="AM40" s="56"/>
+      <c r="AN40" s="56"/>
+      <c r="AO40" s="56"/>
+      <c r="AP40" s="56"/>
+      <c r="AQ40" s="56"/>
+      <c r="AR40" s="56"/>
+      <c r="AS40" s="56"/>
+      <c r="AT40" s="56"/>
+      <c r="AU40" s="56"/>
+      <c r="AV40" s="56"/>
+      <c r="AW40" s="56"/>
+      <c r="AX40" s="56"/>
+      <c r="AY40" s="56"/>
+      <c r="AZ40" s="56"/>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="56"/>
+      <c r="X41" s="56"/>
+      <c r="Y41" s="56"/>
+      <c r="Z41" s="56"/>
+      <c r="AA41" s="56"/>
+      <c r="AB41" s="56"/>
+      <c r="AC41" s="56"/>
+      <c r="AD41" s="56"/>
+      <c r="AE41" s="56"/>
+      <c r="AF41" s="56"/>
+      <c r="AG41" s="56"/>
+      <c r="AH41" s="56"/>
+      <c r="AI41" s="56"/>
+      <c r="AJ41" s="56"/>
+      <c r="AK41" s="56"/>
+      <c r="AL41" s="56"/>
+      <c r="AM41" s="56"/>
+      <c r="AN41" s="56"/>
+      <c r="AO41" s="56"/>
+      <c r="AP41" s="56"/>
+      <c r="AQ41" s="56"/>
+      <c r="AR41" s="56"/>
+      <c r="AS41" s="56"/>
+      <c r="AT41" s="56"/>
+      <c r="AU41" s="56"/>
+      <c r="AV41" s="56"/>
+      <c r="AW41" s="56"/>
+      <c r="AX41" s="56"/>
+      <c r="AY41" s="56"/>
+      <c r="AZ41" s="56"/>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A42" s="56"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="56"/>
+      <c r="T42" s="56"/>
+      <c r="U42" s="56"/>
+      <c r="V42" s="56"/>
+      <c r="W42" s="56"/>
+      <c r="X42" s="56"/>
+      <c r="Y42" s="56"/>
+      <c r="Z42" s="56"/>
+      <c r="AA42" s="56"/>
+      <c r="AB42" s="56"/>
+      <c r="AC42" s="56"/>
+      <c r="AD42" s="56"/>
+      <c r="AE42" s="56"/>
+      <c r="AF42" s="56"/>
+      <c r="AG42" s="56"/>
+      <c r="AH42" s="56"/>
+      <c r="AI42" s="56"/>
+      <c r="AJ42" s="56"/>
+      <c r="AK42" s="56"/>
+      <c r="AL42" s="56"/>
+      <c r="AM42" s="56"/>
+      <c r="AN42" s="56"/>
+      <c r="AO42" s="56"/>
+      <c r="AP42" s="56"/>
+      <c r="AQ42" s="56"/>
+      <c r="AR42" s="56"/>
+      <c r="AS42" s="56"/>
+      <c r="AT42" s="56"/>
+      <c r="AU42" s="56"/>
+      <c r="AV42" s="56"/>
+      <c r="AW42" s="56"/>
+      <c r="AX42" s="56"/>
+      <c r="AY42" s="56"/>
+      <c r="AZ42" s="56"/>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="56"/>
+      <c r="X43" s="56"/>
+      <c r="Y43" s="56"/>
+      <c r="Z43" s="56"/>
+      <c r="AA43" s="56"/>
+      <c r="AB43" s="56"/>
+      <c r="AC43" s="56"/>
+      <c r="AD43" s="56"/>
+      <c r="AE43" s="56"/>
+      <c r="AF43" s="56"/>
+      <c r="AG43" s="56"/>
+      <c r="AH43" s="56"/>
+      <c r="AI43" s="56"/>
+      <c r="AJ43" s="56"/>
+      <c r="AK43" s="56"/>
+      <c r="AL43" s="56"/>
+      <c r="AM43" s="56"/>
+      <c r="AN43" s="56"/>
+      <c r="AO43" s="56"/>
+      <c r="AP43" s="56"/>
+      <c r="AQ43" s="56"/>
+      <c r="AR43" s="56"/>
+      <c r="AS43" s="56"/>
+      <c r="AT43" s="56"/>
+      <c r="AU43" s="56"/>
+      <c r="AV43" s="56"/>
+      <c r="AW43" s="56"/>
+      <c r="AX43" s="56"/>
+      <c r="AY43" s="56"/>
+      <c r="AZ43" s="56"/>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="56"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="56"/>
+      <c r="Z44" s="56"/>
+      <c r="AA44" s="56"/>
+      <c r="AB44" s="56"/>
+      <c r="AC44" s="56"/>
+      <c r="AD44" s="56"/>
+      <c r="AE44" s="56"/>
+      <c r="AF44" s="56"/>
+      <c r="AG44" s="56"/>
+      <c r="AH44" s="56"/>
+      <c r="AI44" s="56"/>
+      <c r="AJ44" s="56"/>
+      <c r="AK44" s="56"/>
+      <c r="AL44" s="56"/>
+      <c r="AM44" s="56"/>
+      <c r="AN44" s="56"/>
+      <c r="AO44" s="56"/>
+      <c r="AP44" s="56"/>
+      <c r="AQ44" s="56"/>
+      <c r="AR44" s="56"/>
+      <c r="AS44" s="56"/>
+      <c r="AT44" s="56"/>
+      <c r="AU44" s="56"/>
+      <c r="AV44" s="56"/>
+      <c r="AW44" s="56"/>
+      <c r="AX44" s="56"/>
+      <c r="AY44" s="56"/>
+      <c r="AZ44" s="56"/>
+    </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A45" s="56"/>
       <c r="B45" s="56"/>
@@ -19539,276 +19901,6 @@
       <c r="AY172" s="56"/>
       <c r="AZ172" s="56"/>
     </row>
-    <row r="173" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A173" s="56"/>
-      <c r="B173" s="56"/>
-      <c r="C173" s="56"/>
-      <c r="D173" s="56"/>
-      <c r="E173" s="56"/>
-      <c r="F173" s="56"/>
-      <c r="G173" s="56"/>
-      <c r="H173" s="56"/>
-      <c r="I173" s="56"/>
-      <c r="J173" s="56"/>
-      <c r="K173" s="56"/>
-      <c r="L173" s="56"/>
-      <c r="M173" s="56"/>
-      <c r="N173" s="56"/>
-      <c r="O173" s="56"/>
-      <c r="P173" s="56"/>
-      <c r="Q173" s="56"/>
-      <c r="R173" s="56"/>
-      <c r="S173" s="56"/>
-      <c r="T173" s="56"/>
-      <c r="U173" s="56"/>
-      <c r="V173" s="56"/>
-      <c r="W173" s="56"/>
-      <c r="X173" s="56"/>
-      <c r="Y173" s="56"/>
-      <c r="Z173" s="56"/>
-      <c r="AA173" s="56"/>
-      <c r="AB173" s="56"/>
-      <c r="AC173" s="56"/>
-      <c r="AD173" s="56"/>
-      <c r="AE173" s="56"/>
-      <c r="AF173" s="56"/>
-      <c r="AG173" s="56"/>
-      <c r="AH173" s="56"/>
-      <c r="AI173" s="56"/>
-      <c r="AJ173" s="56"/>
-      <c r="AK173" s="56"/>
-      <c r="AL173" s="56"/>
-      <c r="AM173" s="56"/>
-      <c r="AN173" s="56"/>
-      <c r="AO173" s="56"/>
-      <c r="AP173" s="56"/>
-      <c r="AQ173" s="56"/>
-      <c r="AR173" s="56"/>
-      <c r="AS173" s="56"/>
-      <c r="AT173" s="56"/>
-      <c r="AU173" s="56"/>
-      <c r="AV173" s="56"/>
-      <c r="AW173" s="56"/>
-      <c r="AX173" s="56"/>
-      <c r="AY173" s="56"/>
-      <c r="AZ173" s="56"/>
-    </row>
-    <row r="174" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A174" s="56"/>
-      <c r="B174" s="56"/>
-      <c r="C174" s="56"/>
-      <c r="D174" s="56"/>
-      <c r="E174" s="56"/>
-      <c r="F174" s="56"/>
-      <c r="G174" s="56"/>
-      <c r="H174" s="56"/>
-      <c r="I174" s="56"/>
-      <c r="J174" s="56"/>
-      <c r="K174" s="56"/>
-      <c r="L174" s="56"/>
-      <c r="M174" s="56"/>
-      <c r="N174" s="56"/>
-      <c r="O174" s="56"/>
-      <c r="P174" s="56"/>
-      <c r="Q174" s="56"/>
-      <c r="R174" s="56"/>
-      <c r="S174" s="56"/>
-      <c r="T174" s="56"/>
-      <c r="U174" s="56"/>
-      <c r="V174" s="56"/>
-      <c r="W174" s="56"/>
-      <c r="X174" s="56"/>
-      <c r="Y174" s="56"/>
-      <c r="Z174" s="56"/>
-      <c r="AA174" s="56"/>
-      <c r="AB174" s="56"/>
-      <c r="AC174" s="56"/>
-      <c r="AD174" s="56"/>
-      <c r="AE174" s="56"/>
-      <c r="AF174" s="56"/>
-      <c r="AG174" s="56"/>
-      <c r="AH174" s="56"/>
-      <c r="AI174" s="56"/>
-      <c r="AJ174" s="56"/>
-      <c r="AK174" s="56"/>
-      <c r="AL174" s="56"/>
-      <c r="AM174" s="56"/>
-      <c r="AN174" s="56"/>
-      <c r="AO174" s="56"/>
-      <c r="AP174" s="56"/>
-      <c r="AQ174" s="56"/>
-      <c r="AR174" s="56"/>
-      <c r="AS174" s="56"/>
-      <c r="AT174" s="56"/>
-      <c r="AU174" s="56"/>
-      <c r="AV174" s="56"/>
-      <c r="AW174" s="56"/>
-      <c r="AX174" s="56"/>
-      <c r="AY174" s="56"/>
-      <c r="AZ174" s="56"/>
-    </row>
-    <row r="175" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A175" s="56"/>
-      <c r="B175" s="56"/>
-      <c r="C175" s="56"/>
-      <c r="D175" s="56"/>
-      <c r="E175" s="56"/>
-      <c r="F175" s="56"/>
-      <c r="G175" s="56"/>
-      <c r="H175" s="56"/>
-      <c r="I175" s="56"/>
-      <c r="J175" s="56"/>
-      <c r="K175" s="56"/>
-      <c r="L175" s="56"/>
-      <c r="M175" s="56"/>
-      <c r="N175" s="56"/>
-      <c r="O175" s="56"/>
-      <c r="P175" s="56"/>
-      <c r="Q175" s="56"/>
-      <c r="R175" s="56"/>
-      <c r="S175" s="56"/>
-      <c r="T175" s="56"/>
-      <c r="U175" s="56"/>
-      <c r="V175" s="56"/>
-      <c r="W175" s="56"/>
-      <c r="X175" s="56"/>
-      <c r="Y175" s="56"/>
-      <c r="Z175" s="56"/>
-      <c r="AA175" s="56"/>
-      <c r="AB175" s="56"/>
-      <c r="AC175" s="56"/>
-      <c r="AD175" s="56"/>
-      <c r="AE175" s="56"/>
-      <c r="AF175" s="56"/>
-      <c r="AG175" s="56"/>
-      <c r="AH175" s="56"/>
-      <c r="AI175" s="56"/>
-      <c r="AJ175" s="56"/>
-      <c r="AK175" s="56"/>
-      <c r="AL175" s="56"/>
-      <c r="AM175" s="56"/>
-      <c r="AN175" s="56"/>
-      <c r="AO175" s="56"/>
-      <c r="AP175" s="56"/>
-      <c r="AQ175" s="56"/>
-      <c r="AR175" s="56"/>
-      <c r="AS175" s="56"/>
-      <c r="AT175" s="56"/>
-      <c r="AU175" s="56"/>
-      <c r="AV175" s="56"/>
-      <c r="AW175" s="56"/>
-      <c r="AX175" s="56"/>
-      <c r="AY175" s="56"/>
-      <c r="AZ175" s="56"/>
-    </row>
-    <row r="176" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A176" s="56"/>
-      <c r="B176" s="56"/>
-      <c r="C176" s="56"/>
-      <c r="D176" s="56"/>
-      <c r="E176" s="56"/>
-      <c r="F176" s="56"/>
-      <c r="G176" s="56"/>
-      <c r="H176" s="56"/>
-      <c r="I176" s="56"/>
-      <c r="J176" s="56"/>
-      <c r="K176" s="56"/>
-      <c r="L176" s="56"/>
-      <c r="M176" s="56"/>
-      <c r="N176" s="56"/>
-      <c r="O176" s="56"/>
-      <c r="P176" s="56"/>
-      <c r="Q176" s="56"/>
-      <c r="R176" s="56"/>
-      <c r="S176" s="56"/>
-      <c r="T176" s="56"/>
-      <c r="U176" s="56"/>
-      <c r="V176" s="56"/>
-      <c r="W176" s="56"/>
-      <c r="X176" s="56"/>
-      <c r="Y176" s="56"/>
-      <c r="Z176" s="56"/>
-      <c r="AA176" s="56"/>
-      <c r="AB176" s="56"/>
-      <c r="AC176" s="56"/>
-      <c r="AD176" s="56"/>
-      <c r="AE176" s="56"/>
-      <c r="AF176" s="56"/>
-      <c r="AG176" s="56"/>
-      <c r="AH176" s="56"/>
-      <c r="AI176" s="56"/>
-      <c r="AJ176" s="56"/>
-      <c r="AK176" s="56"/>
-      <c r="AL176" s="56"/>
-      <c r="AM176" s="56"/>
-      <c r="AN176" s="56"/>
-      <c r="AO176" s="56"/>
-      <c r="AP176" s="56"/>
-      <c r="AQ176" s="56"/>
-      <c r="AR176" s="56"/>
-      <c r="AS176" s="56"/>
-      <c r="AT176" s="56"/>
-      <c r="AU176" s="56"/>
-      <c r="AV176" s="56"/>
-      <c r="AW176" s="56"/>
-      <c r="AX176" s="56"/>
-      <c r="AY176" s="56"/>
-      <c r="AZ176" s="56"/>
-    </row>
-    <row r="177" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A177" s="56"/>
-      <c r="B177" s="56"/>
-      <c r="C177" s="56"/>
-      <c r="D177" s="56"/>
-      <c r="E177" s="56"/>
-      <c r="F177" s="56"/>
-      <c r="G177" s="56"/>
-      <c r="H177" s="56"/>
-      <c r="I177" s="56"/>
-      <c r="J177" s="56"/>
-      <c r="K177" s="56"/>
-      <c r="L177" s="56"/>
-      <c r="M177" s="56"/>
-      <c r="N177" s="56"/>
-      <c r="O177" s="56"/>
-      <c r="P177" s="56"/>
-      <c r="Q177" s="56"/>
-      <c r="R177" s="56"/>
-      <c r="S177" s="56"/>
-      <c r="T177" s="56"/>
-      <c r="U177" s="56"/>
-      <c r="V177" s="56"/>
-      <c r="W177" s="56"/>
-      <c r="X177" s="56"/>
-      <c r="Y177" s="56"/>
-      <c r="Z177" s="56"/>
-      <c r="AA177" s="56"/>
-      <c r="AB177" s="56"/>
-      <c r="AC177" s="56"/>
-      <c r="AD177" s="56"/>
-      <c r="AE177" s="56"/>
-      <c r="AF177" s="56"/>
-      <c r="AG177" s="56"/>
-      <c r="AH177" s="56"/>
-      <c r="AI177" s="56"/>
-      <c r="AJ177" s="56"/>
-      <c r="AK177" s="56"/>
-      <c r="AL177" s="56"/>
-      <c r="AM177" s="56"/>
-      <c r="AN177" s="56"/>
-      <c r="AO177" s="56"/>
-      <c r="AP177" s="56"/>
-      <c r="AQ177" s="56"/>
-      <c r="AR177" s="56"/>
-      <c r="AS177" s="56"/>
-      <c r="AT177" s="56"/>
-      <c r="AU177" s="56"/>
-      <c r="AV177" s="56"/>
-      <c r="AW177" s="56"/>
-      <c r="AX177" s="56"/>
-      <c r="AY177" s="56"/>
-      <c r="AZ177" s="56"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="AI1:AM1"/>
@@ -20211,7 +20303,7 @@
       <c r="AW6" s="20"/>
     </row>
     <row r="7" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="217">
+      <c r="B7" s="211">
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -20265,7 +20357,7 @@
       <c r="AW7" s="23"/>
     </row>
     <row r="8" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="218"/>
+      <c r="B8" s="212"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -20315,7 +20407,7 @@
       <c r="AW8" s="27"/>
     </row>
     <row r="9" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="217">
+      <c r="B9" s="211">
         <v>2</v>
       </c>
       <c r="C9" s="79" t="s">
@@ -20373,7 +20465,7 @@
       <c r="AW9" s="23"/>
     </row>
     <row r="10" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="218"/>
+      <c r="B10" s="212"/>
       <c r="C10" s="82"/>
       <c r="D10" s="83"/>
       <c r="E10" s="83"/>
@@ -20423,11 +20515,11 @@
       <c r="AW10" s="27"/>
     </row>
     <row r="11" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B11" s="217">
+      <c r="B11" s="211">
         <v>3</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -20462,7 +20554,7 @@
       <c r="AB11" s="22"/>
       <c r="AC11" s="22"/>
       <c r="AD11" s="140" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="AE11" s="141"/>
       <c r="AF11" s="141"/>
@@ -20485,7 +20577,7 @@
       <c r="AW11" s="23"/>
     </row>
     <row r="12" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B12" s="218"/>
+      <c r="B12" s="212"/>
       <c r="C12" s="75"/>
       <c r="I12" s="76"/>
       <c r="J12" s="75"/>
@@ -20530,7 +20622,7 @@
       <c r="AW12" s="27"/>
     </row>
     <row r="13" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="217">
+      <c r="B13" s="211">
         <v>4</v>
       </c>
       <c r="C13" s="75"/>
@@ -20554,20 +20646,20 @@
       </c>
       <c r="R13" s="22"/>
       <c r="S13" s="23"/>
-      <c r="T13" s="211" t="s">
+      <c r="T13" s="213" t="s">
         <v>132</v>
       </c>
-      <c r="U13" s="212"/>
-      <c r="V13" s="212"/>
-      <c r="W13" s="212"/>
-      <c r="X13" s="212"/>
-      <c r="Y13" s="212"/>
-      <c r="Z13" s="212"/>
-      <c r="AA13" s="212"/>
-      <c r="AB13" s="212"/>
-      <c r="AC13" s="213"/>
+      <c r="U13" s="214"/>
+      <c r="V13" s="214"/>
+      <c r="W13" s="214"/>
+      <c r="X13" s="214"/>
+      <c r="Y13" s="214"/>
+      <c r="Z13" s="214"/>
+      <c r="AA13" s="214"/>
+      <c r="AB13" s="214"/>
+      <c r="AC13" s="215"/>
       <c r="AD13" s="140" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="AE13" s="141"/>
       <c r="AF13" s="141"/>
@@ -20590,7 +20682,7 @@
       <c r="AW13" s="23"/>
     </row>
     <row r="14" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="218"/>
+      <c r="B14" s="212"/>
       <c r="C14" s="75"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -20608,16 +20700,16 @@
       <c r="Q14" s="25"/>
       <c r="R14" s="26"/>
       <c r="S14" s="27"/>
-      <c r="T14" s="214"/>
-      <c r="U14" s="215"/>
-      <c r="V14" s="215"/>
-      <c r="W14" s="215"/>
-      <c r="X14" s="215"/>
-      <c r="Y14" s="215"/>
-      <c r="Z14" s="215"/>
-      <c r="AA14" s="215"/>
-      <c r="AB14" s="215"/>
-      <c r="AC14" s="216"/>
+      <c r="T14" s="216"/>
+      <c r="U14" s="217"/>
+      <c r="V14" s="217"/>
+      <c r="W14" s="217"/>
+      <c r="X14" s="217"/>
+      <c r="Y14" s="217"/>
+      <c r="Z14" s="217"/>
+      <c r="AA14" s="217"/>
+      <c r="AB14" s="217"/>
+      <c r="AC14" s="218"/>
       <c r="AD14" s="142"/>
       <c r="AE14" s="143"/>
       <c r="AF14" s="143"/>
@@ -20640,7 +20732,7 @@
       <c r="AW14" s="27"/>
     </row>
     <row r="15" spans="1:52" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="217">
+      <c r="B15" s="211">
         <v>5</v>
       </c>
       <c r="C15" s="75"/>
@@ -20668,7 +20760,7 @@
       <c r="AB15" s="132"/>
       <c r="AC15" s="133"/>
       <c r="AD15" s="140" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="AE15" s="141"/>
       <c r="AF15" s="141"/>
@@ -20691,7 +20783,7 @@
       <c r="AW15" s="23"/>
     </row>
     <row r="16" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B16" s="218"/>
+      <c r="B16" s="212"/>
       <c r="C16" s="75"/>
       <c r="I16" s="76"/>
       <c r="J16" s="25"/>
@@ -20736,7 +20828,7 @@
       <c r="AW16" s="27"/>
     </row>
     <row r="17" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B17" s="217">
+      <c r="B17" s="211">
         <v>6</v>
       </c>
       <c r="C17" s="75"/>
@@ -20760,20 +20852,20 @@
       </c>
       <c r="R17" s="22"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="211" t="s">
-        <v>275</v>
-      </c>
-      <c r="U17" s="212"/>
-      <c r="V17" s="212"/>
-      <c r="W17" s="212"/>
-      <c r="X17" s="212"/>
-      <c r="Y17" s="212"/>
-      <c r="Z17" s="212"/>
-      <c r="AA17" s="212"/>
-      <c r="AB17" s="212"/>
-      <c r="AC17" s="213"/>
+      <c r="T17" s="213" t="s">
+        <v>254</v>
+      </c>
+      <c r="U17" s="214"/>
+      <c r="V17" s="214"/>
+      <c r="W17" s="214"/>
+      <c r="X17" s="214"/>
+      <c r="Y17" s="214"/>
+      <c r="Z17" s="214"/>
+      <c r="AA17" s="214"/>
+      <c r="AB17" s="214"/>
+      <c r="AC17" s="215"/>
       <c r="AD17" s="140" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="AE17" s="141"/>
       <c r="AF17" s="141"/>
@@ -20796,7 +20888,7 @@
       <c r="AW17" s="23"/>
     </row>
     <row r="18" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B18" s="218"/>
+      <c r="B18" s="212"/>
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -20814,16 +20906,16 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="26"/>
       <c r="S18" s="27"/>
-      <c r="T18" s="214"/>
-      <c r="U18" s="215"/>
-      <c r="V18" s="215"/>
-      <c r="W18" s="215"/>
-      <c r="X18" s="215"/>
-      <c r="Y18" s="215"/>
-      <c r="Z18" s="215"/>
-      <c r="AA18" s="215"/>
-      <c r="AB18" s="215"/>
-      <c r="AC18" s="216"/>
+      <c r="T18" s="216"/>
+      <c r="U18" s="217"/>
+      <c r="V18" s="217"/>
+      <c r="W18" s="217"/>
+      <c r="X18" s="217"/>
+      <c r="Y18" s="217"/>
+      <c r="Z18" s="217"/>
+      <c r="AA18" s="217"/>
+      <c r="AB18" s="217"/>
+      <c r="AC18" s="218"/>
       <c r="AD18" s="142"/>
       <c r="AE18" s="143"/>
       <c r="AF18" s="143"/>
@@ -20846,11 +20938,11 @@
       <c r="AW18" s="27"/>
     </row>
     <row r="19" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B19" s="217">
+      <c r="B19" s="211">
         <v>7</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -20873,7 +20965,7 @@
       <c r="R19" s="22"/>
       <c r="S19" s="23"/>
       <c r="T19" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U19" s="22"/>
       <c r="V19" s="22"/>
@@ -20885,7 +20977,7 @@
       <c r="AB19" s="22"/>
       <c r="AC19" s="22"/>
       <c r="AD19" s="140" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="AE19" s="141"/>
       <c r="AF19" s="141"/>
@@ -20908,7 +21000,7 @@
       <c r="AW19" s="23"/>
     </row>
     <row r="20" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B20" s="218"/>
+      <c r="B20" s="212"/>
       <c r="C20" s="75"/>
       <c r="I20" s="76"/>
       <c r="J20" s="25"/>
@@ -20953,7 +21045,7 @@
       <c r="AW20" s="27"/>
     </row>
     <row r="21" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B21" s="217">
+      <c r="B21" s="211">
         <v>8</v>
       </c>
       <c r="C21" s="75"/>
@@ -21008,7 +21100,7 @@
       <c r="AW21" s="23"/>
     </row>
     <row r="22" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B22" s="218"/>
+      <c r="B22" s="212"/>
       <c r="C22" s="75"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -21058,7 +21150,7 @@
       <c r="AW22" s="27"/>
     </row>
     <row r="23" spans="2:49" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="217">
+      <c r="B23" s="211">
         <v>9</v>
       </c>
       <c r="C23" s="75"/>
@@ -21086,7 +21178,7 @@
       <c r="AB23" s="132"/>
       <c r="AC23" s="133"/>
       <c r="AD23" s="140" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="AE23" s="141"/>
       <c r="AF23" s="141"/>
@@ -21109,7 +21201,7 @@
       <c r="AW23" s="23"/>
     </row>
     <row r="24" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B24" s="218"/>
+      <c r="B24" s="212"/>
       <c r="C24" s="75"/>
       <c r="I24" s="76"/>
       <c r="J24" s="25"/>
@@ -21154,7 +21246,7 @@
       <c r="AW24" s="27"/>
     </row>
     <row r="25" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B25" s="217">
+      <c r="B25" s="211">
         <v>10</v>
       </c>
       <c r="C25" s="75"/>
@@ -21173,20 +21265,20 @@
       </c>
       <c r="R25" s="22"/>
       <c r="S25" s="23"/>
-      <c r="T25" s="211" t="s">
-        <v>280</v>
-      </c>
-      <c r="U25" s="212"/>
-      <c r="V25" s="212"/>
-      <c r="W25" s="212"/>
-      <c r="X25" s="212"/>
-      <c r="Y25" s="212"/>
-      <c r="Z25" s="212"/>
-      <c r="AA25" s="212"/>
-      <c r="AB25" s="212"/>
-      <c r="AC25" s="213"/>
+      <c r="T25" s="213" t="s">
+        <v>259</v>
+      </c>
+      <c r="U25" s="214"/>
+      <c r="V25" s="214"/>
+      <c r="W25" s="214"/>
+      <c r="X25" s="214"/>
+      <c r="Y25" s="214"/>
+      <c r="Z25" s="214"/>
+      <c r="AA25" s="214"/>
+      <c r="AB25" s="214"/>
+      <c r="AC25" s="215"/>
       <c r="AD25" s="140" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="AE25" s="141"/>
       <c r="AF25" s="141"/>
@@ -21209,7 +21301,7 @@
       <c r="AW25" s="23"/>
     </row>
     <row r="26" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B26" s="218"/>
+      <c r="B26" s="212"/>
       <c r="C26" s="75"/>
       <c r="I26" s="76"/>
       <c r="J26" s="75"/>
@@ -21222,16 +21314,16 @@
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
       <c r="S26" s="27"/>
-      <c r="T26" s="214"/>
-      <c r="U26" s="215"/>
-      <c r="V26" s="215"/>
-      <c r="W26" s="215"/>
-      <c r="X26" s="215"/>
-      <c r="Y26" s="215"/>
-      <c r="Z26" s="215"/>
-      <c r="AA26" s="215"/>
-      <c r="AB26" s="215"/>
-      <c r="AC26" s="216"/>
+      <c r="T26" s="216"/>
+      <c r="U26" s="217"/>
+      <c r="V26" s="217"/>
+      <c r="W26" s="217"/>
+      <c r="X26" s="217"/>
+      <c r="Y26" s="217"/>
+      <c r="Z26" s="217"/>
+      <c r="AA26" s="217"/>
+      <c r="AB26" s="217"/>
+      <c r="AC26" s="218"/>
       <c r="AD26" s="142"/>
       <c r="AE26" s="143"/>
       <c r="AF26" s="143"/>
@@ -21254,11 +21346,11 @@
       <c r="AW26" s="27"/>
     </row>
     <row r="27" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B27" s="217">
+      <c r="B27" s="211">
         <v>11</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -21280,20 +21372,20 @@
       </c>
       <c r="R27" s="22"/>
       <c r="S27" s="23"/>
-      <c r="T27" s="211" t="s">
+      <c r="T27" s="213" t="s">
         <v>131</v>
       </c>
-      <c r="U27" s="212"/>
-      <c r="V27" s="212"/>
-      <c r="W27" s="212"/>
-      <c r="X27" s="212"/>
-      <c r="Y27" s="212"/>
-      <c r="Z27" s="212"/>
-      <c r="AA27" s="212"/>
-      <c r="AB27" s="212"/>
-      <c r="AC27" s="213"/>
+      <c r="U27" s="214"/>
+      <c r="V27" s="214"/>
+      <c r="W27" s="214"/>
+      <c r="X27" s="214"/>
+      <c r="Y27" s="214"/>
+      <c r="Z27" s="214"/>
+      <c r="AA27" s="214"/>
+      <c r="AB27" s="214"/>
+      <c r="AC27" s="215"/>
       <c r="AD27" s="140" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="AE27" s="141"/>
       <c r="AF27" s="141"/>
@@ -21316,7 +21408,7 @@
       <c r="AW27" s="23"/>
     </row>
     <row r="28" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B28" s="218"/>
+      <c r="B28" s="212"/>
       <c r="C28" s="75"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -21334,16 +21426,16 @@
       <c r="Q28" s="25"/>
       <c r="R28" s="26"/>
       <c r="S28" s="27"/>
-      <c r="T28" s="214"/>
-      <c r="U28" s="215"/>
-      <c r="V28" s="215"/>
-      <c r="W28" s="215"/>
-      <c r="X28" s="215"/>
-      <c r="Y28" s="215"/>
-      <c r="Z28" s="215"/>
-      <c r="AA28" s="215"/>
-      <c r="AB28" s="215"/>
-      <c r="AC28" s="216"/>
+      <c r="T28" s="216"/>
+      <c r="U28" s="217"/>
+      <c r="V28" s="217"/>
+      <c r="W28" s="217"/>
+      <c r="X28" s="217"/>
+      <c r="Y28" s="217"/>
+      <c r="Z28" s="217"/>
+      <c r="AA28" s="217"/>
+      <c r="AB28" s="217"/>
+      <c r="AC28" s="218"/>
       <c r="AD28" s="142"/>
       <c r="AE28" s="143"/>
       <c r="AF28" s="143"/>
@@ -21366,7 +21458,7 @@
       <c r="AW28" s="27"/>
     </row>
     <row r="29" spans="2:49" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="217">
+      <c r="B29" s="211">
         <v>12</v>
       </c>
       <c r="C29" s="75"/>
@@ -21394,7 +21486,7 @@
       <c r="AB29" s="132"/>
       <c r="AC29" s="133"/>
       <c r="AD29" s="140" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="AE29" s="141"/>
       <c r="AF29" s="141"/>
@@ -21417,7 +21509,7 @@
       <c r="AW29" s="23"/>
     </row>
     <row r="30" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B30" s="218"/>
+      <c r="B30" s="212"/>
       <c r="C30" s="75"/>
       <c r="I30" s="76"/>
       <c r="J30" s="25"/>
@@ -21462,7 +21554,7 @@
       <c r="AW30" s="27"/>
     </row>
     <row r="31" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B31" s="217">
+      <c r="B31" s="211">
         <v>13</v>
       </c>
       <c r="C31" s="79" t="s">
@@ -21520,7 +21612,7 @@
       <c r="AW31" s="81"/>
     </row>
     <row r="32" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="218"/>
+      <c r="B32" s="212"/>
       <c r="C32" s="82"/>
       <c r="D32" s="83"/>
       <c r="E32" s="83"/>
@@ -21570,7 +21662,7 @@
       <c r="AW32" s="84"/>
     </row>
     <row r="33" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B33" s="217">
+      <c r="B33" s="211">
         <v>14</v>
       </c>
       <c r="C33" s="79" t="s">
@@ -21595,7 +21687,7 @@
       <c r="R33" s="80"/>
       <c r="S33" s="81"/>
       <c r="T33" s="219" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="U33" s="220"/>
       <c r="V33" s="220"/>
@@ -21630,7 +21722,7 @@
       <c r="AW33" s="81"/>
     </row>
     <row r="34" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B34" s="218"/>
+      <c r="B34" s="212"/>
       <c r="C34" s="115"/>
       <c r="D34" s="116"/>
       <c r="E34" s="116"/>
@@ -21680,7 +21772,7 @@
       <c r="AW34" s="84"/>
     </row>
     <row r="35" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B35" s="217">
+      <c r="B35" s="211">
         <v>15</v>
       </c>
       <c r="C35" s="115"/>
@@ -21736,7 +21828,7 @@
       <c r="AW35" s="81"/>
     </row>
     <row r="36" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B36" s="218"/>
+      <c r="B36" s="212"/>
       <c r="C36" s="82"/>
       <c r="D36" s="83"/>
       <c r="E36" s="83"/>
@@ -25675,13 +25767,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="T27:AC28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="T33:AC34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="T25:AC26"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
@@ -25695,11 +25785,13 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="T17:AC18"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="T27:AC28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="T33:AC34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -26146,10 +26238,10 @@
       <c r="A8" s="56"/>
       <c r="B8" s="56"/>
       <c r="C8" s="139" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="D8" s="139" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
@@ -26205,7 +26297,7 @@
       <c r="B9" s="56"/>
       <c r="C9" s="139"/>
       <c r="D9" s="139" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
@@ -37016,18 +37108,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37049,14 +37141,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -37070,4 +37154,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/06_SC-M_マスタ系/SC-M15_コードマスタ.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/SC-M15_コードマスタ.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353DF47E-8B85-4101-A907-BD56E9F386BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B153DDDC-BD8D-41BD-9438-AF379833A324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="303">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -653,11 +653,6 @@
     <rPh sb="10" eb="12">
       <t>レンバン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1850,6 +1845,22 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>・コード+「：」+略称
+・コード区分 = 'CTL'</t>
+    <rPh sb="16" eb="18">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コードマスタ.コード(昇順)
+</t>
+    <rPh sb="11" eb="13">
+      <t>ショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -2361,7 +2372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -2783,91 +2794,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2894,6 +2820,91 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2958,20 +2969,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2991,6 +2996,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3007,6 +3018,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4236,7 +4250,7 @@
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A32" s="144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" s="144"/>
       <c r="C32" s="144"/>
@@ -4457,1779 +4471,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="59"/>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="178"/>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="178"/>
-      <c r="AA1" s="178"/>
-      <c r="AB1" s="178"/>
-      <c r="AC1" s="178"/>
-      <c r="AD1" s="178"/>
-      <c r="AE1" s="178"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="178"/>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="178"/>
-      <c r="AJ1" s="178"/>
-      <c r="AK1" s="178"/>
-      <c r="AL1" s="178"/>
-      <c r="AM1" s="178"/>
-      <c r="AN1" s="178"/>
-      <c r="AO1" s="178"/>
-      <c r="AP1" s="178"/>
-      <c r="AQ1" s="178"/>
-      <c r="AR1" s="178"/>
-      <c r="AS1" s="178"/>
-      <c r="AT1" s="178"/>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="178"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="147"/>
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="147"/>
+      <c r="AM1" s="147"/>
+      <c r="AN1" s="147"/>
+      <c r="AO1" s="147"/>
+      <c r="AP1" s="147"/>
+      <c r="AQ1" s="147"/>
+      <c r="AR1" s="147"/>
+      <c r="AS1" s="147"/>
+      <c r="AT1" s="147"/>
+      <c r="AU1" s="147"/>
+      <c r="AV1" s="147"/>
+      <c r="AW1" s="147"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="59"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="179"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="179"/>
-      <c r="AA2" s="179"/>
-      <c r="AB2" s="179"/>
-      <c r="AC2" s="179"/>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="179"/>
-      <c r="AG2" s="179"/>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="179"/>
-      <c r="AJ2" s="179"/>
-      <c r="AK2" s="179"/>
-      <c r="AL2" s="179"/>
-      <c r="AM2" s="179"/>
-      <c r="AN2" s="179"/>
-      <c r="AO2" s="179"/>
-      <c r="AP2" s="179"/>
-      <c r="AQ2" s="179"/>
-      <c r="AR2" s="179"/>
-      <c r="AS2" s="179"/>
-      <c r="AT2" s="179"/>
-      <c r="AU2" s="179"/>
-      <c r="AV2" s="179"/>
-      <c r="AW2" s="179"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="148"/>
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="148"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="148"/>
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="148"/>
+      <c r="AM2" s="148"/>
+      <c r="AN2" s="148"/>
+      <c r="AO2" s="148"/>
+      <c r="AP2" s="148"/>
+      <c r="AQ2" s="148"/>
+      <c r="AR2" s="148"/>
+      <c r="AS2" s="148"/>
+      <c r="AT2" s="148"/>
+      <c r="AU2" s="148"/>
+      <c r="AV2" s="148"/>
+      <c r="AW2" s="148"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180" t="s">
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="181" t="s">
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="182"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="181" t="s">
+      <c r="K3" s="151"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="180" t="s">
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="180" t="s">
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="180"/>
-      <c r="X3" s="180"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="180"/>
-      <c r="AA3" s="180"/>
-      <c r="AB3" s="180"/>
-      <c r="AC3" s="180"/>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="180"/>
-      <c r="AH3" s="180"/>
-      <c r="AI3" s="180"/>
-      <c r="AJ3" s="180"/>
-      <c r="AK3" s="180"/>
-      <c r="AL3" s="180"/>
-      <c r="AM3" s="180"/>
-      <c r="AN3" s="180" t="s">
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="149"/>
+      <c r="AB3" s="149"/>
+      <c r="AC3" s="149"/>
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="149"/>
+      <c r="AH3" s="149"/>
+      <c r="AI3" s="149"/>
+      <c r="AJ3" s="149"/>
+      <c r="AK3" s="149"/>
+      <c r="AL3" s="149"/>
+      <c r="AM3" s="149"/>
+      <c r="AN3" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="180"/>
-      <c r="AP3" s="180"/>
-      <c r="AQ3" s="180"/>
-      <c r="AR3" s="180"/>
-      <c r="AS3" s="180" t="s">
+      <c r="AO3" s="149"/>
+      <c r="AP3" s="149"/>
+      <c r="AQ3" s="149"/>
+      <c r="AR3" s="149"/>
+      <c r="AS3" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="180"/>
-      <c r="AU3" s="180"/>
-      <c r="AV3" s="180"/>
-      <c r="AW3" s="180"/>
+      <c r="AT3" s="149"/>
+      <c r="AU3" s="149"/>
+      <c r="AV3" s="149"/>
+      <c r="AW3" s="149"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="186"/>
-      <c r="S4" s="180"/>
-      <c r="T4" s="180"/>
-      <c r="U4" s="180"/>
-      <c r="V4" s="180"/>
-      <c r="W4" s="180"/>
-      <c r="X4" s="180"/>
-      <c r="Y4" s="180"/>
-      <c r="Z4" s="180"/>
-      <c r="AA4" s="180"/>
-      <c r="AB4" s="180"/>
-      <c r="AC4" s="180"/>
-      <c r="AD4" s="180"/>
-      <c r="AE4" s="180"/>
-      <c r="AF4" s="180"/>
-      <c r="AG4" s="180"/>
-      <c r="AH4" s="180"/>
-      <c r="AI4" s="180"/>
-      <c r="AJ4" s="180"/>
-      <c r="AK4" s="180"/>
-      <c r="AL4" s="180"/>
-      <c r="AM4" s="180"/>
-      <c r="AN4" s="180"/>
-      <c r="AO4" s="180"/>
-      <c r="AP4" s="180"/>
-      <c r="AQ4" s="180"/>
-      <c r="AR4" s="180"/>
-      <c r="AS4" s="180"/>
-      <c r="AT4" s="180"/>
-      <c r="AU4" s="180"/>
-      <c r="AV4" s="180"/>
-      <c r="AW4" s="180"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="149"/>
+      <c r="T4" s="149"/>
+      <c r="U4" s="149"/>
+      <c r="V4" s="149"/>
+      <c r="W4" s="149"/>
+      <c r="X4" s="149"/>
+      <c r="Y4" s="149"/>
+      <c r="Z4" s="149"/>
+      <c r="AA4" s="149"/>
+      <c r="AB4" s="149"/>
+      <c r="AC4" s="149"/>
+      <c r="AD4" s="149"/>
+      <c r="AE4" s="149"/>
+      <c r="AF4" s="149"/>
+      <c r="AG4" s="149"/>
+      <c r="AH4" s="149"/>
+      <c r="AI4" s="149"/>
+      <c r="AJ4" s="149"/>
+      <c r="AK4" s="149"/>
+      <c r="AL4" s="149"/>
+      <c r="AM4" s="149"/>
+      <c r="AN4" s="149"/>
+      <c r="AO4" s="149"/>
+      <c r="AP4" s="149"/>
+      <c r="AQ4" s="149"/>
+      <c r="AR4" s="149"/>
+      <c r="AS4" s="149"/>
+      <c r="AT4" s="149"/>
+      <c r="AU4" s="149"/>
+      <c r="AV4" s="149"/>
+      <c r="AW4" s="149"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="61"/>
-      <c r="B5" s="172">
+      <c r="B5" s="157">
         <v>1</v>
       </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="153">
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="158">
         <v>43704</v>
       </c>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="154" t="s">
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="155"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="154" t="s">
+      <c r="K5" s="160"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="156"/>
-      <c r="S5" s="160" t="s">
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="160"/>
+      <c r="R5" s="161"/>
+      <c r="S5" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="171" t="s">
+      <c r="T5" s="156"/>
+      <c r="U5" s="156"/>
+      <c r="V5" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="171"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="171"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="171"/>
-      <c r="AC5" s="171"/>
-      <c r="AD5" s="171"/>
-      <c r="AE5" s="171"/>
-      <c r="AF5" s="171"/>
-      <c r="AG5" s="171"/>
-      <c r="AH5" s="171"/>
-      <c r="AI5" s="171"/>
-      <c r="AJ5" s="171"/>
-      <c r="AK5" s="171"/>
-      <c r="AL5" s="171"/>
-      <c r="AM5" s="171"/>
-      <c r="AN5" s="160" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO5" s="160"/>
-      <c r="AP5" s="160"/>
-      <c r="AQ5" s="160"/>
-      <c r="AR5" s="160"/>
-      <c r="AS5" s="160"/>
-      <c r="AT5" s="160"/>
-      <c r="AU5" s="160"/>
-      <c r="AV5" s="160"/>
-      <c r="AW5" s="160"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="165"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="165"/>
+      <c r="AL5" s="165"/>
+      <c r="AM5" s="165"/>
+      <c r="AN5" s="156" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO5" s="156"/>
+      <c r="AP5" s="156"/>
+      <c r="AQ5" s="156"/>
+      <c r="AR5" s="156"/>
+      <c r="AS5" s="156"/>
+      <c r="AT5" s="156"/>
+      <c r="AU5" s="156"/>
+      <c r="AV5" s="156"/>
+      <c r="AW5" s="156"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
-      <c r="B6" s="172"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="175"/>
-      <c r="N6" s="176"/>
-      <c r="O6" s="176"/>
-      <c r="P6" s="176"/>
-      <c r="Q6" s="176"/>
-      <c r="R6" s="177"/>
-      <c r="S6" s="160"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="160"/>
-      <c r="V6" s="171"/>
-      <c r="W6" s="171"/>
-      <c r="X6" s="171"/>
-      <c r="Y6" s="171"/>
-      <c r="Z6" s="171"/>
-      <c r="AA6" s="171"/>
-      <c r="AB6" s="171"/>
-      <c r="AC6" s="171"/>
-      <c r="AD6" s="171"/>
-      <c r="AE6" s="171"/>
-      <c r="AF6" s="171"/>
-      <c r="AG6" s="171"/>
-      <c r="AH6" s="171"/>
-      <c r="AI6" s="171"/>
-      <c r="AJ6" s="171"/>
-      <c r="AK6" s="171"/>
-      <c r="AL6" s="171"/>
-      <c r="AM6" s="171"/>
-      <c r="AN6" s="160"/>
-      <c r="AO6" s="160"/>
-      <c r="AP6" s="160"/>
-      <c r="AQ6" s="160"/>
-      <c r="AR6" s="160"/>
-      <c r="AS6" s="160"/>
-      <c r="AT6" s="160"/>
-      <c r="AU6" s="160"/>
-      <c r="AV6" s="160"/>
-      <c r="AW6" s="160"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="156"/>
+      <c r="T6" s="156"/>
+      <c r="U6" s="156"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="165"/>
+      <c r="X6" s="165"/>
+      <c r="Y6" s="165"/>
+      <c r="Z6" s="165"/>
+      <c r="AA6" s="165"/>
+      <c r="AB6" s="165"/>
+      <c r="AC6" s="165"/>
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="165"/>
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="165"/>
+      <c r="AH6" s="165"/>
+      <c r="AI6" s="165"/>
+      <c r="AJ6" s="165"/>
+      <c r="AK6" s="165"/>
+      <c r="AL6" s="165"/>
+      <c r="AM6" s="165"/>
+      <c r="AN6" s="156"/>
+      <c r="AO6" s="156"/>
+      <c r="AP6" s="156"/>
+      <c r="AQ6" s="156"/>
+      <c r="AR6" s="156"/>
+      <c r="AS6" s="156"/>
+      <c r="AT6" s="156"/>
+      <c r="AU6" s="156"/>
+      <c r="AV6" s="156"/>
+      <c r="AW6" s="156"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
-      <c r="B7" s="172"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="176"/>
-      <c r="O7" s="176"/>
-      <c r="P7" s="176"/>
-      <c r="Q7" s="176"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="160"/>
-      <c r="U7" s="160"/>
-      <c r="V7" s="171"/>
-      <c r="W7" s="171"/>
-      <c r="X7" s="171"/>
-      <c r="Y7" s="171"/>
-      <c r="Z7" s="171"/>
-      <c r="AA7" s="171"/>
-      <c r="AB7" s="171"/>
-      <c r="AC7" s="171"/>
-      <c r="AD7" s="171"/>
-      <c r="AE7" s="171"/>
-      <c r="AF7" s="171"/>
-      <c r="AG7" s="171"/>
-      <c r="AH7" s="171"/>
-      <c r="AI7" s="171"/>
-      <c r="AJ7" s="171"/>
-      <c r="AK7" s="171"/>
-      <c r="AL7" s="171"/>
-      <c r="AM7" s="171"/>
-      <c r="AN7" s="160"/>
-      <c r="AO7" s="160"/>
-      <c r="AP7" s="160"/>
-      <c r="AQ7" s="160"/>
-      <c r="AR7" s="160"/>
-      <c r="AS7" s="160"/>
-      <c r="AT7" s="160"/>
-      <c r="AU7" s="160"/>
-      <c r="AV7" s="160"/>
-      <c r="AW7" s="160"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="165"/>
+      <c r="W7" s="165"/>
+      <c r="X7" s="165"/>
+      <c r="Y7" s="165"/>
+      <c r="Z7" s="165"/>
+      <c r="AA7" s="165"/>
+      <c r="AB7" s="165"/>
+      <c r="AC7" s="165"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="165"/>
+      <c r="AG7" s="165"/>
+      <c r="AH7" s="165"/>
+      <c r="AI7" s="165"/>
+      <c r="AJ7" s="165"/>
+      <c r="AK7" s="165"/>
+      <c r="AL7" s="165"/>
+      <c r="AM7" s="165"/>
+      <c r="AN7" s="156"/>
+      <c r="AO7" s="156"/>
+      <c r="AP7" s="156"/>
+      <c r="AQ7" s="156"/>
+      <c r="AR7" s="156"/>
+      <c r="AS7" s="156"/>
+      <c r="AT7" s="156"/>
+      <c r="AU7" s="156"/>
+      <c r="AV7" s="156"/>
+      <c r="AW7" s="156"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="61"/>
-      <c r="B8" s="172"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="176"/>
-      <c r="O8" s="176"/>
-      <c r="P8" s="176"/>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="177"/>
-      <c r="S8" s="160"/>
-      <c r="T8" s="160"/>
-      <c r="U8" s="160"/>
-      <c r="V8" s="171"/>
-      <c r="W8" s="171"/>
-      <c r="X8" s="171"/>
-      <c r="Y8" s="171"/>
-      <c r="Z8" s="171"/>
-      <c r="AA8" s="171"/>
-      <c r="AB8" s="171"/>
-      <c r="AC8" s="171"/>
-      <c r="AD8" s="171"/>
-      <c r="AE8" s="171"/>
-      <c r="AF8" s="171"/>
-      <c r="AG8" s="171"/>
-      <c r="AH8" s="171"/>
-      <c r="AI8" s="171"/>
-      <c r="AJ8" s="171"/>
-      <c r="AK8" s="171"/>
-      <c r="AL8" s="171"/>
-      <c r="AM8" s="171"/>
-      <c r="AN8" s="160"/>
-      <c r="AO8" s="160"/>
-      <c r="AP8" s="160"/>
-      <c r="AQ8" s="160"/>
-      <c r="AR8" s="160"/>
-      <c r="AS8" s="160"/>
-      <c r="AT8" s="160"/>
-      <c r="AU8" s="160"/>
-      <c r="AV8" s="160"/>
-      <c r="AW8" s="160"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="164"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="156"/>
+      <c r="V8" s="165"/>
+      <c r="W8" s="165"/>
+      <c r="X8" s="165"/>
+      <c r="Y8" s="165"/>
+      <c r="Z8" s="165"/>
+      <c r="AA8" s="165"/>
+      <c r="AB8" s="165"/>
+      <c r="AC8" s="165"/>
+      <c r="AD8" s="165"/>
+      <c r="AE8" s="165"/>
+      <c r="AF8" s="165"/>
+      <c r="AG8" s="165"/>
+      <c r="AH8" s="165"/>
+      <c r="AI8" s="165"/>
+      <c r="AJ8" s="165"/>
+      <c r="AK8" s="165"/>
+      <c r="AL8" s="165"/>
+      <c r="AM8" s="165"/>
+      <c r="AN8" s="156"/>
+      <c r="AO8" s="156"/>
+      <c r="AP8" s="156"/>
+      <c r="AQ8" s="156"/>
+      <c r="AR8" s="156"/>
+      <c r="AS8" s="156"/>
+      <c r="AT8" s="156"/>
+      <c r="AU8" s="156"/>
+      <c r="AV8" s="156"/>
+      <c r="AW8" s="156"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="61"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="176"/>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="177"/>
-      <c r="S9" s="160"/>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="171"/>
-      <c r="W9" s="171"/>
-      <c r="X9" s="171"/>
-      <c r="Y9" s="171"/>
-      <c r="Z9" s="171"/>
-      <c r="AA9" s="171"/>
-      <c r="AB9" s="171"/>
-      <c r="AC9" s="171"/>
-      <c r="AD9" s="171"/>
-      <c r="AE9" s="171"/>
-      <c r="AF9" s="171"/>
-      <c r="AG9" s="171"/>
-      <c r="AH9" s="171"/>
-      <c r="AI9" s="171"/>
-      <c r="AJ9" s="171"/>
-      <c r="AK9" s="171"/>
-      <c r="AL9" s="171"/>
-      <c r="AM9" s="171"/>
-      <c r="AN9" s="160"/>
-      <c r="AO9" s="160"/>
-      <c r="AP9" s="160"/>
-      <c r="AQ9" s="160"/>
-      <c r="AR9" s="160"/>
-      <c r="AS9" s="160"/>
-      <c r="AT9" s="160"/>
-      <c r="AU9" s="160"/>
-      <c r="AV9" s="160"/>
-      <c r="AW9" s="160"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="160"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="165"/>
+      <c r="X9" s="165"/>
+      <c r="Y9" s="165"/>
+      <c r="Z9" s="165"/>
+      <c r="AA9" s="165"/>
+      <c r="AB9" s="165"/>
+      <c r="AC9" s="165"/>
+      <c r="AD9" s="165"/>
+      <c r="AE9" s="165"/>
+      <c r="AF9" s="165"/>
+      <c r="AG9" s="165"/>
+      <c r="AH9" s="165"/>
+      <c r="AI9" s="165"/>
+      <c r="AJ9" s="165"/>
+      <c r="AK9" s="165"/>
+      <c r="AL9" s="165"/>
+      <c r="AM9" s="165"/>
+      <c r="AN9" s="156"/>
+      <c r="AO9" s="156"/>
+      <c r="AP9" s="156"/>
+      <c r="AQ9" s="156"/>
+      <c r="AR9" s="156"/>
+      <c r="AS9" s="156"/>
+      <c r="AT9" s="156"/>
+      <c r="AU9" s="156"/>
+      <c r="AV9" s="156"/>
+      <c r="AW9" s="156"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="61"/>
-      <c r="B10" s="172"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="175"/>
-      <c r="N10" s="176"/>
-      <c r="O10" s="176"/>
-      <c r="P10" s="176"/>
-      <c r="Q10" s="176"/>
-      <c r="R10" s="177"/>
-      <c r="S10" s="160"/>
-      <c r="T10" s="160"/>
-      <c r="U10" s="160"/>
-      <c r="V10" s="171"/>
-      <c r="W10" s="171"/>
-      <c r="X10" s="171"/>
-      <c r="Y10" s="171"/>
-      <c r="Z10" s="171"/>
-      <c r="AA10" s="171"/>
-      <c r="AB10" s="171"/>
-      <c r="AC10" s="171"/>
-      <c r="AD10" s="171"/>
-      <c r="AE10" s="171"/>
-      <c r="AF10" s="171"/>
-      <c r="AG10" s="171"/>
-      <c r="AH10" s="171"/>
-      <c r="AI10" s="171"/>
-      <c r="AJ10" s="171"/>
-      <c r="AK10" s="171"/>
-      <c r="AL10" s="171"/>
-      <c r="AM10" s="171"/>
-      <c r="AN10" s="160"/>
-      <c r="AO10" s="160"/>
-      <c r="AP10" s="160"/>
-      <c r="AQ10" s="160"/>
-      <c r="AR10" s="160"/>
-      <c r="AS10" s="160"/>
-      <c r="AT10" s="160"/>
-      <c r="AU10" s="160"/>
-      <c r="AV10" s="160"/>
-      <c r="AW10" s="160"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="156"/>
+      <c r="T10" s="156"/>
+      <c r="U10" s="156"/>
+      <c r="V10" s="165"/>
+      <c r="W10" s="165"/>
+      <c r="X10" s="165"/>
+      <c r="Y10" s="165"/>
+      <c r="Z10" s="165"/>
+      <c r="AA10" s="165"/>
+      <c r="AB10" s="165"/>
+      <c r="AC10" s="165"/>
+      <c r="AD10" s="165"/>
+      <c r="AE10" s="165"/>
+      <c r="AF10" s="165"/>
+      <c r="AG10" s="165"/>
+      <c r="AH10" s="165"/>
+      <c r="AI10" s="165"/>
+      <c r="AJ10" s="165"/>
+      <c r="AK10" s="165"/>
+      <c r="AL10" s="165"/>
+      <c r="AM10" s="165"/>
+      <c r="AN10" s="156"/>
+      <c r="AO10" s="156"/>
+      <c r="AP10" s="156"/>
+      <c r="AQ10" s="156"/>
+      <c r="AR10" s="156"/>
+      <c r="AS10" s="156"/>
+      <c r="AT10" s="156"/>
+      <c r="AU10" s="156"/>
+      <c r="AV10" s="156"/>
+      <c r="AW10" s="156"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="61"/>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="165"/>
-      <c r="P11" s="165"/>
-      <c r="Q11" s="165"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="160"/>
-      <c r="T11" s="160"/>
-      <c r="U11" s="160"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="173"/>
-      <c r="X11" s="173"/>
-      <c r="Y11" s="173"/>
-      <c r="Z11" s="173"/>
-      <c r="AA11" s="173"/>
-      <c r="AB11" s="173"/>
-      <c r="AC11" s="173"/>
-      <c r="AD11" s="173"/>
-      <c r="AE11" s="173"/>
-      <c r="AF11" s="173"/>
-      <c r="AG11" s="173"/>
-      <c r="AH11" s="173"/>
-      <c r="AI11" s="173"/>
-      <c r="AJ11" s="173"/>
-      <c r="AK11" s="173"/>
-      <c r="AL11" s="173"/>
-      <c r="AM11" s="174"/>
-      <c r="AN11" s="160"/>
-      <c r="AO11" s="160"/>
-      <c r="AP11" s="160"/>
-      <c r="AQ11" s="160"/>
-      <c r="AR11" s="160"/>
-      <c r="AS11" s="160"/>
-      <c r="AT11" s="160"/>
-      <c r="AU11" s="160"/>
-      <c r="AV11" s="160"/>
-      <c r="AW11" s="160"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="171"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="172"/>
+      <c r="W11" s="178"/>
+      <c r="X11" s="178"/>
+      <c r="Y11" s="178"/>
+      <c r="Z11" s="178"/>
+      <c r="AA11" s="178"/>
+      <c r="AB11" s="178"/>
+      <c r="AC11" s="178"/>
+      <c r="AD11" s="178"/>
+      <c r="AE11" s="178"/>
+      <c r="AF11" s="178"/>
+      <c r="AG11" s="178"/>
+      <c r="AH11" s="178"/>
+      <c r="AI11" s="178"/>
+      <c r="AJ11" s="178"/>
+      <c r="AK11" s="178"/>
+      <c r="AL11" s="178"/>
+      <c r="AM11" s="179"/>
+      <c r="AN11" s="156"/>
+      <c r="AO11" s="156"/>
+      <c r="AP11" s="156"/>
+      <c r="AQ11" s="156"/>
+      <c r="AR11" s="156"/>
+      <c r="AS11" s="156"/>
+      <c r="AT11" s="156"/>
+      <c r="AU11" s="156"/>
+      <c r="AV11" s="156"/>
+      <c r="AW11" s="156"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="61"/>
-      <c r="B12" s="150"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="167"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="165"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="160"/>
-      <c r="T12" s="160"/>
-      <c r="U12" s="160"/>
-      <c r="V12" s="161"/>
-      <c r="W12" s="162"/>
-      <c r="X12" s="162"/>
-      <c r="Y12" s="162"/>
-      <c r="Z12" s="162"/>
-      <c r="AA12" s="162"/>
-      <c r="AB12" s="162"/>
-      <c r="AC12" s="162"/>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="162"/>
-      <c r="AF12" s="162"/>
-      <c r="AG12" s="162"/>
-      <c r="AH12" s="162"/>
-      <c r="AI12" s="162"/>
-      <c r="AJ12" s="162"/>
-      <c r="AK12" s="162"/>
-      <c r="AL12" s="162"/>
-      <c r="AM12" s="163"/>
-      <c r="AN12" s="147"/>
-      <c r="AO12" s="148"/>
-      <c r="AP12" s="148"/>
-      <c r="AQ12" s="148"/>
-      <c r="AR12" s="149"/>
-      <c r="AS12" s="147"/>
-      <c r="AT12" s="148"/>
-      <c r="AU12" s="148"/>
-      <c r="AV12" s="148"/>
-      <c r="AW12" s="149"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="170"/>
+      <c r="O12" s="170"/>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="170"/>
+      <c r="R12" s="171"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="172"/>
+      <c r="W12" s="173"/>
+      <c r="X12" s="173"/>
+      <c r="Y12" s="173"/>
+      <c r="Z12" s="173"/>
+      <c r="AA12" s="173"/>
+      <c r="AB12" s="173"/>
+      <c r="AC12" s="173"/>
+      <c r="AD12" s="173"/>
+      <c r="AE12" s="173"/>
+      <c r="AF12" s="173"/>
+      <c r="AG12" s="173"/>
+      <c r="AH12" s="173"/>
+      <c r="AI12" s="173"/>
+      <c r="AJ12" s="173"/>
+      <c r="AK12" s="173"/>
+      <c r="AL12" s="173"/>
+      <c r="AM12" s="174"/>
+      <c r="AN12" s="175"/>
+      <c r="AO12" s="176"/>
+      <c r="AP12" s="176"/>
+      <c r="AQ12" s="176"/>
+      <c r="AR12" s="177"/>
+      <c r="AS12" s="175"/>
+      <c r="AT12" s="176"/>
+      <c r="AU12" s="176"/>
+      <c r="AV12" s="176"/>
+      <c r="AW12" s="177"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="61"/>
-      <c r="B13" s="150"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="155"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="164"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="165"/>
-      <c r="P13" s="165"/>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="160"/>
-      <c r="T13" s="160"/>
-      <c r="U13" s="160"/>
-      <c r="V13" s="161"/>
-      <c r="W13" s="162"/>
-      <c r="X13" s="162"/>
-      <c r="Y13" s="162"/>
-      <c r="Z13" s="162"/>
-      <c r="AA13" s="162"/>
-      <c r="AB13" s="162"/>
-      <c r="AC13" s="162"/>
-      <c r="AD13" s="162"/>
-      <c r="AE13" s="162"/>
-      <c r="AF13" s="162"/>
-      <c r="AG13" s="162"/>
-      <c r="AH13" s="162"/>
-      <c r="AI13" s="162"/>
-      <c r="AJ13" s="162"/>
-      <c r="AK13" s="162"/>
-      <c r="AL13" s="162"/>
-      <c r="AM13" s="163"/>
-      <c r="AN13" s="147"/>
-      <c r="AO13" s="148"/>
-      <c r="AP13" s="148"/>
-      <c r="AQ13" s="148"/>
-      <c r="AR13" s="149"/>
-      <c r="AS13" s="147"/>
-      <c r="AT13" s="148"/>
-      <c r="AU13" s="148"/>
-      <c r="AV13" s="148"/>
-      <c r="AW13" s="149"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="170"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="170"/>
+      <c r="Q13" s="170"/>
+      <c r="R13" s="171"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="172"/>
+      <c r="W13" s="173"/>
+      <c r="X13" s="173"/>
+      <c r="Y13" s="173"/>
+      <c r="Z13" s="173"/>
+      <c r="AA13" s="173"/>
+      <c r="AB13" s="173"/>
+      <c r="AC13" s="173"/>
+      <c r="AD13" s="173"/>
+      <c r="AE13" s="173"/>
+      <c r="AF13" s="173"/>
+      <c r="AG13" s="173"/>
+      <c r="AH13" s="173"/>
+      <c r="AI13" s="173"/>
+      <c r="AJ13" s="173"/>
+      <c r="AK13" s="173"/>
+      <c r="AL13" s="173"/>
+      <c r="AM13" s="174"/>
+      <c r="AN13" s="175"/>
+      <c r="AO13" s="176"/>
+      <c r="AP13" s="176"/>
+      <c r="AQ13" s="176"/>
+      <c r="AR13" s="177"/>
+      <c r="AS13" s="175"/>
+      <c r="AT13" s="176"/>
+      <c r="AU13" s="176"/>
+      <c r="AV13" s="176"/>
+      <c r="AW13" s="177"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="164"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="165"/>
-      <c r="P14" s="165"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="160"/>
-      <c r="T14" s="160"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="170"/>
-      <c r="W14" s="171"/>
-      <c r="X14" s="171"/>
-      <c r="Y14" s="171"/>
-      <c r="Z14" s="171"/>
-      <c r="AA14" s="171"/>
-      <c r="AB14" s="171"/>
-      <c r="AC14" s="171"/>
-      <c r="AD14" s="171"/>
-      <c r="AE14" s="171"/>
-      <c r="AF14" s="171"/>
-      <c r="AG14" s="171"/>
-      <c r="AH14" s="171"/>
-      <c r="AI14" s="171"/>
-      <c r="AJ14" s="171"/>
-      <c r="AK14" s="171"/>
-      <c r="AL14" s="171"/>
-      <c r="AM14" s="171"/>
-      <c r="AN14" s="160"/>
-      <c r="AO14" s="160"/>
-      <c r="AP14" s="160"/>
-      <c r="AQ14" s="160"/>
-      <c r="AR14" s="160"/>
-      <c r="AS14" s="147"/>
-      <c r="AT14" s="148"/>
-      <c r="AU14" s="148"/>
-      <c r="AV14" s="148"/>
-      <c r="AW14" s="149"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="170"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="170"/>
+      <c r="R14" s="171"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="181"/>
+      <c r="W14" s="165"/>
+      <c r="X14" s="165"/>
+      <c r="Y14" s="165"/>
+      <c r="Z14" s="165"/>
+      <c r="AA14" s="165"/>
+      <c r="AB14" s="165"/>
+      <c r="AC14" s="165"/>
+      <c r="AD14" s="165"/>
+      <c r="AE14" s="165"/>
+      <c r="AF14" s="165"/>
+      <c r="AG14" s="165"/>
+      <c r="AH14" s="165"/>
+      <c r="AI14" s="165"/>
+      <c r="AJ14" s="165"/>
+      <c r="AK14" s="165"/>
+      <c r="AL14" s="165"/>
+      <c r="AM14" s="165"/>
+      <c r="AN14" s="156"/>
+      <c r="AO14" s="156"/>
+      <c r="AP14" s="156"/>
+      <c r="AQ14" s="156"/>
+      <c r="AR14" s="156"/>
+      <c r="AS14" s="175"/>
+      <c r="AT14" s="176"/>
+      <c r="AU14" s="176"/>
+      <c r="AV14" s="176"/>
+      <c r="AW14" s="177"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="167"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="165"/>
-      <c r="P15" s="165"/>
-      <c r="Q15" s="165"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="160"/>
-      <c r="T15" s="160"/>
-      <c r="U15" s="160"/>
-      <c r="V15" s="161"/>
-      <c r="W15" s="162"/>
-      <c r="X15" s="162"/>
-      <c r="Y15" s="162"/>
-      <c r="Z15" s="162"/>
-      <c r="AA15" s="162"/>
-      <c r="AB15" s="162"/>
-      <c r="AC15" s="162"/>
-      <c r="AD15" s="162"/>
-      <c r="AE15" s="162"/>
-      <c r="AF15" s="162"/>
-      <c r="AG15" s="162"/>
-      <c r="AH15" s="162"/>
-      <c r="AI15" s="162"/>
-      <c r="AJ15" s="162"/>
-      <c r="AK15" s="162"/>
-      <c r="AL15" s="162"/>
-      <c r="AM15" s="163"/>
-      <c r="AN15" s="147"/>
-      <c r="AO15" s="148"/>
-      <c r="AP15" s="148"/>
-      <c r="AQ15" s="148"/>
-      <c r="AR15" s="149"/>
-      <c r="AS15" s="147"/>
-      <c r="AT15" s="148"/>
-      <c r="AU15" s="148"/>
-      <c r="AV15" s="148"/>
-      <c r="AW15" s="149"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="169"/>
+      <c r="N15" s="170"/>
+      <c r="O15" s="170"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="170"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="172"/>
+      <c r="W15" s="173"/>
+      <c r="X15" s="173"/>
+      <c r="Y15" s="173"/>
+      <c r="Z15" s="173"/>
+      <c r="AA15" s="173"/>
+      <c r="AB15" s="173"/>
+      <c r="AC15" s="173"/>
+      <c r="AD15" s="173"/>
+      <c r="AE15" s="173"/>
+      <c r="AF15" s="173"/>
+      <c r="AG15" s="173"/>
+      <c r="AH15" s="173"/>
+      <c r="AI15" s="173"/>
+      <c r="AJ15" s="173"/>
+      <c r="AK15" s="173"/>
+      <c r="AL15" s="173"/>
+      <c r="AM15" s="174"/>
+      <c r="AN15" s="175"/>
+      <c r="AO15" s="176"/>
+      <c r="AP15" s="176"/>
+      <c r="AQ15" s="176"/>
+      <c r="AR15" s="177"/>
+      <c r="AS15" s="175"/>
+      <c r="AT15" s="176"/>
+      <c r="AU15" s="176"/>
+      <c r="AV15" s="176"/>
+      <c r="AW15" s="177"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="61"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="167"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="165"/>
-      <c r="P16" s="165"/>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="166"/>
-      <c r="S16" s="160"/>
-      <c r="T16" s="160"/>
-      <c r="U16" s="160"/>
-      <c r="V16" s="161"/>
-      <c r="W16" s="162"/>
-      <c r="X16" s="162"/>
-      <c r="Y16" s="162"/>
-      <c r="Z16" s="162"/>
-      <c r="AA16" s="162"/>
-      <c r="AB16" s="162"/>
-      <c r="AC16" s="162"/>
-      <c r="AD16" s="162"/>
-      <c r="AE16" s="162"/>
-      <c r="AF16" s="162"/>
-      <c r="AG16" s="162"/>
-      <c r="AH16" s="162"/>
-      <c r="AI16" s="162"/>
-      <c r="AJ16" s="162"/>
-      <c r="AK16" s="162"/>
-      <c r="AL16" s="162"/>
-      <c r="AM16" s="163"/>
-      <c r="AN16" s="147"/>
-      <c r="AO16" s="148"/>
-      <c r="AP16" s="148"/>
-      <c r="AQ16" s="148"/>
-      <c r="AR16" s="149"/>
-      <c r="AS16" s="147"/>
-      <c r="AT16" s="148"/>
-      <c r="AU16" s="148"/>
-      <c r="AV16" s="148"/>
-      <c r="AW16" s="149"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="169"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="170"/>
+      <c r="R16" s="171"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="156"/>
+      <c r="U16" s="156"/>
+      <c r="V16" s="172"/>
+      <c r="W16" s="173"/>
+      <c r="X16" s="173"/>
+      <c r="Y16" s="173"/>
+      <c r="Z16" s="173"/>
+      <c r="AA16" s="173"/>
+      <c r="AB16" s="173"/>
+      <c r="AC16" s="173"/>
+      <c r="AD16" s="173"/>
+      <c r="AE16" s="173"/>
+      <c r="AF16" s="173"/>
+      <c r="AG16" s="173"/>
+      <c r="AH16" s="173"/>
+      <c r="AI16" s="173"/>
+      <c r="AJ16" s="173"/>
+      <c r="AK16" s="173"/>
+      <c r="AL16" s="173"/>
+      <c r="AM16" s="174"/>
+      <c r="AN16" s="175"/>
+      <c r="AO16" s="176"/>
+      <c r="AP16" s="176"/>
+      <c r="AQ16" s="176"/>
+      <c r="AR16" s="177"/>
+      <c r="AS16" s="175"/>
+      <c r="AT16" s="176"/>
+      <c r="AU16" s="176"/>
+      <c r="AV16" s="176"/>
+      <c r="AW16" s="177"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="61"/>
-      <c r="B17" s="150"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="167"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="168"/>
-      <c r="S17" s="169"/>
-      <c r="T17" s="169"/>
-      <c r="U17" s="169"/>
-      <c r="V17" s="161"/>
-      <c r="W17" s="162"/>
-      <c r="X17" s="162"/>
-      <c r="Y17" s="162"/>
-      <c r="Z17" s="162"/>
-      <c r="AA17" s="162"/>
-      <c r="AB17" s="162"/>
-      <c r="AC17" s="162"/>
-      <c r="AD17" s="162"/>
-      <c r="AE17" s="162"/>
-      <c r="AF17" s="162"/>
-      <c r="AG17" s="162"/>
-      <c r="AH17" s="162"/>
-      <c r="AI17" s="162"/>
-      <c r="AJ17" s="162"/>
-      <c r="AK17" s="162"/>
-      <c r="AL17" s="162"/>
-      <c r="AM17" s="163"/>
-      <c r="AN17" s="147"/>
-      <c r="AO17" s="148"/>
-      <c r="AP17" s="148"/>
-      <c r="AQ17" s="148"/>
-      <c r="AR17" s="149"/>
-      <c r="AS17" s="147"/>
-      <c r="AT17" s="148"/>
-      <c r="AU17" s="148"/>
-      <c r="AV17" s="148"/>
-      <c r="AW17" s="149"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="160"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="169"/>
+      <c r="N17" s="170"/>
+      <c r="O17" s="170"/>
+      <c r="P17" s="170"/>
+      <c r="Q17" s="170"/>
+      <c r="R17" s="182"/>
+      <c r="S17" s="183"/>
+      <c r="T17" s="183"/>
+      <c r="U17" s="183"/>
+      <c r="V17" s="172"/>
+      <c r="W17" s="173"/>
+      <c r="X17" s="173"/>
+      <c r="Y17" s="173"/>
+      <c r="Z17" s="173"/>
+      <c r="AA17" s="173"/>
+      <c r="AB17" s="173"/>
+      <c r="AC17" s="173"/>
+      <c r="AD17" s="173"/>
+      <c r="AE17" s="173"/>
+      <c r="AF17" s="173"/>
+      <c r="AG17" s="173"/>
+      <c r="AH17" s="173"/>
+      <c r="AI17" s="173"/>
+      <c r="AJ17" s="173"/>
+      <c r="AK17" s="173"/>
+      <c r="AL17" s="173"/>
+      <c r="AM17" s="174"/>
+      <c r="AN17" s="175"/>
+      <c r="AO17" s="176"/>
+      <c r="AP17" s="176"/>
+      <c r="AQ17" s="176"/>
+      <c r="AR17" s="177"/>
+      <c r="AS17" s="175"/>
+      <c r="AT17" s="176"/>
+      <c r="AU17" s="176"/>
+      <c r="AV17" s="176"/>
+      <c r="AW17" s="177"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="61"/>
-      <c r="B18" s="150"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="165"/>
-      <c r="P18" s="165"/>
-      <c r="Q18" s="165"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="160"/>
-      <c r="T18" s="160"/>
-      <c r="U18" s="160"/>
-      <c r="V18" s="161"/>
-      <c r="W18" s="162"/>
-      <c r="X18" s="162"/>
-      <c r="Y18" s="162"/>
-      <c r="Z18" s="162"/>
-      <c r="AA18" s="162"/>
-      <c r="AB18" s="162"/>
-      <c r="AC18" s="162"/>
-      <c r="AD18" s="162"/>
-      <c r="AE18" s="162"/>
-      <c r="AF18" s="162"/>
-      <c r="AG18" s="162"/>
-      <c r="AH18" s="162"/>
-      <c r="AI18" s="162"/>
-      <c r="AJ18" s="162"/>
-      <c r="AK18" s="162"/>
-      <c r="AL18" s="162"/>
-      <c r="AM18" s="163"/>
-      <c r="AN18" s="147"/>
-      <c r="AO18" s="148"/>
-      <c r="AP18" s="148"/>
-      <c r="AQ18" s="148"/>
-      <c r="AR18" s="149"/>
-      <c r="AS18" s="147"/>
-      <c r="AT18" s="148"/>
-      <c r="AU18" s="148"/>
-      <c r="AV18" s="148"/>
-      <c r="AW18" s="149"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="170"/>
+      <c r="O18" s="170"/>
+      <c r="P18" s="170"/>
+      <c r="Q18" s="170"/>
+      <c r="R18" s="171"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="156"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="172"/>
+      <c r="W18" s="173"/>
+      <c r="X18" s="173"/>
+      <c r="Y18" s="173"/>
+      <c r="Z18" s="173"/>
+      <c r="AA18" s="173"/>
+      <c r="AB18" s="173"/>
+      <c r="AC18" s="173"/>
+      <c r="AD18" s="173"/>
+      <c r="AE18" s="173"/>
+      <c r="AF18" s="173"/>
+      <c r="AG18" s="173"/>
+      <c r="AH18" s="173"/>
+      <c r="AI18" s="173"/>
+      <c r="AJ18" s="173"/>
+      <c r="AK18" s="173"/>
+      <c r="AL18" s="173"/>
+      <c r="AM18" s="174"/>
+      <c r="AN18" s="175"/>
+      <c r="AO18" s="176"/>
+      <c r="AP18" s="176"/>
+      <c r="AQ18" s="176"/>
+      <c r="AR18" s="177"/>
+      <c r="AS18" s="175"/>
+      <c r="AT18" s="176"/>
+      <c r="AU18" s="176"/>
+      <c r="AV18" s="176"/>
+      <c r="AW18" s="177"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
-      <c r="B19" s="150"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="167"/>
-      <c r="N19" s="165"/>
-      <c r="O19" s="165"/>
-      <c r="P19" s="165"/>
-      <c r="Q19" s="165"/>
-      <c r="R19" s="166"/>
-      <c r="S19" s="160"/>
-      <c r="T19" s="160"/>
-      <c r="U19" s="160"/>
-      <c r="V19" s="161"/>
-      <c r="W19" s="162"/>
-      <c r="X19" s="162"/>
-      <c r="Y19" s="162"/>
-      <c r="Z19" s="162"/>
-      <c r="AA19" s="162"/>
-      <c r="AB19" s="162"/>
-      <c r="AC19" s="162"/>
-      <c r="AD19" s="162"/>
-      <c r="AE19" s="162"/>
-      <c r="AF19" s="162"/>
-      <c r="AG19" s="162"/>
-      <c r="AH19" s="162"/>
-      <c r="AI19" s="162"/>
-      <c r="AJ19" s="162"/>
-      <c r="AK19" s="162"/>
-      <c r="AL19" s="162"/>
-      <c r="AM19" s="163"/>
-      <c r="AN19" s="160"/>
-      <c r="AO19" s="160"/>
-      <c r="AP19" s="160"/>
-      <c r="AQ19" s="160"/>
-      <c r="AR19" s="160"/>
-      <c r="AS19" s="147"/>
-      <c r="AT19" s="148"/>
-      <c r="AU19" s="148"/>
-      <c r="AV19" s="148"/>
-      <c r="AW19" s="149"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="169"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="170"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="170"/>
+      <c r="R19" s="171"/>
+      <c r="S19" s="156"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="172"/>
+      <c r="W19" s="173"/>
+      <c r="X19" s="173"/>
+      <c r="Y19" s="173"/>
+      <c r="Z19" s="173"/>
+      <c r="AA19" s="173"/>
+      <c r="AB19" s="173"/>
+      <c r="AC19" s="173"/>
+      <c r="AD19" s="173"/>
+      <c r="AE19" s="173"/>
+      <c r="AF19" s="173"/>
+      <c r="AG19" s="173"/>
+      <c r="AH19" s="173"/>
+      <c r="AI19" s="173"/>
+      <c r="AJ19" s="173"/>
+      <c r="AK19" s="173"/>
+      <c r="AL19" s="173"/>
+      <c r="AM19" s="174"/>
+      <c r="AN19" s="156"/>
+      <c r="AO19" s="156"/>
+      <c r="AP19" s="156"/>
+      <c r="AQ19" s="156"/>
+      <c r="AR19" s="156"/>
+      <c r="AS19" s="175"/>
+      <c r="AT19" s="176"/>
+      <c r="AU19" s="176"/>
+      <c r="AV19" s="176"/>
+      <c r="AW19" s="177"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="61"/>
-      <c r="B20" s="150"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="167"/>
-      <c r="N20" s="165"/>
-      <c r="O20" s="165"/>
-      <c r="P20" s="165"/>
-      <c r="Q20" s="165"/>
-      <c r="R20" s="166"/>
-      <c r="S20" s="147"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="149"/>
-      <c r="V20" s="161"/>
-      <c r="W20" s="162"/>
-      <c r="X20" s="162"/>
-      <c r="Y20" s="162"/>
-      <c r="Z20" s="162"/>
-      <c r="AA20" s="162"/>
-      <c r="AB20" s="162"/>
-      <c r="AC20" s="162"/>
-      <c r="AD20" s="162"/>
-      <c r="AE20" s="162"/>
-      <c r="AF20" s="162"/>
-      <c r="AG20" s="162"/>
-      <c r="AH20" s="162"/>
-      <c r="AI20" s="162"/>
-      <c r="AJ20" s="162"/>
-      <c r="AK20" s="162"/>
-      <c r="AL20" s="162"/>
-      <c r="AM20" s="163"/>
-      <c r="AN20" s="147"/>
-      <c r="AO20" s="148"/>
-      <c r="AP20" s="148"/>
-      <c r="AQ20" s="148"/>
-      <c r="AR20" s="149"/>
-      <c r="AS20" s="147"/>
-      <c r="AT20" s="148"/>
-      <c r="AU20" s="148"/>
-      <c r="AV20" s="148"/>
-      <c r="AW20" s="149"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="159"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="169"/>
+      <c r="N20" s="170"/>
+      <c r="O20" s="170"/>
+      <c r="P20" s="170"/>
+      <c r="Q20" s="170"/>
+      <c r="R20" s="171"/>
+      <c r="S20" s="175"/>
+      <c r="T20" s="176"/>
+      <c r="U20" s="177"/>
+      <c r="V20" s="172"/>
+      <c r="W20" s="173"/>
+      <c r="X20" s="173"/>
+      <c r="Y20" s="173"/>
+      <c r="Z20" s="173"/>
+      <c r="AA20" s="173"/>
+      <c r="AB20" s="173"/>
+      <c r="AC20" s="173"/>
+      <c r="AD20" s="173"/>
+      <c r="AE20" s="173"/>
+      <c r="AF20" s="173"/>
+      <c r="AG20" s="173"/>
+      <c r="AH20" s="173"/>
+      <c r="AI20" s="173"/>
+      <c r="AJ20" s="173"/>
+      <c r="AK20" s="173"/>
+      <c r="AL20" s="173"/>
+      <c r="AM20" s="174"/>
+      <c r="AN20" s="175"/>
+      <c r="AO20" s="176"/>
+      <c r="AP20" s="176"/>
+      <c r="AQ20" s="176"/>
+      <c r="AR20" s="177"/>
+      <c r="AS20" s="175"/>
+      <c r="AT20" s="176"/>
+      <c r="AU20" s="176"/>
+      <c r="AV20" s="176"/>
+      <c r="AW20" s="177"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="61"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="167"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="165"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="166"/>
-      <c r="S21" s="160"/>
-      <c r="T21" s="160"/>
-      <c r="U21" s="160"/>
-      <c r="V21" s="161"/>
-      <c r="W21" s="162"/>
-      <c r="X21" s="162"/>
-      <c r="Y21" s="162"/>
-      <c r="Z21" s="162"/>
-      <c r="AA21" s="162"/>
-      <c r="AB21" s="162"/>
-      <c r="AC21" s="162"/>
-      <c r="AD21" s="162"/>
-      <c r="AE21" s="162"/>
-      <c r="AF21" s="162"/>
-      <c r="AG21" s="162"/>
-      <c r="AH21" s="162"/>
-      <c r="AI21" s="162"/>
-      <c r="AJ21" s="162"/>
-      <c r="AK21" s="162"/>
-      <c r="AL21" s="162"/>
-      <c r="AM21" s="163"/>
-      <c r="AN21" s="147"/>
-      <c r="AO21" s="148"/>
-      <c r="AP21" s="148"/>
-      <c r="AQ21" s="148"/>
-      <c r="AR21" s="149"/>
-      <c r="AS21" s="147"/>
-      <c r="AT21" s="148"/>
-      <c r="AU21" s="148"/>
-      <c r="AV21" s="148"/>
-      <c r="AW21" s="149"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="160"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="169"/>
+      <c r="N21" s="170"/>
+      <c r="O21" s="170"/>
+      <c r="P21" s="170"/>
+      <c r="Q21" s="170"/>
+      <c r="R21" s="171"/>
+      <c r="S21" s="156"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="172"/>
+      <c r="W21" s="173"/>
+      <c r="X21" s="173"/>
+      <c r="Y21" s="173"/>
+      <c r="Z21" s="173"/>
+      <c r="AA21" s="173"/>
+      <c r="AB21" s="173"/>
+      <c r="AC21" s="173"/>
+      <c r="AD21" s="173"/>
+      <c r="AE21" s="173"/>
+      <c r="AF21" s="173"/>
+      <c r="AG21" s="173"/>
+      <c r="AH21" s="173"/>
+      <c r="AI21" s="173"/>
+      <c r="AJ21" s="173"/>
+      <c r="AK21" s="173"/>
+      <c r="AL21" s="173"/>
+      <c r="AM21" s="174"/>
+      <c r="AN21" s="175"/>
+      <c r="AO21" s="176"/>
+      <c r="AP21" s="176"/>
+      <c r="AQ21" s="176"/>
+      <c r="AR21" s="177"/>
+      <c r="AS21" s="175"/>
+      <c r="AT21" s="176"/>
+      <c r="AU21" s="176"/>
+      <c r="AV21" s="176"/>
+      <c r="AW21" s="177"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="167"/>
-      <c r="N22" s="165"/>
-      <c r="O22" s="165"/>
-      <c r="P22" s="165"/>
-      <c r="Q22" s="165"/>
-      <c r="R22" s="166"/>
-      <c r="S22" s="160"/>
-      <c r="T22" s="160"/>
-      <c r="U22" s="160"/>
-      <c r="V22" s="161"/>
-      <c r="W22" s="162"/>
-      <c r="X22" s="162"/>
-      <c r="Y22" s="162"/>
-      <c r="Z22" s="162"/>
-      <c r="AA22" s="162"/>
-      <c r="AB22" s="162"/>
-      <c r="AC22" s="162"/>
-      <c r="AD22" s="162"/>
-      <c r="AE22" s="162"/>
-      <c r="AF22" s="162"/>
-      <c r="AG22" s="162"/>
-      <c r="AH22" s="162"/>
-      <c r="AI22" s="162"/>
-      <c r="AJ22" s="162"/>
-      <c r="AK22" s="162"/>
-      <c r="AL22" s="162"/>
-      <c r="AM22" s="163"/>
-      <c r="AN22" s="147"/>
-      <c r="AO22" s="148"/>
-      <c r="AP22" s="148"/>
-      <c r="AQ22" s="148"/>
-      <c r="AR22" s="149"/>
-      <c r="AS22" s="147"/>
-      <c r="AT22" s="148"/>
-      <c r="AU22" s="148"/>
-      <c r="AV22" s="148"/>
-      <c r="AW22" s="149"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="160"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="169"/>
+      <c r="N22" s="170"/>
+      <c r="O22" s="170"/>
+      <c r="P22" s="170"/>
+      <c r="Q22" s="170"/>
+      <c r="R22" s="171"/>
+      <c r="S22" s="156"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="172"/>
+      <c r="W22" s="173"/>
+      <c r="X22" s="173"/>
+      <c r="Y22" s="173"/>
+      <c r="Z22" s="173"/>
+      <c r="AA22" s="173"/>
+      <c r="AB22" s="173"/>
+      <c r="AC22" s="173"/>
+      <c r="AD22" s="173"/>
+      <c r="AE22" s="173"/>
+      <c r="AF22" s="173"/>
+      <c r="AG22" s="173"/>
+      <c r="AH22" s="173"/>
+      <c r="AI22" s="173"/>
+      <c r="AJ22" s="173"/>
+      <c r="AK22" s="173"/>
+      <c r="AL22" s="173"/>
+      <c r="AM22" s="174"/>
+      <c r="AN22" s="175"/>
+      <c r="AO22" s="176"/>
+      <c r="AP22" s="176"/>
+      <c r="AQ22" s="176"/>
+      <c r="AR22" s="177"/>
+      <c r="AS22" s="175"/>
+      <c r="AT22" s="176"/>
+      <c r="AU22" s="176"/>
+      <c r="AV22" s="176"/>
+      <c r="AW22" s="177"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="59"/>
-      <c r="B23" s="150"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="167"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="166"/>
-      <c r="S23" s="160"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="160"/>
-      <c r="V23" s="161"/>
-      <c r="W23" s="162"/>
-      <c r="X23" s="162"/>
-      <c r="Y23" s="162"/>
-      <c r="Z23" s="162"/>
-      <c r="AA23" s="162"/>
-      <c r="AB23" s="162"/>
-      <c r="AC23" s="162"/>
-      <c r="AD23" s="162"/>
-      <c r="AE23" s="162"/>
-      <c r="AF23" s="162"/>
-      <c r="AG23" s="162"/>
-      <c r="AH23" s="162"/>
-      <c r="AI23" s="162"/>
-      <c r="AJ23" s="162"/>
-      <c r="AK23" s="162"/>
-      <c r="AL23" s="162"/>
-      <c r="AM23" s="163"/>
-      <c r="AN23" s="147"/>
-      <c r="AO23" s="148"/>
-      <c r="AP23" s="148"/>
-      <c r="AQ23" s="148"/>
-      <c r="AR23" s="149"/>
-      <c r="AS23" s="147"/>
-      <c r="AT23" s="148"/>
-      <c r="AU23" s="148"/>
-      <c r="AV23" s="148"/>
-      <c r="AW23" s="149"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="169"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="170"/>
+      <c r="P23" s="170"/>
+      <c r="Q23" s="170"/>
+      <c r="R23" s="171"/>
+      <c r="S23" s="156"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="172"/>
+      <c r="W23" s="173"/>
+      <c r="X23" s="173"/>
+      <c r="Y23" s="173"/>
+      <c r="Z23" s="173"/>
+      <c r="AA23" s="173"/>
+      <c r="AB23" s="173"/>
+      <c r="AC23" s="173"/>
+      <c r="AD23" s="173"/>
+      <c r="AE23" s="173"/>
+      <c r="AF23" s="173"/>
+      <c r="AG23" s="173"/>
+      <c r="AH23" s="173"/>
+      <c r="AI23" s="173"/>
+      <c r="AJ23" s="173"/>
+      <c r="AK23" s="173"/>
+      <c r="AL23" s="173"/>
+      <c r="AM23" s="174"/>
+      <c r="AN23" s="175"/>
+      <c r="AO23" s="176"/>
+      <c r="AP23" s="176"/>
+      <c r="AQ23" s="176"/>
+      <c r="AR23" s="177"/>
+      <c r="AS23" s="175"/>
+      <c r="AT23" s="176"/>
+      <c r="AU23" s="176"/>
+      <c r="AV23" s="176"/>
+      <c r="AW23" s="177"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="59"/>
-      <c r="B24" s="150"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="167"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="165"/>
-      <c r="P24" s="165"/>
-      <c r="Q24" s="165"/>
-      <c r="R24" s="166"/>
-      <c r="S24" s="160"/>
-      <c r="T24" s="160"/>
-      <c r="U24" s="160"/>
-      <c r="V24" s="161"/>
-      <c r="W24" s="162"/>
-      <c r="X24" s="162"/>
-      <c r="Y24" s="162"/>
-      <c r="Z24" s="162"/>
-      <c r="AA24" s="162"/>
-      <c r="AB24" s="162"/>
-      <c r="AC24" s="162"/>
-      <c r="AD24" s="162"/>
-      <c r="AE24" s="162"/>
-      <c r="AF24" s="162"/>
-      <c r="AG24" s="162"/>
-      <c r="AH24" s="162"/>
-      <c r="AI24" s="162"/>
-      <c r="AJ24" s="162"/>
-      <c r="AK24" s="162"/>
-      <c r="AL24" s="162"/>
-      <c r="AM24" s="163"/>
-      <c r="AN24" s="147"/>
-      <c r="AO24" s="148"/>
-      <c r="AP24" s="148"/>
-      <c r="AQ24" s="148"/>
-      <c r="AR24" s="149"/>
-      <c r="AS24" s="147"/>
-      <c r="AT24" s="148"/>
-      <c r="AU24" s="148"/>
-      <c r="AV24" s="148"/>
-      <c r="AW24" s="149"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="159"/>
+      <c r="K24" s="160"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="169"/>
+      <c r="N24" s="170"/>
+      <c r="O24" s="170"/>
+      <c r="P24" s="170"/>
+      <c r="Q24" s="170"/>
+      <c r="R24" s="171"/>
+      <c r="S24" s="156"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
+      <c r="V24" s="172"/>
+      <c r="W24" s="173"/>
+      <c r="X24" s="173"/>
+      <c r="Y24" s="173"/>
+      <c r="Z24" s="173"/>
+      <c r="AA24" s="173"/>
+      <c r="AB24" s="173"/>
+      <c r="AC24" s="173"/>
+      <c r="AD24" s="173"/>
+      <c r="AE24" s="173"/>
+      <c r="AF24" s="173"/>
+      <c r="AG24" s="173"/>
+      <c r="AH24" s="173"/>
+      <c r="AI24" s="173"/>
+      <c r="AJ24" s="173"/>
+      <c r="AK24" s="173"/>
+      <c r="AL24" s="173"/>
+      <c r="AM24" s="174"/>
+      <c r="AN24" s="175"/>
+      <c r="AO24" s="176"/>
+      <c r="AP24" s="176"/>
+      <c r="AQ24" s="176"/>
+      <c r="AR24" s="177"/>
+      <c r="AS24" s="175"/>
+      <c r="AT24" s="176"/>
+      <c r="AU24" s="176"/>
+      <c r="AV24" s="176"/>
+      <c r="AW24" s="177"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="59"/>
-      <c r="B25" s="150"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="164"/>
-      <c r="N25" s="165"/>
-      <c r="O25" s="165"/>
-      <c r="P25" s="165"/>
-      <c r="Q25" s="165"/>
-      <c r="R25" s="166"/>
-      <c r="S25" s="160"/>
-      <c r="T25" s="160"/>
-      <c r="U25" s="160"/>
-      <c r="V25" s="161"/>
-      <c r="W25" s="162"/>
-      <c r="X25" s="162"/>
-      <c r="Y25" s="162"/>
-      <c r="Z25" s="162"/>
-      <c r="AA25" s="162"/>
-      <c r="AB25" s="162"/>
-      <c r="AC25" s="162"/>
-      <c r="AD25" s="162"/>
-      <c r="AE25" s="162"/>
-      <c r="AF25" s="162"/>
-      <c r="AG25" s="162"/>
-      <c r="AH25" s="162"/>
-      <c r="AI25" s="162"/>
-      <c r="AJ25" s="162"/>
-      <c r="AK25" s="162"/>
-      <c r="AL25" s="162"/>
-      <c r="AM25" s="163"/>
-      <c r="AN25" s="147"/>
-      <c r="AO25" s="148"/>
-      <c r="AP25" s="148"/>
-      <c r="AQ25" s="148"/>
-      <c r="AR25" s="149"/>
-      <c r="AS25" s="147"/>
-      <c r="AT25" s="148"/>
-      <c r="AU25" s="148"/>
-      <c r="AV25" s="148"/>
-      <c r="AW25" s="149"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="170"/>
+      <c r="O25" s="170"/>
+      <c r="P25" s="170"/>
+      <c r="Q25" s="170"/>
+      <c r="R25" s="171"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="172"/>
+      <c r="W25" s="173"/>
+      <c r="X25" s="173"/>
+      <c r="Y25" s="173"/>
+      <c r="Z25" s="173"/>
+      <c r="AA25" s="173"/>
+      <c r="AB25" s="173"/>
+      <c r="AC25" s="173"/>
+      <c r="AD25" s="173"/>
+      <c r="AE25" s="173"/>
+      <c r="AF25" s="173"/>
+      <c r="AG25" s="173"/>
+      <c r="AH25" s="173"/>
+      <c r="AI25" s="173"/>
+      <c r="AJ25" s="173"/>
+      <c r="AK25" s="173"/>
+      <c r="AL25" s="173"/>
+      <c r="AM25" s="174"/>
+      <c r="AN25" s="175"/>
+      <c r="AO25" s="176"/>
+      <c r="AP25" s="176"/>
+      <c r="AQ25" s="176"/>
+      <c r="AR25" s="177"/>
+      <c r="AS25" s="175"/>
+      <c r="AT25" s="176"/>
+      <c r="AU25" s="176"/>
+      <c r="AV25" s="176"/>
+      <c r="AW25" s="177"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="59"/>
-      <c r="B26" s="150"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="164"/>
-      <c r="N26" s="165"/>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="166"/>
-      <c r="S26" s="160"/>
-      <c r="T26" s="160"/>
-      <c r="U26" s="160"/>
-      <c r="V26" s="161"/>
-      <c r="W26" s="162"/>
-      <c r="X26" s="162"/>
-      <c r="Y26" s="162"/>
-      <c r="Z26" s="162"/>
-      <c r="AA26" s="162"/>
-      <c r="AB26" s="162"/>
-      <c r="AC26" s="162"/>
-      <c r="AD26" s="162"/>
-      <c r="AE26" s="162"/>
-      <c r="AF26" s="162"/>
-      <c r="AG26" s="162"/>
-      <c r="AH26" s="162"/>
-      <c r="AI26" s="162"/>
-      <c r="AJ26" s="162"/>
-      <c r="AK26" s="162"/>
-      <c r="AL26" s="162"/>
-      <c r="AM26" s="163"/>
-      <c r="AN26" s="147"/>
-      <c r="AO26" s="148"/>
-      <c r="AP26" s="148"/>
-      <c r="AQ26" s="148"/>
-      <c r="AR26" s="149"/>
-      <c r="AS26" s="147"/>
-      <c r="AT26" s="148"/>
-      <c r="AU26" s="148"/>
-      <c r="AV26" s="148"/>
-      <c r="AW26" s="149"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="170"/>
+      <c r="O26" s="170"/>
+      <c r="P26" s="170"/>
+      <c r="Q26" s="170"/>
+      <c r="R26" s="171"/>
+      <c r="S26" s="156"/>
+      <c r="T26" s="156"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="172"/>
+      <c r="W26" s="173"/>
+      <c r="X26" s="173"/>
+      <c r="Y26" s="173"/>
+      <c r="Z26" s="173"/>
+      <c r="AA26" s="173"/>
+      <c r="AB26" s="173"/>
+      <c r="AC26" s="173"/>
+      <c r="AD26" s="173"/>
+      <c r="AE26" s="173"/>
+      <c r="AF26" s="173"/>
+      <c r="AG26" s="173"/>
+      <c r="AH26" s="173"/>
+      <c r="AI26" s="173"/>
+      <c r="AJ26" s="173"/>
+      <c r="AK26" s="173"/>
+      <c r="AL26" s="173"/>
+      <c r="AM26" s="174"/>
+      <c r="AN26" s="175"/>
+      <c r="AO26" s="176"/>
+      <c r="AP26" s="176"/>
+      <c r="AQ26" s="176"/>
+      <c r="AR26" s="177"/>
+      <c r="AS26" s="175"/>
+      <c r="AT26" s="176"/>
+      <c r="AU26" s="176"/>
+      <c r="AV26" s="176"/>
+      <c r="AW26" s="177"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="59"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="164"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="165"/>
-      <c r="P27" s="165"/>
-      <c r="Q27" s="165"/>
-      <c r="R27" s="166"/>
-      <c r="S27" s="160"/>
-      <c r="T27" s="160"/>
-      <c r="U27" s="160"/>
-      <c r="V27" s="161"/>
-      <c r="W27" s="162"/>
-      <c r="X27" s="162"/>
-      <c r="Y27" s="162"/>
-      <c r="Z27" s="162"/>
-      <c r="AA27" s="162"/>
-      <c r="AB27" s="162"/>
-      <c r="AC27" s="162"/>
-      <c r="AD27" s="162"/>
-      <c r="AE27" s="162"/>
-      <c r="AF27" s="162"/>
-      <c r="AG27" s="162"/>
-      <c r="AH27" s="162"/>
-      <c r="AI27" s="162"/>
-      <c r="AJ27" s="162"/>
-      <c r="AK27" s="162"/>
-      <c r="AL27" s="162"/>
-      <c r="AM27" s="163"/>
-      <c r="AN27" s="147"/>
-      <c r="AO27" s="148"/>
-      <c r="AP27" s="148"/>
-      <c r="AQ27" s="148"/>
-      <c r="AR27" s="149"/>
-      <c r="AS27" s="147"/>
-      <c r="AT27" s="148"/>
-      <c r="AU27" s="148"/>
-      <c r="AV27" s="148"/>
-      <c r="AW27" s="149"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="180"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="170"/>
+      <c r="Q27" s="170"/>
+      <c r="R27" s="171"/>
+      <c r="S27" s="156"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="172"/>
+      <c r="W27" s="173"/>
+      <c r="X27" s="173"/>
+      <c r="Y27" s="173"/>
+      <c r="Z27" s="173"/>
+      <c r="AA27" s="173"/>
+      <c r="AB27" s="173"/>
+      <c r="AC27" s="173"/>
+      <c r="AD27" s="173"/>
+      <c r="AE27" s="173"/>
+      <c r="AF27" s="173"/>
+      <c r="AG27" s="173"/>
+      <c r="AH27" s="173"/>
+      <c r="AI27" s="173"/>
+      <c r="AJ27" s="173"/>
+      <c r="AK27" s="173"/>
+      <c r="AL27" s="173"/>
+      <c r="AM27" s="174"/>
+      <c r="AN27" s="175"/>
+      <c r="AO27" s="176"/>
+      <c r="AP27" s="176"/>
+      <c r="AQ27" s="176"/>
+      <c r="AR27" s="177"/>
+      <c r="AS27" s="175"/>
+      <c r="AT27" s="176"/>
+      <c r="AU27" s="176"/>
+      <c r="AV27" s="176"/>
+      <c r="AW27" s="177"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="59"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="167"/>
-      <c r="N28" s="165"/>
-      <c r="O28" s="165"/>
-      <c r="P28" s="165"/>
-      <c r="Q28" s="165"/>
-      <c r="R28" s="166"/>
-      <c r="S28" s="160"/>
-      <c r="T28" s="160"/>
-      <c r="U28" s="160"/>
-      <c r="V28" s="161"/>
-      <c r="W28" s="162"/>
-      <c r="X28" s="162"/>
-      <c r="Y28" s="162"/>
-      <c r="Z28" s="162"/>
-      <c r="AA28" s="162"/>
-      <c r="AB28" s="162"/>
-      <c r="AC28" s="162"/>
-      <c r="AD28" s="162"/>
-      <c r="AE28" s="162"/>
-      <c r="AF28" s="162"/>
-      <c r="AG28" s="162"/>
-      <c r="AH28" s="162"/>
-      <c r="AI28" s="162"/>
-      <c r="AJ28" s="162"/>
-      <c r="AK28" s="162"/>
-      <c r="AL28" s="162"/>
-      <c r="AM28" s="163"/>
-      <c r="AN28" s="147"/>
-      <c r="AO28" s="148"/>
-      <c r="AP28" s="148"/>
-      <c r="AQ28" s="148"/>
-      <c r="AR28" s="149"/>
-      <c r="AS28" s="147"/>
-      <c r="AT28" s="148"/>
-      <c r="AU28" s="148"/>
-      <c r="AV28" s="148"/>
-      <c r="AW28" s="149"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="161"/>
+      <c r="M28" s="169"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="170"/>
+      <c r="P28" s="170"/>
+      <c r="Q28" s="170"/>
+      <c r="R28" s="171"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="172"/>
+      <c r="W28" s="173"/>
+      <c r="X28" s="173"/>
+      <c r="Y28" s="173"/>
+      <c r="Z28" s="173"/>
+      <c r="AA28" s="173"/>
+      <c r="AB28" s="173"/>
+      <c r="AC28" s="173"/>
+      <c r="AD28" s="173"/>
+      <c r="AE28" s="173"/>
+      <c r="AF28" s="173"/>
+      <c r="AG28" s="173"/>
+      <c r="AH28" s="173"/>
+      <c r="AI28" s="173"/>
+      <c r="AJ28" s="173"/>
+      <c r="AK28" s="173"/>
+      <c r="AL28" s="173"/>
+      <c r="AM28" s="174"/>
+      <c r="AN28" s="175"/>
+      <c r="AO28" s="176"/>
+      <c r="AP28" s="176"/>
+      <c r="AQ28" s="176"/>
+      <c r="AR28" s="177"/>
+      <c r="AS28" s="175"/>
+      <c r="AT28" s="176"/>
+      <c r="AU28" s="176"/>
+      <c r="AV28" s="176"/>
+      <c r="AW28" s="177"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="59"/>
-      <c r="B29" s="150"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="167"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="165"/>
-      <c r="P29" s="165"/>
-      <c r="Q29" s="165"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="160"/>
-      <c r="T29" s="160"/>
-      <c r="U29" s="160"/>
-      <c r="V29" s="161"/>
-      <c r="W29" s="162"/>
-      <c r="X29" s="162"/>
-      <c r="Y29" s="162"/>
-      <c r="Z29" s="162"/>
-      <c r="AA29" s="162"/>
-      <c r="AB29" s="162"/>
-      <c r="AC29" s="162"/>
-      <c r="AD29" s="162"/>
-      <c r="AE29" s="162"/>
-      <c r="AF29" s="162"/>
-      <c r="AG29" s="162"/>
-      <c r="AH29" s="162"/>
-      <c r="AI29" s="162"/>
-      <c r="AJ29" s="162"/>
-      <c r="AK29" s="162"/>
-      <c r="AL29" s="162"/>
-      <c r="AM29" s="163"/>
-      <c r="AN29" s="147"/>
-      <c r="AO29" s="148"/>
-      <c r="AP29" s="148"/>
-      <c r="AQ29" s="148"/>
-      <c r="AR29" s="149"/>
-      <c r="AS29" s="147"/>
-      <c r="AT29" s="148"/>
-      <c r="AU29" s="148"/>
-      <c r="AV29" s="148"/>
-      <c r="AW29" s="149"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="169"/>
+      <c r="N29" s="170"/>
+      <c r="O29" s="170"/>
+      <c r="P29" s="170"/>
+      <c r="Q29" s="170"/>
+      <c r="R29" s="171"/>
+      <c r="S29" s="156"/>
+      <c r="T29" s="156"/>
+      <c r="U29" s="156"/>
+      <c r="V29" s="172"/>
+      <c r="W29" s="173"/>
+      <c r="X29" s="173"/>
+      <c r="Y29" s="173"/>
+      <c r="Z29" s="173"/>
+      <c r="AA29" s="173"/>
+      <c r="AB29" s="173"/>
+      <c r="AC29" s="173"/>
+      <c r="AD29" s="173"/>
+      <c r="AE29" s="173"/>
+      <c r="AF29" s="173"/>
+      <c r="AG29" s="173"/>
+      <c r="AH29" s="173"/>
+      <c r="AI29" s="173"/>
+      <c r="AJ29" s="173"/>
+      <c r="AK29" s="173"/>
+      <c r="AL29" s="173"/>
+      <c r="AM29" s="174"/>
+      <c r="AN29" s="175"/>
+      <c r="AO29" s="176"/>
+      <c r="AP29" s="176"/>
+      <c r="AQ29" s="176"/>
+      <c r="AR29" s="177"/>
+      <c r="AS29" s="175"/>
+      <c r="AT29" s="176"/>
+      <c r="AU29" s="176"/>
+      <c r="AV29" s="176"/>
+      <c r="AW29" s="177"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="59"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="164"/>
-      <c r="N30" s="165"/>
-      <c r="O30" s="165"/>
-      <c r="P30" s="165"/>
-      <c r="Q30" s="165"/>
-      <c r="R30" s="166"/>
-      <c r="S30" s="160"/>
-      <c r="T30" s="160"/>
-      <c r="U30" s="160"/>
-      <c r="V30" s="161"/>
-      <c r="W30" s="162"/>
-      <c r="X30" s="162"/>
-      <c r="Y30" s="162"/>
-      <c r="Z30" s="162"/>
-      <c r="AA30" s="162"/>
-      <c r="AB30" s="162"/>
-      <c r="AC30" s="162"/>
-      <c r="AD30" s="162"/>
-      <c r="AE30" s="162"/>
-      <c r="AF30" s="162"/>
-      <c r="AG30" s="162"/>
-      <c r="AH30" s="162"/>
-      <c r="AI30" s="162"/>
-      <c r="AJ30" s="162"/>
-      <c r="AK30" s="162"/>
-      <c r="AL30" s="162"/>
-      <c r="AM30" s="163"/>
-      <c r="AN30" s="147"/>
-      <c r="AO30" s="148"/>
-      <c r="AP30" s="148"/>
-      <c r="AQ30" s="148"/>
-      <c r="AR30" s="149"/>
-      <c r="AS30" s="147"/>
-      <c r="AT30" s="148"/>
-      <c r="AU30" s="148"/>
-      <c r="AV30" s="148"/>
-      <c r="AW30" s="149"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="161"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="170"/>
+      <c r="O30" s="170"/>
+      <c r="P30" s="170"/>
+      <c r="Q30" s="170"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="156"/>
+      <c r="T30" s="156"/>
+      <c r="U30" s="156"/>
+      <c r="V30" s="172"/>
+      <c r="W30" s="173"/>
+      <c r="X30" s="173"/>
+      <c r="Y30" s="173"/>
+      <c r="Z30" s="173"/>
+      <c r="AA30" s="173"/>
+      <c r="AB30" s="173"/>
+      <c r="AC30" s="173"/>
+      <c r="AD30" s="173"/>
+      <c r="AE30" s="173"/>
+      <c r="AF30" s="173"/>
+      <c r="AG30" s="173"/>
+      <c r="AH30" s="173"/>
+      <c r="AI30" s="173"/>
+      <c r="AJ30" s="173"/>
+      <c r="AK30" s="173"/>
+      <c r="AL30" s="173"/>
+      <c r="AM30" s="174"/>
+      <c r="AN30" s="175"/>
+      <c r="AO30" s="176"/>
+      <c r="AP30" s="176"/>
+      <c r="AQ30" s="176"/>
+      <c r="AR30" s="177"/>
+      <c r="AS30" s="175"/>
+      <c r="AT30" s="176"/>
+      <c r="AU30" s="176"/>
+      <c r="AV30" s="176"/>
+      <c r="AW30" s="177"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="59"/>
-      <c r="B31" s="150"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="164"/>
-      <c r="N31" s="165"/>
-      <c r="O31" s="165"/>
-      <c r="P31" s="165"/>
-      <c r="Q31" s="165"/>
-      <c r="R31" s="166"/>
-      <c r="S31" s="160"/>
-      <c r="T31" s="160"/>
-      <c r="U31" s="160"/>
-      <c r="V31" s="161"/>
-      <c r="W31" s="162"/>
-      <c r="X31" s="162"/>
-      <c r="Y31" s="162"/>
-      <c r="Z31" s="162"/>
-      <c r="AA31" s="162"/>
-      <c r="AB31" s="162"/>
-      <c r="AC31" s="162"/>
-      <c r="AD31" s="162"/>
-      <c r="AE31" s="162"/>
-      <c r="AF31" s="162"/>
-      <c r="AG31" s="162"/>
-      <c r="AH31" s="162"/>
-      <c r="AI31" s="162"/>
-      <c r="AJ31" s="162"/>
-      <c r="AK31" s="162"/>
-      <c r="AL31" s="162"/>
-      <c r="AM31" s="163"/>
-      <c r="AN31" s="147"/>
-      <c r="AO31" s="148"/>
-      <c r="AP31" s="148"/>
-      <c r="AQ31" s="148"/>
-      <c r="AR31" s="149"/>
-      <c r="AS31" s="147"/>
-      <c r="AT31" s="148"/>
-      <c r="AU31" s="148"/>
-      <c r="AV31" s="148"/>
-      <c r="AW31" s="149"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="159"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="161"/>
+      <c r="M31" s="180"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="170"/>
+      <c r="Q31" s="170"/>
+      <c r="R31" s="171"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="156"/>
+      <c r="U31" s="156"/>
+      <c r="V31" s="172"/>
+      <c r="W31" s="173"/>
+      <c r="X31" s="173"/>
+      <c r="Y31" s="173"/>
+      <c r="Z31" s="173"/>
+      <c r="AA31" s="173"/>
+      <c r="AB31" s="173"/>
+      <c r="AC31" s="173"/>
+      <c r="AD31" s="173"/>
+      <c r="AE31" s="173"/>
+      <c r="AF31" s="173"/>
+      <c r="AG31" s="173"/>
+      <c r="AH31" s="173"/>
+      <c r="AI31" s="173"/>
+      <c r="AJ31" s="173"/>
+      <c r="AK31" s="173"/>
+      <c r="AL31" s="173"/>
+      <c r="AM31" s="174"/>
+      <c r="AN31" s="175"/>
+      <c r="AO31" s="176"/>
+      <c r="AP31" s="176"/>
+      <c r="AQ31" s="176"/>
+      <c r="AR31" s="177"/>
+      <c r="AS31" s="175"/>
+      <c r="AT31" s="176"/>
+      <c r="AU31" s="176"/>
+      <c r="AV31" s="176"/>
+      <c r="AW31" s="177"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="59"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="154"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="164"/>
-      <c r="N32" s="165"/>
-      <c r="O32" s="165"/>
-      <c r="P32" s="165"/>
-      <c r="Q32" s="165"/>
-      <c r="R32" s="166"/>
-      <c r="S32" s="160"/>
-      <c r="T32" s="160"/>
-      <c r="U32" s="160"/>
-      <c r="V32" s="161"/>
-      <c r="W32" s="162"/>
-      <c r="X32" s="162"/>
-      <c r="Y32" s="162"/>
-      <c r="Z32" s="162"/>
-      <c r="AA32" s="162"/>
-      <c r="AB32" s="162"/>
-      <c r="AC32" s="162"/>
-      <c r="AD32" s="162"/>
-      <c r="AE32" s="162"/>
-      <c r="AF32" s="162"/>
-      <c r="AG32" s="162"/>
-      <c r="AH32" s="162"/>
-      <c r="AI32" s="162"/>
-      <c r="AJ32" s="162"/>
-      <c r="AK32" s="162"/>
-      <c r="AL32" s="162"/>
-      <c r="AM32" s="163"/>
-      <c r="AN32" s="147"/>
-      <c r="AO32" s="148"/>
-      <c r="AP32" s="148"/>
-      <c r="AQ32" s="148"/>
-      <c r="AR32" s="149"/>
-      <c r="AS32" s="147"/>
-      <c r="AT32" s="148"/>
-      <c r="AU32" s="148"/>
-      <c r="AV32" s="148"/>
-      <c r="AW32" s="149"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="180"/>
+      <c r="N32" s="170"/>
+      <c r="O32" s="170"/>
+      <c r="P32" s="170"/>
+      <c r="Q32" s="170"/>
+      <c r="R32" s="171"/>
+      <c r="S32" s="156"/>
+      <c r="T32" s="156"/>
+      <c r="U32" s="156"/>
+      <c r="V32" s="172"/>
+      <c r="W32" s="173"/>
+      <c r="X32" s="173"/>
+      <c r="Y32" s="173"/>
+      <c r="Z32" s="173"/>
+      <c r="AA32" s="173"/>
+      <c r="AB32" s="173"/>
+      <c r="AC32" s="173"/>
+      <c r="AD32" s="173"/>
+      <c r="AE32" s="173"/>
+      <c r="AF32" s="173"/>
+      <c r="AG32" s="173"/>
+      <c r="AH32" s="173"/>
+      <c r="AI32" s="173"/>
+      <c r="AJ32" s="173"/>
+      <c r="AK32" s="173"/>
+      <c r="AL32" s="173"/>
+      <c r="AM32" s="174"/>
+      <c r="AN32" s="175"/>
+      <c r="AO32" s="176"/>
+      <c r="AP32" s="176"/>
+      <c r="AQ32" s="176"/>
+      <c r="AR32" s="177"/>
+      <c r="AS32" s="175"/>
+      <c r="AT32" s="176"/>
+      <c r="AU32" s="176"/>
+      <c r="AV32" s="176"/>
+      <c r="AW32" s="177"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="150"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="164"/>
-      <c r="N33" s="165"/>
-      <c r="O33" s="165"/>
-      <c r="P33" s="165"/>
-      <c r="Q33" s="165"/>
-      <c r="R33" s="166"/>
-      <c r="S33" s="160"/>
-      <c r="T33" s="160"/>
-      <c r="U33" s="160"/>
-      <c r="V33" s="161"/>
-      <c r="W33" s="162"/>
-      <c r="X33" s="162"/>
-      <c r="Y33" s="162"/>
-      <c r="Z33" s="162"/>
-      <c r="AA33" s="162"/>
-      <c r="AB33" s="162"/>
-      <c r="AC33" s="162"/>
-      <c r="AD33" s="162"/>
-      <c r="AE33" s="162"/>
-      <c r="AF33" s="162"/>
-      <c r="AG33" s="162"/>
-      <c r="AH33" s="162"/>
-      <c r="AI33" s="162"/>
-      <c r="AJ33" s="162"/>
-      <c r="AK33" s="162"/>
-      <c r="AL33" s="162"/>
-      <c r="AM33" s="163"/>
-      <c r="AN33" s="147"/>
-      <c r="AO33" s="148"/>
-      <c r="AP33" s="148"/>
-      <c r="AQ33" s="148"/>
-      <c r="AR33" s="149"/>
-      <c r="AS33" s="147"/>
-      <c r="AT33" s="148"/>
-      <c r="AU33" s="148"/>
-      <c r="AV33" s="148"/>
-      <c r="AW33" s="149"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="159"/>
+      <c r="K33" s="160"/>
+      <c r="L33" s="161"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="170"/>
+      <c r="Q33" s="170"/>
+      <c r="R33" s="171"/>
+      <c r="S33" s="156"/>
+      <c r="T33" s="156"/>
+      <c r="U33" s="156"/>
+      <c r="V33" s="172"/>
+      <c r="W33" s="173"/>
+      <c r="X33" s="173"/>
+      <c r="Y33" s="173"/>
+      <c r="Z33" s="173"/>
+      <c r="AA33" s="173"/>
+      <c r="AB33" s="173"/>
+      <c r="AC33" s="173"/>
+      <c r="AD33" s="173"/>
+      <c r="AE33" s="173"/>
+      <c r="AF33" s="173"/>
+      <c r="AG33" s="173"/>
+      <c r="AH33" s="173"/>
+      <c r="AI33" s="173"/>
+      <c r="AJ33" s="173"/>
+      <c r="AK33" s="173"/>
+      <c r="AL33" s="173"/>
+      <c r="AM33" s="174"/>
+      <c r="AN33" s="175"/>
+      <c r="AO33" s="176"/>
+      <c r="AP33" s="176"/>
+      <c r="AQ33" s="176"/>
+      <c r="AR33" s="177"/>
+      <c r="AS33" s="175"/>
+      <c r="AT33" s="176"/>
+      <c r="AU33" s="176"/>
+      <c r="AV33" s="176"/>
+      <c r="AW33" s="177"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="150"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="154"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="158"/>
-      <c r="O34" s="158"/>
-      <c r="P34" s="158"/>
-      <c r="Q34" s="158"/>
-      <c r="R34" s="159"/>
-      <c r="S34" s="160"/>
-      <c r="T34" s="160"/>
-      <c r="U34" s="160"/>
-      <c r="V34" s="161"/>
-      <c r="W34" s="162"/>
-      <c r="X34" s="162"/>
-      <c r="Y34" s="162"/>
-      <c r="Z34" s="162"/>
-      <c r="AA34" s="162"/>
-      <c r="AB34" s="162"/>
-      <c r="AC34" s="162"/>
-      <c r="AD34" s="162"/>
-      <c r="AE34" s="162"/>
-      <c r="AF34" s="162"/>
-      <c r="AG34" s="162"/>
-      <c r="AH34" s="162"/>
-      <c r="AI34" s="162"/>
-      <c r="AJ34" s="162"/>
-      <c r="AK34" s="162"/>
-      <c r="AL34" s="162"/>
-      <c r="AM34" s="163"/>
-      <c r="AN34" s="147"/>
-      <c r="AO34" s="148"/>
-      <c r="AP34" s="148"/>
-      <c r="AQ34" s="148"/>
-      <c r="AR34" s="149"/>
-      <c r="AS34" s="147"/>
-      <c r="AT34" s="148"/>
-      <c r="AU34" s="148"/>
-      <c r="AV34" s="148"/>
-      <c r="AW34" s="149"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="159"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="161"/>
+      <c r="M34" s="184"/>
+      <c r="N34" s="185"/>
+      <c r="O34" s="185"/>
+      <c r="P34" s="185"/>
+      <c r="Q34" s="185"/>
+      <c r="R34" s="186"/>
+      <c r="S34" s="156"/>
+      <c r="T34" s="156"/>
+      <c r="U34" s="156"/>
+      <c r="V34" s="172"/>
+      <c r="W34" s="173"/>
+      <c r="X34" s="173"/>
+      <c r="Y34" s="173"/>
+      <c r="Z34" s="173"/>
+      <c r="AA34" s="173"/>
+      <c r="AB34" s="173"/>
+      <c r="AC34" s="173"/>
+      <c r="AD34" s="173"/>
+      <c r="AE34" s="173"/>
+      <c r="AF34" s="173"/>
+      <c r="AG34" s="173"/>
+      <c r="AH34" s="173"/>
+      <c r="AI34" s="173"/>
+      <c r="AJ34" s="173"/>
+      <c r="AK34" s="173"/>
+      <c r="AL34" s="173"/>
+      <c r="AM34" s="174"/>
+      <c r="AN34" s="175"/>
+      <c r="AO34" s="176"/>
+      <c r="AP34" s="176"/>
+      <c r="AQ34" s="176"/>
+      <c r="AR34" s="177"/>
+      <c r="AS34" s="175"/>
+      <c r="AT34" s="176"/>
+      <c r="AU34" s="176"/>
+      <c r="AV34" s="176"/>
+      <c r="AW34" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -6246,230 +6475,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6601,14 +6615,14 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="39"/>
       <c r="R2" s="100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S2" s="101"/>
       <c r="T2" s="101"/>
       <c r="U2" s="101"/>
       <c r="V2" s="102"/>
       <c r="W2" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X2" s="40"/>
       <c r="Y2" s="40"/>
@@ -6730,7 +6744,7 @@
     </row>
     <row r="8" spans="1:59" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="85"/>
       <c r="D8" s="85"/>
@@ -8264,7 +8278,7 @@
     </row>
     <row r="48" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -8399,11 +8413,11 @@
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
       <c r="B50" s="195" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" s="196"/>
       <c r="D50" s="94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E50" s="95"/>
       <c r="F50" s="95"/>
@@ -8412,7 +8426,7 @@
       <c r="I50" s="95"/>
       <c r="J50" s="96"/>
       <c r="K50" s="94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L50" s="95"/>
       <c r="M50" s="95"/>
@@ -8424,7 +8438,7 @@
       <c r="S50" s="95"/>
       <c r="T50" s="96"/>
       <c r="U50" s="94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V50" s="95"/>
       <c r="W50" s="95"/>
@@ -8436,23 +8450,23 @@
       <c r="AC50" s="95"/>
       <c r="AD50" s="96"/>
       <c r="AE50" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF50" s="96"/>
       <c r="AG50" s="94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AH50" s="96"/>
       <c r="AI50" s="94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ50" s="96"/>
       <c r="AK50" s="94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AL50" s="96"/>
       <c r="AM50" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AN50" s="95"/>
       <c r="AO50" s="95"/>
@@ -8489,7 +8503,7 @@
       </c>
       <c r="C51" s="198"/>
       <c r="D51" s="88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E51" s="92"/>
       <c r="F51" s="92"/>
@@ -8498,7 +8512,7 @@
       <c r="I51" s="92"/>
       <c r="J51" s="93"/>
       <c r="K51" s="88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L51" s="92"/>
       <c r="M51" s="92"/>
@@ -8520,23 +8534,23 @@
       <c r="AC51" s="92"/>
       <c r="AD51" s="93"/>
       <c r="AE51" s="193" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF51" s="194"/>
       <c r="AG51" s="193" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH51" s="194"/>
       <c r="AI51" s="193" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ51" s="194"/>
       <c r="AK51" s="193" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL51" s="194"/>
       <c r="AM51" s="89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AN51" s="90"/>
       <c r="AO51" s="90"/>
@@ -9075,72 +9089,72 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="180" t="s">
+      <c r="D6" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="180" t="s">
+      <c r="E6" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="180" t="s">
+      <c r="F6" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="180" t="s">
+      <c r="G6" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="180" t="s">
+      <c r="H6" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="210" t="s">
+      <c r="I6" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="210" t="s">
+      <c r="J6" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="180" t="s">
+      <c r="K6" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="180" t="s">
+      <c r="L6" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="180" t="s">
+      <c r="M6" s="149" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O6" s="71"/>
       <c r="P6" s="71"/>
-      <c r="Q6" s="210" t="s">
+      <c r="Q6" s="208" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
       <c r="N7" s="43" t="s">
         <v>79</v>
       </c>
       <c r="O7" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="P7" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q7" s="210"/>
+      <c r="Q7" s="208"/>
     </row>
     <row r="8" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -9199,13 +9213,13 @@
         <v>61</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>35</v>
@@ -9245,13 +9259,13 @@
         <v>62</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>35</v>
@@ -9291,13 +9305,13 @@
         <v>63</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>35</v>
@@ -9334,7 +9348,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>51</v>
@@ -9381,7 +9395,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>42</v>
@@ -9434,72 +9448,72 @@
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="180" t="s">
+      <c r="C16" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="180" t="s">
+      <c r="D16" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="180" t="s">
+      <c r="E16" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="180" t="s">
+      <c r="F16" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="180" t="s">
+      <c r="G16" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="180" t="s">
+      <c r="H16" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="208" t="s">
+      <c r="I16" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="210" t="s">
+      <c r="J16" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="180" t="s">
+      <c r="K16" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="180" t="s">
+      <c r="L16" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="180" t="s">
+      <c r="M16" s="149" t="s">
         <v>33</v>
       </c>
       <c r="N16" s="71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O16" s="71"/>
       <c r="P16" s="71"/>
-      <c r="Q16" s="208" t="s">
+      <c r="Q16" s="209" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="209"/>
-      <c r="J17" s="210"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="210"/>
+      <c r="J17" s="208"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="149"/>
       <c r="N17" s="43" t="s">
         <v>79</v>
       </c>
       <c r="O17" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="P17" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q17" s="209"/>
+      <c r="Q17" s="210"/>
     </row>
     <row r="18" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
@@ -9508,16 +9522,16 @@
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>47</v>
@@ -9535,15 +9549,17 @@
         <v>35</v>
       </c>
       <c r="M18" s="8"/>
-      <c r="N18" s="7"/>
+      <c r="N18" s="225" t="s">
+        <v>301</v>
+      </c>
       <c r="O18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q18" s="87" t="s">
-        <v>82</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
@@ -9559,72 +9575,72 @@
     <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="63"/>
-      <c r="C21" s="180" t="s">
+      <c r="C21" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="180" t="s">
+      <c r="D21" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="180" t="s">
+      <c r="E21" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="180" t="s">
+      <c r="F21" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="180" t="s">
+      <c r="G21" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="180" t="s">
+      <c r="H21" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="210" t="s">
+      <c r="I21" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="210" t="s">
+      <c r="J21" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="180" t="s">
+      <c r="K21" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="180" t="s">
+      <c r="L21" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="180" t="s">
+      <c r="M21" s="149" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O21" s="71"/>
       <c r="P21" s="71"/>
-      <c r="Q21" s="210" t="s">
+      <c r="Q21" s="208" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="63"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="210"/>
-      <c r="J22" s="210"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="208"/>
+      <c r="K22" s="149"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="149"/>
       <c r="N22" s="43" t="s">
         <v>79</v>
       </c>
       <c r="O22" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="P22" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q22" s="210"/>
+      <c r="Q22" s="208"/>
     </row>
     <row r="23" spans="1:18" s="50" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="56"/>
@@ -9701,43 +9717,43 @@
         <v>2</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="I25" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="123"/>
@@ -9749,31 +9765,31 @@
         <v>3</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -9781,7 +9797,7 @@
         <v>35</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q26" s="7"/>
     </row>
@@ -9792,31 +9808,31 @@
         <v>4</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -9824,10 +9840,10 @@
         <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
@@ -9837,44 +9853,44 @@
         <v>5</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I28" s="7">
         <v>50</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
@@ -9884,13 +9900,13 @@
         <v>6</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>49</v>
@@ -9911,14 +9927,14 @@
         <v>34</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q29" s="7"/>
     </row>
@@ -9929,13 +9945,13 @@
         <v>7</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>49</v>
@@ -9948,20 +9964,20 @@
         <v>34</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>34</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q30" s="7"/>
     </row>
@@ -9972,41 +9988,41 @@
         <v>8</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="H31" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I31" s="7">
         <v>20</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7"/>
     </row>
@@ -10017,13 +10033,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>49</v>
@@ -10035,23 +10051,23 @@
         <v>20</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q32" s="7"/>
     </row>
@@ -10062,13 +10078,13 @@
         <v>10</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>49</v>
@@ -10080,23 +10096,23 @@
         <v>50</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q33" s="7"/>
     </row>
@@ -10107,13 +10123,13 @@
         <v>11</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>49</v>
@@ -10125,23 +10141,23 @@
         <v>20</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q34" s="7"/>
     </row>
@@ -10152,13 +10168,13 @@
         <v>12</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>49</v>
@@ -10170,23 +10186,23 @@
         <v>20</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q35" s="7"/>
     </row>
@@ -10197,41 +10213,41 @@
         <v>13</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I36" s="7">
         <v>50</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="124"/>
@@ -10258,78 +10274,78 @@
     <row r="38" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="63"/>
-      <c r="C39" s="180" t="s">
+      <c r="C39" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="180" t="s">
+      <c r="D39" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="180" t="s">
+      <c r="E39" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="180" t="s">
+      <c r="F39" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="180" t="s">
+      <c r="G39" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="180" t="s">
+      <c r="H39" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="I39" s="210" t="s">
+      <c r="I39" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="J39" s="210" t="s">
+      <c r="J39" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="K39" s="180" t="s">
+      <c r="K39" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="L39" s="180" t="s">
+      <c r="L39" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="M39" s="180" t="s">
+      <c r="M39" s="149" t="s">
         <v>33</v>
       </c>
       <c r="N39" s="71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O39" s="71"/>
       <c r="P39" s="71"/>
-      <c r="Q39" s="210" t="s">
+      <c r="Q39" s="208" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="15"/>
       <c r="B40" s="63"/>
-      <c r="C40" s="180"/>
-      <c r="D40" s="180"/>
-      <c r="E40" s="180"/>
-      <c r="F40" s="180"/>
-      <c r="G40" s="180"/>
-      <c r="H40" s="180"/>
-      <c r="I40" s="210"/>
-      <c r="J40" s="210"/>
-      <c r="K40" s="180"/>
-      <c r="L40" s="180"/>
-      <c r="M40" s="180"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="208"/>
+      <c r="J40" s="208"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
       <c r="N40" s="99" t="s">
         <v>79</v>
       </c>
       <c r="O40" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="P40" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="P40" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q40" s="210"/>
+      <c r="Q40" s="208"/>
     </row>
     <row r="41" spans="1:18" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
@@ -10338,42 +10354,42 @@
         <v>1</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="I41" s="7">
         <v>20</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="42.75" x14ac:dyDescent="0.15">
@@ -10383,19 +10399,19 @@
         <v>2</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G42" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="I42" s="7">
         <v>20</v>
@@ -10410,15 +10426,15 @@
         <v>35</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="8"/>
       <c r="P42" s="113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q42" s="118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
@@ -10428,19 +10444,19 @@
         <v>3</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G43" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="I43" s="7">
         <v>50</v>
@@ -10455,15 +10471,15 @@
         <v>35</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q43" s="118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
@@ -10473,19 +10489,19 @@
         <v>4</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E44" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="G44" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="I44" s="7">
         <v>50</v>
@@ -10500,12 +10516,12 @@
         <v>35</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q44" s="118"/>
     </row>
@@ -10516,37 +10532,37 @@
         <v>5</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E45" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>284</v>
-      </c>
       <c r="G45" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>35</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q45" s="118"/>
     </row>
@@ -10557,39 +10573,39 @@
         <v>6</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="H46" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I46" s="7">
         <v>20</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="P46" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q46" s="7"/>
     </row>
@@ -10600,39 +10616,39 @@
         <v>7</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="G47" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I47" s="7">
         <v>20</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
       <c r="P47" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q47" s="7"/>
     </row>
@@ -10643,39 +10659,39 @@
         <v>8</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="G48" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I48" s="7">
         <v>50</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q48" s="7"/>
     </row>
@@ -10686,39 +10702,39 @@
         <v>9</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="G49" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I49" s="7">
         <v>20</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
       <c r="P49" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q49" s="7"/>
     </row>
@@ -10729,39 +10745,39 @@
         <v>10</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="G50" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I50" s="7">
         <v>20</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q50" s="7"/>
     </row>
@@ -10772,39 +10788,39 @@
         <v>11</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="G51" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I51" s="7">
         <v>50</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
       <c r="P51" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q51" s="7"/>
       <c r="R51" s="124"/>
@@ -10824,38 +10840,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="I21:I22"/>
@@ -10872,6 +10856,38 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11162,20 +11178,20 @@
         <v>76</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
       <c r="G7" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
       <c r="L7" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
@@ -11219,20 +11235,20 @@
         <v>1</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="23"/>
       <c r="G8" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="23"/>
       <c r="L8" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
@@ -11283,7 +11299,7 @@
       <c r="J9" s="24"/>
       <c r="K9" s="76"/>
       <c r="L9" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
@@ -11376,7 +11392,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -11389,7 +11405,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="23"/>
       <c r="L11" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
@@ -11435,14 +11451,14 @@
       <c r="E12" s="24"/>
       <c r="F12" s="76"/>
       <c r="G12" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="76"/>
       <c r="L12" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
@@ -11494,7 +11510,7 @@
       <c r="K13" s="76"/>
       <c r="L13" s="24"/>
       <c r="M13" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N13" s="77"/>
       <c r="O13" s="77"/>
@@ -11539,7 +11555,7 @@
       <c r="G14" s="75"/>
       <c r="K14" s="76"/>
       <c r="M14" s="119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N14" s="119"/>
       <c r="O14" s="119"/>
@@ -11579,7 +11595,7 @@
       <c r="G15" s="75"/>
       <c r="K15" s="76"/>
       <c r="M15" s="119" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N15" s="119"/>
       <c r="O15" s="119"/>
@@ -11595,17 +11611,17 @@
       <c r="Y15" s="119"/>
       <c r="Z15" s="119"/>
       <c r="AA15" s="119" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB15" s="119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC15" s="119"/>
       <c r="AD15" s="119"/>
       <c r="AE15" s="119"/>
       <c r="AF15" s="119"/>
       <c r="AG15" s="119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AH15" s="119"/>
       <c r="AI15" s="119"/>
@@ -11680,7 +11696,7 @@
       <c r="K17" s="76"/>
       <c r="L17" s="24"/>
       <c r="M17" s="77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
@@ -11732,7 +11748,7 @@
       <c r="L18" s="24"/>
       <c r="M18" s="77"/>
       <c r="N18" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -11783,7 +11799,7 @@
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
       <c r="N19" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -11834,7 +11850,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -11925,20 +11941,20 @@
         <v>3</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="137"/>
       <c r="E22" s="137"/>
       <c r="F22" s="138"/>
       <c r="G22" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H22" s="137"/>
       <c r="I22" s="137"/>
       <c r="J22" s="137"/>
       <c r="K22" s="138"/>
       <c r="L22" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M22" s="137"/>
       <c r="N22" s="137"/>
@@ -11985,7 +12001,7 @@
       <c r="E23" s="137"/>
       <c r="F23" s="138"/>
       <c r="G23" s="75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H23" s="137"/>
       <c r="I23" s="137"/>
@@ -12085,20 +12101,20 @@
         <v>4</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D25" s="126"/>
       <c r="E25" s="126"/>
       <c r="F25" s="127"/>
       <c r="G25" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H25" s="126"/>
       <c r="I25" s="126"/>
       <c r="J25" s="126"/>
       <c r="K25" s="127"/>
       <c r="L25" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M25" s="126"/>
       <c r="N25" s="126"/>
@@ -12145,7 +12161,7 @@
       <c r="E26" s="126"/>
       <c r="F26" s="127"/>
       <c r="G26" s="75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H26" s="126"/>
       <c r="I26" s="126"/>
@@ -12245,20 +12261,20 @@
         <v>5</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D28" s="126"/>
       <c r="E28" s="126"/>
       <c r="F28" s="127"/>
       <c r="G28" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="126"/>
       <c r="I28" s="126"/>
       <c r="J28" s="126"/>
       <c r="K28" s="127"/>
       <c r="L28" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M28" s="126"/>
       <c r="N28" s="126"/>
@@ -12305,7 +12321,7 @@
       <c r="E29" s="126"/>
       <c r="F29" s="127"/>
       <c r="G29" s="75" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H29" s="126"/>
       <c r="I29" s="126"/>
@@ -12405,20 +12421,20 @@
         <v>6</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
       <c r="F31" s="23"/>
       <c r="G31" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="23"/>
       <c r="L31" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -12464,7 +12480,7 @@
       <c r="E32" s="24"/>
       <c r="F32" s="76"/>
       <c r="G32" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -12562,20 +12578,20 @@
         <v>7</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="23"/>
       <c r="G34" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
       <c r="K34" s="23"/>
       <c r="L34" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -12621,14 +12637,14 @@
       <c r="E35" s="24"/>
       <c r="F35" s="76"/>
       <c r="G35" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
       <c r="K35" s="76"/>
       <c r="L35" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M35" s="24"/>
       <c r="N35" s="24"/>
@@ -20186,7 +20202,7 @@
     </row>
     <row r="5" spans="1:52" ht="21" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="33"/>
@@ -20245,7 +20261,7 @@
         <v>76</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -20280,7 +20296,7 @@
       <c r="AB6" s="19"/>
       <c r="AC6" s="19"/>
       <c r="AD6" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
@@ -20303,11 +20319,11 @@
       <c r="AW6" s="20"/>
     </row>
     <row r="7" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="211">
+      <c r="B7" s="217">
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -20357,7 +20373,7 @@
       <c r="AW7" s="23"/>
     </row>
     <row r="8" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="212"/>
+      <c r="B8" s="218"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -20407,11 +20423,11 @@
       <c r="AW8" s="27"/>
     </row>
     <row r="9" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="211">
+      <c r="B9" s="217">
         <v>2</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" s="80"/>
       <c r="E9" s="80"/>
@@ -20442,7 +20458,7 @@
       <c r="AB9" s="22"/>
       <c r="AC9" s="22"/>
       <c r="AD9" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22"/>
@@ -20465,7 +20481,7 @@
       <c r="AW9" s="23"/>
     </row>
     <row r="10" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="212"/>
+      <c r="B10" s="218"/>
       <c r="C10" s="82"/>
       <c r="D10" s="83"/>
       <c r="E10" s="83"/>
@@ -20515,11 +20531,11 @@
       <c r="AW10" s="27"/>
     </row>
     <row r="11" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B11" s="211">
+      <c r="B11" s="217">
         <v>3</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -20528,7 +20544,7 @@
       <c r="H11" s="22"/>
       <c r="I11" s="23"/>
       <c r="J11" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
@@ -20542,7 +20558,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="23"/>
       <c r="T11" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
@@ -20554,7 +20570,7 @@
       <c r="AB11" s="22"/>
       <c r="AC11" s="22"/>
       <c r="AD11" s="140" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AE11" s="141"/>
       <c r="AF11" s="141"/>
@@ -20577,7 +20593,7 @@
       <c r="AW11" s="23"/>
     </row>
     <row r="12" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B12" s="212"/>
+      <c r="B12" s="218"/>
       <c r="C12" s="75"/>
       <c r="I12" s="76"/>
       <c r="J12" s="75"/>
@@ -20622,7 +20638,7 @@
       <c r="AW12" s="27"/>
     </row>
     <row r="13" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="211">
+      <c r="B13" s="217">
         <v>4</v>
       </c>
       <c r="C13" s="75"/>
@@ -20633,7 +20649,7 @@
       <c r="H13" s="24"/>
       <c r="I13" s="76"/>
       <c r="J13" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
@@ -20646,20 +20662,20 @@
       </c>
       <c r="R13" s="22"/>
       <c r="S13" s="23"/>
-      <c r="T13" s="213" t="s">
-        <v>132</v>
-      </c>
-      <c r="U13" s="214"/>
-      <c r="V13" s="214"/>
-      <c r="W13" s="214"/>
-      <c r="X13" s="214"/>
-      <c r="Y13" s="214"/>
-      <c r="Z13" s="214"/>
-      <c r="AA13" s="214"/>
-      <c r="AB13" s="214"/>
-      <c r="AC13" s="215"/>
+      <c r="T13" s="211" t="s">
+        <v>131</v>
+      </c>
+      <c r="U13" s="212"/>
+      <c r="V13" s="212"/>
+      <c r="W13" s="212"/>
+      <c r="X13" s="212"/>
+      <c r="Y13" s="212"/>
+      <c r="Z13" s="212"/>
+      <c r="AA13" s="212"/>
+      <c r="AB13" s="212"/>
+      <c r="AC13" s="213"/>
       <c r="AD13" s="140" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AE13" s="141"/>
       <c r="AF13" s="141"/>
@@ -20682,7 +20698,7 @@
       <c r="AW13" s="23"/>
     </row>
     <row r="14" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="212"/>
+      <c r="B14" s="218"/>
       <c r="C14" s="75"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -20700,16 +20716,16 @@
       <c r="Q14" s="25"/>
       <c r="R14" s="26"/>
       <c r="S14" s="27"/>
-      <c r="T14" s="216"/>
-      <c r="U14" s="217"/>
-      <c r="V14" s="217"/>
-      <c r="W14" s="217"/>
-      <c r="X14" s="217"/>
-      <c r="Y14" s="217"/>
-      <c r="Z14" s="217"/>
-      <c r="AA14" s="217"/>
-      <c r="AB14" s="217"/>
-      <c r="AC14" s="218"/>
+      <c r="T14" s="214"/>
+      <c r="U14" s="215"/>
+      <c r="V14" s="215"/>
+      <c r="W14" s="215"/>
+      <c r="X14" s="215"/>
+      <c r="Y14" s="215"/>
+      <c r="Z14" s="215"/>
+      <c r="AA14" s="215"/>
+      <c r="AB14" s="215"/>
+      <c r="AC14" s="216"/>
       <c r="AD14" s="142"/>
       <c r="AE14" s="143"/>
       <c r="AF14" s="143"/>
@@ -20732,7 +20748,7 @@
       <c r="AW14" s="27"/>
     </row>
     <row r="15" spans="1:52" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="211">
+      <c r="B15" s="217">
         <v>5</v>
       </c>
       <c r="C15" s="75"/>
@@ -20745,7 +20761,7 @@
       <c r="O15" s="22"/>
       <c r="P15" s="23"/>
       <c r="Q15" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R15" s="22"/>
       <c r="S15" s="23"/>
@@ -20760,7 +20776,7 @@
       <c r="AB15" s="132"/>
       <c r="AC15" s="133"/>
       <c r="AD15" s="140" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AE15" s="141"/>
       <c r="AF15" s="141"/>
@@ -20783,7 +20799,7 @@
       <c r="AW15" s="23"/>
     </row>
     <row r="16" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B16" s="212"/>
+      <c r="B16" s="218"/>
       <c r="C16" s="75"/>
       <c r="I16" s="76"/>
       <c r="J16" s="25"/>
@@ -20828,7 +20844,7 @@
       <c r="AW16" s="27"/>
     </row>
     <row r="17" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B17" s="211">
+      <c r="B17" s="217">
         <v>6</v>
       </c>
       <c r="C17" s="75"/>
@@ -20839,7 +20855,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="76"/>
       <c r="J17" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
@@ -20852,20 +20868,20 @@
       </c>
       <c r="R17" s="22"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="213" t="s">
+      <c r="T17" s="211" t="s">
+        <v>253</v>
+      </c>
+      <c r="U17" s="212"/>
+      <c r="V17" s="212"/>
+      <c r="W17" s="212"/>
+      <c r="X17" s="212"/>
+      <c r="Y17" s="212"/>
+      <c r="Z17" s="212"/>
+      <c r="AA17" s="212"/>
+      <c r="AB17" s="212"/>
+      <c r="AC17" s="213"/>
+      <c r="AD17" s="140" t="s">
         <v>254</v>
-      </c>
-      <c r="U17" s="214"/>
-      <c r="V17" s="214"/>
-      <c r="W17" s="214"/>
-      <c r="X17" s="214"/>
-      <c r="Y17" s="214"/>
-      <c r="Z17" s="214"/>
-      <c r="AA17" s="214"/>
-      <c r="AB17" s="214"/>
-      <c r="AC17" s="215"/>
-      <c r="AD17" s="140" t="s">
-        <v>255</v>
       </c>
       <c r="AE17" s="141"/>
       <c r="AF17" s="141"/>
@@ -20888,7 +20904,7 @@
       <c r="AW17" s="23"/>
     </row>
     <row r="18" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B18" s="212"/>
+      <c r="B18" s="218"/>
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -20906,16 +20922,16 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="26"/>
       <c r="S18" s="27"/>
-      <c r="T18" s="216"/>
-      <c r="U18" s="217"/>
-      <c r="V18" s="217"/>
-      <c r="W18" s="217"/>
-      <c r="X18" s="217"/>
-      <c r="Y18" s="217"/>
-      <c r="Z18" s="217"/>
-      <c r="AA18" s="217"/>
-      <c r="AB18" s="217"/>
-      <c r="AC18" s="218"/>
+      <c r="T18" s="214"/>
+      <c r="U18" s="215"/>
+      <c r="V18" s="215"/>
+      <c r="W18" s="215"/>
+      <c r="X18" s="215"/>
+      <c r="Y18" s="215"/>
+      <c r="Z18" s="215"/>
+      <c r="AA18" s="215"/>
+      <c r="AB18" s="215"/>
+      <c r="AC18" s="216"/>
       <c r="AD18" s="142"/>
       <c r="AE18" s="143"/>
       <c r="AF18" s="143"/>
@@ -20938,11 +20954,11 @@
       <c r="AW18" s="27"/>
     </row>
     <row r="19" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B19" s="211">
+      <c r="B19" s="217">
         <v>7</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -20965,7 +20981,7 @@
       <c r="R19" s="22"/>
       <c r="S19" s="23"/>
       <c r="T19" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U19" s="22"/>
       <c r="V19" s="22"/>
@@ -20977,7 +20993,7 @@
       <c r="AB19" s="22"/>
       <c r="AC19" s="22"/>
       <c r="AD19" s="140" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AE19" s="141"/>
       <c r="AF19" s="141"/>
@@ -21000,7 +21016,7 @@
       <c r="AW19" s="23"/>
     </row>
     <row r="20" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B20" s="212"/>
+      <c r="B20" s="218"/>
       <c r="C20" s="75"/>
       <c r="I20" s="76"/>
       <c r="J20" s="25"/>
@@ -21045,13 +21061,13 @@
       <c r="AW20" s="27"/>
     </row>
     <row r="21" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B21" s="211">
+      <c r="B21" s="217">
         <v>8</v>
       </c>
       <c r="C21" s="75"/>
       <c r="I21" s="76"/>
       <c r="J21" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -21065,7 +21081,7 @@
       <c r="R21" s="22"/>
       <c r="S21" s="23"/>
       <c r="T21" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U21" s="22"/>
       <c r="V21" s="22"/>
@@ -21077,7 +21093,7 @@
       <c r="AB21" s="22"/>
       <c r="AC21" s="22"/>
       <c r="AD21" s="140" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE21" s="141"/>
       <c r="AF21" s="141"/>
@@ -21100,7 +21116,7 @@
       <c r="AW21" s="23"/>
     </row>
     <row r="22" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B22" s="212"/>
+      <c r="B22" s="218"/>
       <c r="C22" s="75"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -21150,7 +21166,7 @@
       <c r="AW22" s="27"/>
     </row>
     <row r="23" spans="2:49" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="211">
+      <c r="B23" s="217">
         <v>9</v>
       </c>
       <c r="C23" s="75"/>
@@ -21163,7 +21179,7 @@
       <c r="O23" s="22"/>
       <c r="P23" s="23"/>
       <c r="Q23" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R23" s="22"/>
       <c r="S23" s="23"/>
@@ -21178,7 +21194,7 @@
       <c r="AB23" s="132"/>
       <c r="AC23" s="133"/>
       <c r="AD23" s="140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AE23" s="141"/>
       <c r="AF23" s="141"/>
@@ -21201,7 +21217,7 @@
       <c r="AW23" s="23"/>
     </row>
     <row r="24" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B24" s="212"/>
+      <c r="B24" s="218"/>
       <c r="C24" s="75"/>
       <c r="I24" s="76"/>
       <c r="J24" s="25"/>
@@ -21246,13 +21262,13 @@
       <c r="AW24" s="27"/>
     </row>
     <row r="25" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B25" s="211">
+      <c r="B25" s="217">
         <v>10</v>
       </c>
       <c r="C25" s="75"/>
       <c r="I25" s="76"/>
       <c r="J25" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
@@ -21265,20 +21281,20 @@
       </c>
       <c r="R25" s="22"/>
       <c r="S25" s="23"/>
-      <c r="T25" s="213" t="s">
+      <c r="T25" s="211" t="s">
+        <v>258</v>
+      </c>
+      <c r="U25" s="212"/>
+      <c r="V25" s="212"/>
+      <c r="W25" s="212"/>
+      <c r="X25" s="212"/>
+      <c r="Y25" s="212"/>
+      <c r="Z25" s="212"/>
+      <c r="AA25" s="212"/>
+      <c r="AB25" s="212"/>
+      <c r="AC25" s="213"/>
+      <c r="AD25" s="140" t="s">
         <v>259</v>
-      </c>
-      <c r="U25" s="214"/>
-      <c r="V25" s="214"/>
-      <c r="W25" s="214"/>
-      <c r="X25" s="214"/>
-      <c r="Y25" s="214"/>
-      <c r="Z25" s="214"/>
-      <c r="AA25" s="214"/>
-      <c r="AB25" s="214"/>
-      <c r="AC25" s="215"/>
-      <c r="AD25" s="140" t="s">
-        <v>260</v>
       </c>
       <c r="AE25" s="141"/>
       <c r="AF25" s="141"/>
@@ -21301,7 +21317,7 @@
       <c r="AW25" s="23"/>
     </row>
     <row r="26" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B26" s="212"/>
+      <c r="B26" s="218"/>
       <c r="C26" s="75"/>
       <c r="I26" s="76"/>
       <c r="J26" s="75"/>
@@ -21314,16 +21330,16 @@
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
       <c r="S26" s="27"/>
-      <c r="T26" s="216"/>
-      <c r="U26" s="217"/>
-      <c r="V26" s="217"/>
-      <c r="W26" s="217"/>
-      <c r="X26" s="217"/>
-      <c r="Y26" s="217"/>
-      <c r="Z26" s="217"/>
-      <c r="AA26" s="217"/>
-      <c r="AB26" s="217"/>
-      <c r="AC26" s="218"/>
+      <c r="T26" s="214"/>
+      <c r="U26" s="215"/>
+      <c r="V26" s="215"/>
+      <c r="W26" s="215"/>
+      <c r="X26" s="215"/>
+      <c r="Y26" s="215"/>
+      <c r="Z26" s="215"/>
+      <c r="AA26" s="215"/>
+      <c r="AB26" s="215"/>
+      <c r="AC26" s="216"/>
       <c r="AD26" s="142"/>
       <c r="AE26" s="143"/>
       <c r="AF26" s="143"/>
@@ -21346,11 +21362,11 @@
       <c r="AW26" s="27"/>
     </row>
     <row r="27" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B27" s="211">
+      <c r="B27" s="217">
         <v>11</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -21359,7 +21375,7 @@
       <c r="H27" s="22"/>
       <c r="I27" s="23"/>
       <c r="J27" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
@@ -21372,20 +21388,20 @@
       </c>
       <c r="R27" s="22"/>
       <c r="S27" s="23"/>
-      <c r="T27" s="213" t="s">
-        <v>131</v>
-      </c>
-      <c r="U27" s="214"/>
-      <c r="V27" s="214"/>
-      <c r="W27" s="214"/>
-      <c r="X27" s="214"/>
-      <c r="Y27" s="214"/>
-      <c r="Z27" s="214"/>
-      <c r="AA27" s="214"/>
-      <c r="AB27" s="214"/>
-      <c r="AC27" s="215"/>
+      <c r="T27" s="211" t="s">
+        <v>130</v>
+      </c>
+      <c r="U27" s="212"/>
+      <c r="V27" s="212"/>
+      <c r="W27" s="212"/>
+      <c r="X27" s="212"/>
+      <c r="Y27" s="212"/>
+      <c r="Z27" s="212"/>
+      <c r="AA27" s="212"/>
+      <c r="AB27" s="212"/>
+      <c r="AC27" s="213"/>
       <c r="AD27" s="140" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AE27" s="141"/>
       <c r="AF27" s="141"/>
@@ -21408,7 +21424,7 @@
       <c r="AW27" s="23"/>
     </row>
     <row r="28" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B28" s="212"/>
+      <c r="B28" s="218"/>
       <c r="C28" s="75"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -21426,16 +21442,16 @@
       <c r="Q28" s="25"/>
       <c r="R28" s="26"/>
       <c r="S28" s="27"/>
-      <c r="T28" s="216"/>
-      <c r="U28" s="217"/>
-      <c r="V28" s="217"/>
-      <c r="W28" s="217"/>
-      <c r="X28" s="217"/>
-      <c r="Y28" s="217"/>
-      <c r="Z28" s="217"/>
-      <c r="AA28" s="217"/>
-      <c r="AB28" s="217"/>
-      <c r="AC28" s="218"/>
+      <c r="T28" s="214"/>
+      <c r="U28" s="215"/>
+      <c r="V28" s="215"/>
+      <c r="W28" s="215"/>
+      <c r="X28" s="215"/>
+      <c r="Y28" s="215"/>
+      <c r="Z28" s="215"/>
+      <c r="AA28" s="215"/>
+      <c r="AB28" s="215"/>
+      <c r="AC28" s="216"/>
       <c r="AD28" s="142"/>
       <c r="AE28" s="143"/>
       <c r="AF28" s="143"/>
@@ -21458,7 +21474,7 @@
       <c r="AW28" s="27"/>
     </row>
     <row r="29" spans="2:49" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="211">
+      <c r="B29" s="217">
         <v>12</v>
       </c>
       <c r="C29" s="75"/>
@@ -21471,7 +21487,7 @@
       <c r="O29" s="22"/>
       <c r="P29" s="23"/>
       <c r="Q29" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R29" s="22"/>
       <c r="S29" s="23"/>
@@ -21486,7 +21502,7 @@
       <c r="AB29" s="132"/>
       <c r="AC29" s="133"/>
       <c r="AD29" s="140" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AE29" s="141"/>
       <c r="AF29" s="141"/>
@@ -21509,7 +21525,7 @@
       <c r="AW29" s="23"/>
     </row>
     <row r="30" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B30" s="212"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="75"/>
       <c r="I30" s="76"/>
       <c r="J30" s="25"/>
@@ -21554,11 +21570,11 @@
       <c r="AW30" s="27"/>
     </row>
     <row r="31" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B31" s="211">
+      <c r="B31" s="217">
         <v>13</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="80"/>
       <c r="E31" s="80"/>
@@ -21574,7 +21590,7 @@
       <c r="O31" s="80"/>
       <c r="P31" s="81"/>
       <c r="Q31" s="79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R31" s="80"/>
       <c r="S31" s="81"/>
@@ -21589,7 +21605,7 @@
       <c r="AB31" s="80"/>
       <c r="AC31" s="80"/>
       <c r="AD31" s="79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE31" s="80"/>
       <c r="AF31" s="80"/>
@@ -21612,7 +21628,7 @@
       <c r="AW31" s="81"/>
     </row>
     <row r="32" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="212"/>
+      <c r="B32" s="218"/>
       <c r="C32" s="82"/>
       <c r="D32" s="83"/>
       <c r="E32" s="83"/>
@@ -21662,11 +21678,11 @@
       <c r="AW32" s="84"/>
     </row>
     <row r="33" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B33" s="211">
+      <c r="B33" s="217">
         <v>14</v>
       </c>
       <c r="C33" s="79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
@@ -21687,7 +21703,7 @@
       <c r="R33" s="80"/>
       <c r="S33" s="81"/>
       <c r="T33" s="219" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U33" s="220"/>
       <c r="V33" s="220"/>
@@ -21699,7 +21715,7 @@
       <c r="AB33" s="220"/>
       <c r="AC33" s="221"/>
       <c r="AD33" s="79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE33" s="80"/>
       <c r="AF33" s="80"/>
@@ -21722,7 +21738,7 @@
       <c r="AW33" s="81"/>
     </row>
     <row r="34" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B34" s="212"/>
+      <c r="B34" s="218"/>
       <c r="C34" s="115"/>
       <c r="D34" s="116"/>
       <c r="E34" s="116"/>
@@ -21772,7 +21788,7 @@
       <c r="AW34" s="84"/>
     </row>
     <row r="35" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B35" s="211">
+      <c r="B35" s="217">
         <v>15</v>
       </c>
       <c r="C35" s="115"/>
@@ -21790,7 +21806,7 @@
       <c r="O35" s="116"/>
       <c r="P35" s="117"/>
       <c r="Q35" s="79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R35" s="80"/>
       <c r="S35" s="81"/>
@@ -21805,7 +21821,7 @@
       <c r="AB35" s="80"/>
       <c r="AC35" s="80"/>
       <c r="AD35" s="79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE35" s="80"/>
       <c r="AF35" s="80"/>
@@ -21828,7 +21844,7 @@
       <c r="AW35" s="81"/>
     </row>
     <row r="36" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B36" s="212"/>
+      <c r="B36" s="218"/>
       <c r="C36" s="82"/>
       <c r="D36" s="83"/>
       <c r="E36" s="83"/>
@@ -25767,11 +25783,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="T27:AC28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="T33:AC34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
     <mergeCell ref="T25:AC26"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
@@ -25785,13 +25803,11 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="T17:AC18"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="T27:AC28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="T33:AC34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AT2:AZ2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -26238,10 +26254,10 @@
       <c r="A8" s="56"/>
       <c r="B8" s="56"/>
       <c r="C8" s="139" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="139" t="s">
         <v>265</v>
-      </c>
-      <c r="D8" s="139" t="s">
-        <v>266</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
@@ -26297,7 +26313,7 @@
       <c r="B9" s="56"/>
       <c r="C9" s="139"/>
       <c r="D9" s="139" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
@@ -36950,6 +36966,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -37107,12 +37129,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -37123,6 +37139,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37140,22 +37172,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
